--- a/tablas_insivumeh/MODESTO MENDEZ.xlsx
+++ b/tablas_insivumeh/MODESTO MENDEZ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="221">
   <si>
     <t>Fecha</t>
   </si>
@@ -659,6 +659,21 @@
   </si>
   <si>
     <t>11/6/2020 4:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 4:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 5:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 5:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 5:30:00 PM</t>
   </si>
   <si>
     <t>MODESTO MENDEZ</t>
@@ -1019,7 +1034,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F211"/>
+  <dimension ref="A1:F216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1059,7 +1074,7 @@
         <v>0.75</v>
       </c>
       <c r="F2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1079,7 +1094,7 @@
         <v>0.79</v>
       </c>
       <c r="F3" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1099,7 +1114,7 @@
         <v>0.79</v>
       </c>
       <c r="F4" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1119,7 +1134,7 @@
         <v>0.79</v>
       </c>
       <c r="F5" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1139,7 +1154,7 @@
         <v>0.79</v>
       </c>
       <c r="F6" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1159,7 +1174,7 @@
         <v>0.79</v>
       </c>
       <c r="F7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1179,7 +1194,7 @@
         <v>0.79</v>
       </c>
       <c r="F8" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1199,7 +1214,7 @@
         <v>0.79</v>
       </c>
       <c r="F9" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1219,7 +1234,7 @@
         <v>0.79</v>
       </c>
       <c r="F10" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1239,7 +1254,7 @@
         <v>0.79</v>
       </c>
       <c r="F11" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1259,7 +1274,7 @@
         <v>0.79</v>
       </c>
       <c r="F12" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1279,7 +1294,7 @@
         <v>0.79</v>
       </c>
       <c r="F13" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1299,7 +1314,7 @@
         <v>0.79</v>
       </c>
       <c r="F14" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1319,7 +1334,7 @@
         <v>0.79</v>
       </c>
       <c r="F15" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1339,7 +1354,7 @@
         <v>0.79</v>
       </c>
       <c r="F16" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1359,7 +1374,7 @@
         <v>0.79</v>
       </c>
       <c r="F17" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1379,7 +1394,7 @@
         <v>0.79</v>
       </c>
       <c r="F18" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1399,7 +1414,7 @@
         <v>0.79</v>
       </c>
       <c r="F19" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1419,7 +1434,7 @@
         <v>0.79</v>
       </c>
       <c r="F20" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1439,7 +1454,7 @@
         <v>0.79</v>
       </c>
       <c r="F21" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1459,7 +1474,7 @@
         <v>0.79</v>
       </c>
       <c r="F22" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1479,7 +1494,7 @@
         <v>0.79</v>
       </c>
       <c r="F23" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1499,7 +1514,7 @@
         <v>0.79</v>
       </c>
       <c r="F24" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1519,7 +1534,7 @@
         <v>0.79</v>
       </c>
       <c r="F25" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1539,7 +1554,7 @@
         <v>0.79</v>
       </c>
       <c r="F26" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1559,7 +1574,7 @@
         <v>0.79</v>
       </c>
       <c r="F27" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1579,7 +1594,7 @@
         <v>0.79</v>
       </c>
       <c r="F28" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1599,7 +1614,7 @@
         <v>0.79</v>
       </c>
       <c r="F29" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1619,7 +1634,7 @@
         <v>0.79</v>
       </c>
       <c r="F30" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1639,7 +1654,7 @@
         <v>0.79</v>
       </c>
       <c r="F31" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1659,7 +1674,7 @@
         <v>0.79</v>
       </c>
       <c r="F32" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1679,7 +1694,7 @@
         <v>0.79</v>
       </c>
       <c r="F33" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1699,7 +1714,7 @@
         <v>0.79</v>
       </c>
       <c r="F34" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1719,7 +1734,7 @@
         <v>0.79</v>
       </c>
       <c r="F35" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1739,7 +1754,7 @@
         <v>0.79</v>
       </c>
       <c r="F36" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1759,7 +1774,7 @@
         <v>0.79</v>
       </c>
       <c r="F37" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1779,7 +1794,7 @@
         <v>0.79</v>
       </c>
       <c r="F38" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1799,7 +1814,7 @@
         <v>0.79</v>
       </c>
       <c r="F39" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1819,7 +1834,7 @@
         <v>0.79</v>
       </c>
       <c r="F40" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1839,7 +1854,7 @@
         <v>0.79</v>
       </c>
       <c r="F41" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1859,7 +1874,7 @@
         <v>0.79</v>
       </c>
       <c r="F42" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1879,7 +1894,7 @@
         <v>0.79</v>
       </c>
       <c r="F43" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1899,7 +1914,7 @@
         <v>0.79</v>
       </c>
       <c r="F44" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1919,7 +1934,7 @@
         <v>0.79</v>
       </c>
       <c r="F45" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1939,7 +1954,7 @@
         <v>0.79</v>
       </c>
       <c r="F46" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1959,7 +1974,7 @@
         <v>0.79</v>
       </c>
       <c r="F47" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1979,7 +1994,7 @@
         <v>0.79</v>
       </c>
       <c r="F48" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1999,7 +2014,7 @@
         <v>0.79</v>
       </c>
       <c r="F49" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2019,7 +2034,7 @@
         <v>0.79</v>
       </c>
       <c r="F50" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2039,7 +2054,7 @@
         <v>0.79</v>
       </c>
       <c r="F51" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2059,7 +2074,7 @@
         <v>0.79</v>
       </c>
       <c r="F52" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2079,7 +2094,7 @@
         <v>0.79</v>
       </c>
       <c r="F53" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2099,7 +2114,7 @@
         <v>0.79</v>
       </c>
       <c r="F54" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2119,7 +2134,7 @@
         <v>0.79</v>
       </c>
       <c r="F55" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2139,7 +2154,7 @@
         <v>0.79</v>
       </c>
       <c r="F56" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2159,7 +2174,7 @@
         <v>0.79</v>
       </c>
       <c r="F57" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2179,7 +2194,7 @@
         <v>0.79</v>
       </c>
       <c r="F58" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2199,7 +2214,7 @@
         <v>0.79</v>
       </c>
       <c r="F59" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2219,7 +2234,7 @@
         <v>0.79</v>
       </c>
       <c r="F60" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2239,7 +2254,7 @@
         <v>0.79</v>
       </c>
       <c r="F61" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2259,7 +2274,7 @@
         <v>0.79</v>
       </c>
       <c r="F62" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2279,7 +2294,7 @@
         <v>0.79</v>
       </c>
       <c r="F63" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2299,7 +2314,7 @@
         <v>0.79</v>
       </c>
       <c r="F64" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2319,7 +2334,7 @@
         <v>0.79</v>
       </c>
       <c r="F65" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2339,7 +2354,7 @@
         <v>0.79</v>
       </c>
       <c r="F66" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2359,7 +2374,7 @@
         <v>0.79</v>
       </c>
       <c r="F67" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2379,7 +2394,7 @@
         <v>0.79</v>
       </c>
       <c r="F68" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2399,7 +2414,7 @@
         <v>0.79</v>
       </c>
       <c r="F69" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2419,7 +2434,7 @@
         <v>0.79</v>
       </c>
       <c r="F70" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2439,7 +2454,7 @@
         <v>0.79</v>
       </c>
       <c r="F71" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2459,7 +2474,7 @@
         <v>0.79</v>
       </c>
       <c r="F72" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2479,7 +2494,7 @@
         <v>0.79</v>
       </c>
       <c r="F73" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2499,7 +2514,7 @@
         <v>0.79</v>
       </c>
       <c r="F74" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2519,7 +2534,7 @@
         <v>0.79</v>
       </c>
       <c r="F75" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2539,7 +2554,7 @@
         <v>0.79</v>
       </c>
       <c r="F76" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2559,7 +2574,7 @@
         <v>0.79</v>
       </c>
       <c r="F77" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2579,7 +2594,7 @@
         <v>0.79</v>
       </c>
       <c r="F78" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2599,7 +2614,7 @@
         <v>0.79</v>
       </c>
       <c r="F79" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2619,7 +2634,7 @@
         <v>0.79</v>
       </c>
       <c r="F80" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2639,7 +2654,7 @@
         <v>0.79</v>
       </c>
       <c r="F81" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2659,7 +2674,7 @@
         <v>0.79</v>
       </c>
       <c r="F82" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2679,7 +2694,7 @@
         <v>0.79</v>
       </c>
       <c r="F83" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2699,7 +2714,7 @@
         <v>0.79</v>
       </c>
       <c r="F84" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2719,7 +2734,7 @@
         <v>0.79</v>
       </c>
       <c r="F85" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2739,7 +2754,7 @@
         <v>0.79</v>
       </c>
       <c r="F86" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2759,7 +2774,7 @@
         <v>0.79</v>
       </c>
       <c r="F87" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2779,7 +2794,7 @@
         <v>0.79</v>
       </c>
       <c r="F88" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2799,7 +2814,7 @@
         <v>0.79</v>
       </c>
       <c r="F89" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2819,7 +2834,7 @@
         <v>0.79</v>
       </c>
       <c r="F90" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2839,7 +2854,7 @@
         <v>0.79</v>
       </c>
       <c r="F91" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2859,7 +2874,7 @@
         <v>0.79</v>
       </c>
       <c r="F92" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2879,7 +2894,7 @@
         <v>0.79</v>
       </c>
       <c r="F93" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2899,7 +2914,7 @@
         <v>0.79</v>
       </c>
       <c r="F94" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2919,7 +2934,7 @@
         <v>0.79</v>
       </c>
       <c r="F95" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2939,7 +2954,7 @@
         <v>0.79</v>
       </c>
       <c r="F96" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2959,7 +2974,7 @@
         <v>0.79</v>
       </c>
       <c r="F97" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2979,7 +2994,7 @@
         <v>0.79</v>
       </c>
       <c r="F98" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2999,7 +3014,7 @@
         <v>0.79</v>
       </c>
       <c r="F99" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3019,7 +3034,7 @@
         <v>0.79</v>
       </c>
       <c r="F100" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3039,7 +3054,7 @@
         <v>0.79</v>
       </c>
       <c r="F101" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3059,7 +3074,7 @@
         <v>0.79</v>
       </c>
       <c r="F102" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3079,7 +3094,7 @@
         <v>0.79</v>
       </c>
       <c r="F103" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3099,7 +3114,7 @@
         <v>0.79</v>
       </c>
       <c r="F104" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3119,7 +3134,7 @@
         <v>0.79</v>
       </c>
       <c r="F105" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3139,7 +3154,7 @@
         <v>0.79</v>
       </c>
       <c r="F106" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3159,7 +3174,7 @@
         <v>0.79</v>
       </c>
       <c r="F107" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3179,7 +3194,7 @@
         <v>0.79</v>
       </c>
       <c r="F108" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3199,7 +3214,7 @@
         <v>0.79</v>
       </c>
       <c r="F109" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3219,7 +3234,7 @@
         <v>0.79</v>
       </c>
       <c r="F110" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3239,7 +3254,7 @@
         <v>0.79</v>
       </c>
       <c r="F111" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3259,7 +3274,7 @@
         <v>0.79</v>
       </c>
       <c r="F112" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3279,7 +3294,7 @@
         <v>0.79</v>
       </c>
       <c r="F113" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3299,7 +3314,7 @@
         <v>0.79</v>
       </c>
       <c r="F114" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3319,7 +3334,7 @@
         <v>0.79</v>
       </c>
       <c r="F115" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3339,7 +3354,7 @@
         <v>0.79</v>
       </c>
       <c r="F116" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3359,7 +3374,7 @@
         <v>0.79</v>
       </c>
       <c r="F117" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3379,7 +3394,7 @@
         <v>0.79</v>
       </c>
       <c r="F118" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3399,7 +3414,7 @@
         <v>0.79</v>
       </c>
       <c r="F119" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3419,7 +3434,7 @@
         <v>0.79</v>
       </c>
       <c r="F120" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3439,7 +3454,7 @@
         <v>0.79</v>
       </c>
       <c r="F121" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3459,7 +3474,7 @@
         <v>0.79</v>
       </c>
       <c r="F122" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3479,7 +3494,7 @@
         <v>0.79</v>
       </c>
       <c r="F123" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3499,7 +3514,7 @@
         <v>0.79</v>
       </c>
       <c r="F124" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3519,7 +3534,7 @@
         <v>0.79</v>
       </c>
       <c r="F125" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3539,7 +3554,7 @@
         <v>0.79</v>
       </c>
       <c r="F126" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3559,7 +3574,7 @@
         <v>0.79</v>
       </c>
       <c r="F127" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3579,7 +3594,7 @@
         <v>0.79</v>
       </c>
       <c r="F128" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3599,7 +3614,7 @@
         <v>0.79</v>
       </c>
       <c r="F129" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3619,7 +3634,7 @@
         <v>0.79</v>
       </c>
       <c r="F130" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3639,7 +3654,7 @@
         <v>0.79</v>
       </c>
       <c r="F131" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3659,7 +3674,7 @@
         <v>0.79</v>
       </c>
       <c r="F132" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3679,7 +3694,7 @@
         <v>0.79</v>
       </c>
       <c r="F133" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3699,7 +3714,7 @@
         <v>0.79</v>
       </c>
       <c r="F134" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3719,7 +3734,7 @@
         <v>0.79</v>
       </c>
       <c r="F135" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3739,7 +3754,7 @@
         <v>0.79</v>
       </c>
       <c r="F136" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3759,7 +3774,7 @@
         <v>0.79</v>
       </c>
       <c r="F137" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3779,7 +3794,7 @@
         <v>0.79</v>
       </c>
       <c r="F138" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3799,7 +3814,7 @@
         <v>0.79</v>
       </c>
       <c r="F139" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3819,7 +3834,7 @@
         <v>0.79</v>
       </c>
       <c r="F140" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3839,7 +3854,7 @@
         <v>0.79</v>
       </c>
       <c r="F141" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3859,7 +3874,7 @@
         <v>0.79</v>
       </c>
       <c r="F142" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3879,7 +3894,7 @@
         <v>0.79</v>
       </c>
       <c r="F143" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3899,7 +3914,7 @@
         <v>0.79</v>
       </c>
       <c r="F144" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3919,7 +3934,7 @@
         <v>0.79</v>
       </c>
       <c r="F145" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3939,7 +3954,7 @@
         <v>0.79</v>
       </c>
       <c r="F146" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3959,7 +3974,7 @@
         <v>0.79</v>
       </c>
       <c r="F147" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3979,7 +3994,7 @@
         <v>0.79</v>
       </c>
       <c r="F148" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3999,7 +4014,7 @@
         <v>0.79</v>
       </c>
       <c r="F149" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4019,7 +4034,7 @@
         <v>0.79</v>
       </c>
       <c r="F150" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4039,7 +4054,7 @@
         <v>0.79</v>
       </c>
       <c r="F151" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4059,7 +4074,7 @@
         <v>0.79</v>
       </c>
       <c r="F152" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4079,7 +4094,7 @@
         <v>0.79</v>
       </c>
       <c r="F153" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4099,7 +4114,7 @@
         <v>0.79</v>
       </c>
       <c r="F154" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4119,7 +4134,7 @@
         <v>0.79</v>
       </c>
       <c r="F155" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4139,7 +4154,7 @@
         <v>0.79</v>
       </c>
       <c r="F156" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4159,7 +4174,7 @@
         <v>0.79</v>
       </c>
       <c r="F157" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4179,7 +4194,7 @@
         <v>0.79</v>
       </c>
       <c r="F158" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4199,7 +4214,7 @@
         <v>0.79</v>
       </c>
       <c r="F159" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4219,7 +4234,7 @@
         <v>0.79</v>
       </c>
       <c r="F160" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4239,7 +4254,7 @@
         <v>0.79</v>
       </c>
       <c r="F161" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4259,7 +4274,7 @@
         <v>0.79</v>
       </c>
       <c r="F162" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4279,7 +4294,7 @@
         <v>0.79</v>
       </c>
       <c r="F163" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4299,7 +4314,7 @@
         <v>0.79</v>
       </c>
       <c r="F164" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4319,7 +4334,7 @@
         <v>0.79</v>
       </c>
       <c r="F165" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4339,7 +4354,7 @@
         <v>0.79</v>
       </c>
       <c r="F166" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4359,7 +4374,7 @@
         <v>0.79</v>
       </c>
       <c r="F167" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4379,7 +4394,7 @@
         <v>0.79</v>
       </c>
       <c r="F168" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4399,7 +4414,7 @@
         <v>0.79</v>
       </c>
       <c r="F169" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4419,7 +4434,7 @@
         <v>0.79</v>
       </c>
       <c r="F170" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4439,7 +4454,7 @@
         <v>0.79</v>
       </c>
       <c r="F171" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4459,7 +4474,7 @@
         <v>0.79</v>
       </c>
       <c r="F172" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4479,7 +4494,7 @@
         <v>0.79</v>
       </c>
       <c r="F173" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4499,7 +4514,7 @@
         <v>0.79</v>
       </c>
       <c r="F174" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4519,7 +4534,7 @@
         <v>0.79</v>
       </c>
       <c r="F175" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4539,7 +4554,7 @@
         <v>0.79</v>
       </c>
       <c r="F176" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4559,7 +4574,7 @@
         <v>0.79</v>
       </c>
       <c r="F177" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4579,7 +4594,7 @@
         <v>0.79</v>
       </c>
       <c r="F178" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4599,7 +4614,7 @@
         <v>0.79</v>
       </c>
       <c r="F179" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4619,7 +4634,7 @@
         <v>0.79</v>
       </c>
       <c r="F180" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4639,7 +4654,7 @@
         <v>0.79</v>
       </c>
       <c r="F181" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4659,7 +4674,7 @@
         <v>0.79</v>
       </c>
       <c r="F182" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4679,7 +4694,7 @@
         <v>0.79</v>
       </c>
       <c r="F183" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4699,7 +4714,7 @@
         <v>0.79</v>
       </c>
       <c r="F184" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4719,7 +4734,7 @@
         <v>0.79</v>
       </c>
       <c r="F185" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4739,7 +4754,7 @@
         <v>0.79</v>
       </c>
       <c r="F186" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4759,7 +4774,7 @@
         <v>0.79</v>
       </c>
       <c r="F187" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4779,7 +4794,7 @@
         <v>0.79</v>
       </c>
       <c r="F188" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4799,7 +4814,7 @@
         <v>0.79</v>
       </c>
       <c r="F189" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4819,7 +4834,7 @@
         <v>0.79</v>
       </c>
       <c r="F190" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4839,7 +4854,7 @@
         <v>0.79</v>
       </c>
       <c r="F191" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4859,7 +4874,7 @@
         <v>0.79</v>
       </c>
       <c r="F192" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4879,7 +4894,7 @@
         <v>0.79</v>
       </c>
       <c r="F193" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4899,7 +4914,7 @@
         <v>0.79</v>
       </c>
       <c r="F194" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4919,7 +4934,7 @@
         <v>0.79</v>
       </c>
       <c r="F195" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4939,7 +4954,7 @@
         <v>0.79</v>
       </c>
       <c r="F196" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4959,7 +4974,7 @@
         <v>0.79</v>
       </c>
       <c r="F197" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4979,7 +4994,7 @@
         <v>0.79</v>
       </c>
       <c r="F198" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4999,7 +5014,7 @@
         <v>0.79</v>
       </c>
       <c r="F199" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5019,7 +5034,7 @@
         <v>0.79</v>
       </c>
       <c r="F200" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5039,7 +5054,7 @@
         <v>0.79</v>
       </c>
       <c r="F201" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5059,7 +5074,7 @@
         <v>0.79</v>
       </c>
       <c r="F202" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5079,7 +5094,7 @@
         <v>0.79</v>
       </c>
       <c r="F203" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5099,7 +5114,7 @@
         <v>0.79</v>
       </c>
       <c r="F204" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5119,7 +5134,7 @@
         <v>0.79</v>
       </c>
       <c r="F205" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5139,7 +5154,7 @@
         <v>0.79</v>
       </c>
       <c r="F206" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5159,7 +5174,7 @@
         <v>0.79</v>
       </c>
       <c r="F207" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5179,7 +5194,7 @@
         <v>0.79</v>
       </c>
       <c r="F208" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5199,7 +5214,7 @@
         <v>0.79</v>
       </c>
       <c r="F209" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5219,7 +5234,7 @@
         <v>0.79</v>
       </c>
       <c r="F210" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5239,7 +5254,107 @@
         <v>0.79</v>
       </c>
       <c r="F211" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" t="s">
         <v>215</v>
+      </c>
+      <c r="C212">
+        <v>13.59</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212">
+        <v>0.79</v>
+      </c>
+      <c r="F212" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" t="s">
+        <v>216</v>
+      </c>
+      <c r="C213">
+        <v>13.2</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <v>0.79</v>
+      </c>
+      <c r="F213" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" t="s">
+        <v>217</v>
+      </c>
+      <c r="C214">
+        <v>12.89</v>
+      </c>
+      <c r="D214">
+        <v>0.5</v>
+      </c>
+      <c r="E214">
+        <v>0.79</v>
+      </c>
+      <c r="F214" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" t="s">
+        <v>218</v>
+      </c>
+      <c r="C215">
+        <v>12.84</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="E215">
+        <v>0.79</v>
+      </c>
+      <c r="F215" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" t="s">
+        <v>219</v>
+      </c>
+      <c r="C216">
+        <v>12.83</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216">
+        <v>0.79</v>
+      </c>
+      <c r="F216" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/MODESTO MENDEZ.xlsx
+++ b/tablas_insivumeh/MODESTO MENDEZ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="249">
   <si>
     <t>Fecha</t>
   </si>
@@ -31,417 +31,6 @@
     <t>Estación</t>
   </si>
   <si>
-    <t>11/3/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 8:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 8:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 8:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 8:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 8:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 9:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 9:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 9:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 9:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 9:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 10:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 10:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 10:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 10:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 10:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 11:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 11:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 11:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 11:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 11:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 12:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 12:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 12:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 12:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 12:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 1:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 1:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 1:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 1:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 1:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 2:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 2:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 2:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 2:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 2:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 3:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 3:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 3:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 3:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 3:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 4:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 4:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 4:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 4:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 4:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 5:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 5:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 5:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 5:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 5:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 6:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 6:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 6:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 6:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 6:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 6:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 7:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 7:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 7:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 7:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 7:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 8:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 8:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 8:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 8:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 9:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 9:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 9:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 9:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 9:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 10:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 10:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 10:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 10:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 10:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 11:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 11:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 11:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 11:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 11:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 12:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 12:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 12:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 12:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 12:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 1:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 1:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 1:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 1:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 1:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 2:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 2:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 2:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 2:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 2:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 3:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 3:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 3:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 3:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 3:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 4:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 4:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 4:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 4:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 4:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 5:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 5:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 5:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 5:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 5:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 6:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 6:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 6:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 6:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 6:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 6:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 7:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 7:10:00 PM</t>
-  </si>
-  <si>
     <t>11/5/2020 9:40:00 AM</t>
   </si>
   <si>
@@ -674,6 +263,501 @@
   </si>
   <si>
     <t>11/6/2020 5:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 5:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 5:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 6:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 6:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 6:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 6:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 6:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 7:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 7:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 7:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 7:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 7:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 7:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 8:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 8:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 8:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 8:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 8:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 8:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 9:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 9:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 7:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 7:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 7:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 7:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 7:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 8:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 8:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 8:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 8:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 8:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 9:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 9:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 9:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 9:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 9:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 10:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 10:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 10:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 10:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 10:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 11:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 11:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 11:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 11:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 11:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 12:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 12:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 12:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 12:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 12:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 1:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 1:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 1:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 1:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 1:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 2:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 2:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 2:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 2:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 2:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 3:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 3:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 3:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 3:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 3:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 4:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 4:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 4:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 4:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 4:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 5:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 5:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 5:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 5:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 5:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 6:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 6:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 6:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 6:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 6:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 7:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 7:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 7:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 7:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 7:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 7:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 8:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 8:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 8:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 8:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 6:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 7:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 7:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 7:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 7:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 7:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 8:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 8:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 8:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 8:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 8:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 9:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 9:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 9:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 9:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 9:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 10:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 10:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 10:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 10:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 10:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 12:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 12:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 12:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 12:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 12:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 1:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 1:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 1:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 1:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 1:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 2:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 2:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 2:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 2:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 2:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 3:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 3:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 3:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 3:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 3:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 4:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 4:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 4:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 4:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 4:50:00 PM</t>
   </si>
   <si>
     <t>MODESTO MENDEZ</t>
@@ -1034,7 +1118,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F216"/>
+  <dimension ref="A1:F244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1065,16 +1149,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>11.07</v>
+        <v>11.23</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E2">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="F2" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1085,16 +1169,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>13.39</v>
+        <v>12.53</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E3">
         <v>0.79</v>
       </c>
       <c r="F3" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1114,7 +1198,7 @@
         <v>0.79</v>
       </c>
       <c r="F4" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1125,16 +1209,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>13.57</v>
+        <v>13.55</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E5">
         <v>0.79</v>
       </c>
       <c r="F5" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1145,16 +1229,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>13.39</v>
+        <v>13.42</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E6">
         <v>0.79</v>
       </c>
       <c r="F6" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1165,16 +1249,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>13.31</v>
+        <v>13.22</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E7">
         <v>0.79</v>
       </c>
       <c r="F7" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1185,16 +1269,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>13.28</v>
+        <v>13.22</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E8">
         <v>0.79</v>
       </c>
       <c r="F8" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1205,16 +1289,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>13.33</v>
+        <v>12.72</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E9">
         <v>0.79</v>
       </c>
       <c r="F9" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1225,16 +1309,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>13.34</v>
+        <v>11.99</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0.79</v>
       </c>
       <c r="F10" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1245,16 +1329,16 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>13.26</v>
+        <v>12.01</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E11">
         <v>0.79</v>
       </c>
       <c r="F11" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1265,16 +1349,16 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>13.26</v>
+        <v>11.12</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>0.79</v>
       </c>
       <c r="F12" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1285,16 +1369,16 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>13.09</v>
+        <v>11.31</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E13">
         <v>0.79</v>
       </c>
       <c r="F13" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1305,16 +1389,16 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>13.53</v>
+        <v>13.3</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E14">
         <v>0.79</v>
       </c>
       <c r="F14" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1325,16 +1409,16 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>13.51</v>
+        <v>13.56</v>
       </c>
       <c r="D15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0.79</v>
       </c>
       <c r="F15" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1345,7 +1429,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>13.43</v>
+        <v>13.39</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1354,7 +1438,7 @@
         <v>0.79</v>
       </c>
       <c r="F16" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1365,16 +1449,16 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>13.4</v>
+        <v>12.12</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E17">
         <v>0.79</v>
       </c>
       <c r="F17" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1385,16 +1469,16 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>13.47</v>
+        <v>11.49</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E18">
         <v>0.79</v>
       </c>
       <c r="F18" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1405,16 +1489,16 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>13.56</v>
+        <v>11.32</v>
       </c>
       <c r="D19">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>0.79</v>
       </c>
       <c r="F19" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1425,16 +1509,16 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>13.57</v>
+        <v>13.14</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0.79</v>
       </c>
       <c r="F20" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1445,16 +1529,16 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>13.56</v>
+        <v>13.36</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0.79</v>
       </c>
       <c r="F21" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1468,13 +1552,13 @@
         <v>13.56</v>
       </c>
       <c r="D22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0.79</v>
       </c>
       <c r="F22" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1488,13 +1572,13 @@
         <v>13.57</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0.79</v>
       </c>
       <c r="F23" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1505,7 +1589,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>13.56</v>
+        <v>13.57</v>
       </c>
       <c r="D24">
         <v>0.5</v>
@@ -1514,7 +1598,7 @@
         <v>0.79</v>
       </c>
       <c r="F24" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1528,13 +1612,13 @@
         <v>13.56</v>
       </c>
       <c r="D25">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0.79</v>
       </c>
       <c r="F25" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1545,16 +1629,16 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>13.58</v>
+        <v>13.56</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>0.79</v>
       </c>
       <c r="F26" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1568,13 +1652,13 @@
         <v>13.57</v>
       </c>
       <c r="D27">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0.79</v>
       </c>
       <c r="F27" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1585,16 +1669,16 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>13.57</v>
+        <v>13.58</v>
       </c>
       <c r="D28">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>0.79</v>
       </c>
       <c r="F28" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1608,13 +1692,13 @@
         <v>13.58</v>
       </c>
       <c r="D29">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>0.79</v>
       </c>
       <c r="F29" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1625,7 +1709,7 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>13.56</v>
+        <v>13.58</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1634,7 +1718,7 @@
         <v>0.79</v>
       </c>
       <c r="F30" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1645,16 +1729,16 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>13.57</v>
+        <v>13.59</v>
       </c>
       <c r="D31">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0.79</v>
       </c>
       <c r="F31" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1668,13 +1752,13 @@
         <v>13.58</v>
       </c>
       <c r="D32">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0.79</v>
       </c>
       <c r="F32" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1685,7 +1769,7 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>13.57</v>
+        <v>13.59</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1694,7 +1778,7 @@
         <v>0.79</v>
       </c>
       <c r="F33" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1705,16 +1789,16 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>13.57</v>
+        <v>13.58</v>
       </c>
       <c r="D34">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0.79</v>
       </c>
       <c r="F34" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1734,7 +1818,7 @@
         <v>0.79</v>
       </c>
       <c r="F35" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1745,7 +1829,7 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>13.57</v>
+        <v>13.58</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1754,7 +1838,7 @@
         <v>0.79</v>
       </c>
       <c r="F36" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1768,13 +1852,13 @@
         <v>13.57</v>
       </c>
       <c r="D37">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>0.79</v>
       </c>
       <c r="F37" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1785,7 +1869,7 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>13.58</v>
+        <v>13.57</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1794,7 +1878,7 @@
         <v>0.79</v>
       </c>
       <c r="F38" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1805,7 +1889,7 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>13.57</v>
+        <v>13.58</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1814,7 +1898,7 @@
         <v>0.79</v>
       </c>
       <c r="F39" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1825,7 +1909,7 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>13.57</v>
+        <v>13.6</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1834,7 +1918,7 @@
         <v>0.79</v>
       </c>
       <c r="F40" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1845,7 +1929,7 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>13.58</v>
+        <v>13.6</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1854,7 +1938,7 @@
         <v>0.79</v>
       </c>
       <c r="F41" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1865,7 +1949,7 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>13.57</v>
+        <v>13.59</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1874,7 +1958,7 @@
         <v>0.79</v>
       </c>
       <c r="F42" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1885,7 +1969,7 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>13.43</v>
+        <v>13.6</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1894,7 +1978,7 @@
         <v>0.79</v>
       </c>
       <c r="F43" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1905,7 +1989,7 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>13.13</v>
+        <v>13.6</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1914,7 +1998,7 @@
         <v>0.79</v>
       </c>
       <c r="F44" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1925,7 +2009,7 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>13.55</v>
+        <v>13.6</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1934,7 +2018,7 @@
         <v>0.79</v>
       </c>
       <c r="F45" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1945,16 +2029,16 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>13.56</v>
+        <v>13.6</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E46">
         <v>0.79</v>
       </c>
       <c r="F46" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1965,7 +2049,7 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>13.58</v>
+        <v>13.6</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1974,7 +2058,7 @@
         <v>0.79</v>
       </c>
       <c r="F47" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1985,7 +2069,7 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>13.58</v>
+        <v>13.6</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1994,7 +2078,7 @@
         <v>0.79</v>
       </c>
       <c r="F48" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2005,7 +2089,7 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2014,7 +2098,7 @@
         <v>0.79</v>
       </c>
       <c r="F49" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2025,7 +2109,7 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>13.39</v>
+        <v>13.6</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2034,7 +2118,7 @@
         <v>0.79</v>
       </c>
       <c r="F50" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2045,7 +2129,7 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>13.52</v>
+        <v>13.6</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2054,7 +2138,7 @@
         <v>0.79</v>
       </c>
       <c r="F51" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2065,7 +2149,7 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>13.13</v>
+        <v>13.6</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2074,7 +2158,7 @@
         <v>0.79</v>
       </c>
       <c r="F52" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2085,7 +2169,7 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>12.88</v>
+        <v>13.6</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2094,7 +2178,7 @@
         <v>0.79</v>
       </c>
       <c r="F53" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2105,7 +2189,7 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>12.9</v>
+        <v>13.6</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2114,7 +2198,7 @@
         <v>0.79</v>
       </c>
       <c r="F54" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2125,7 +2209,7 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>12.9</v>
+        <v>13.6</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2134,7 +2218,7 @@
         <v>0.79</v>
       </c>
       <c r="F55" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2145,7 +2229,7 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>12.9</v>
+        <v>13.58</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2154,7 +2238,7 @@
         <v>0.79</v>
       </c>
       <c r="F56" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2165,7 +2249,7 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>12.81</v>
+        <v>13.59</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2174,7 +2258,7 @@
         <v>0.79</v>
       </c>
       <c r="F57" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2185,7 +2269,7 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>12.82</v>
+        <v>13.6</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2194,7 +2278,7 @@
         <v>0.79</v>
       </c>
       <c r="F58" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2205,16 +2289,16 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>12.81</v>
+        <v>13.6</v>
       </c>
       <c r="D59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>0.79</v>
       </c>
       <c r="F59" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2225,7 +2309,7 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>12.79</v>
+        <v>13.6</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2234,7 +2318,7 @@
         <v>0.79</v>
       </c>
       <c r="F60" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2245,16 +2329,16 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>12.81</v>
+        <v>13.59</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E61">
         <v>0.79</v>
       </c>
       <c r="F61" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2265,7 +2349,7 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>12.79</v>
+        <v>13.59</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2274,7 +2358,7 @@
         <v>0.79</v>
       </c>
       <c r="F62" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2285,16 +2369,16 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>12.78</v>
+        <v>13.59</v>
       </c>
       <c r="D63">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <v>0.79</v>
       </c>
       <c r="F63" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2305,7 +2389,7 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>12.8</v>
+        <v>13.49</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2314,7 +2398,7 @@
         <v>0.79</v>
       </c>
       <c r="F64" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2325,7 +2409,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>12.76</v>
+        <v>13.1</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2334,7 +2418,7 @@
         <v>0.79</v>
       </c>
       <c r="F65" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2345,7 +2429,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>12.76</v>
+        <v>13.16</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2354,7 +2438,7 @@
         <v>0.79</v>
       </c>
       <c r="F66" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2365,7 +2449,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>12.78</v>
+        <v>13.21</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2374,7 +2458,7 @@
         <v>0.79</v>
       </c>
       <c r="F67" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2385,16 +2469,16 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>12.73</v>
+        <v>13.54</v>
       </c>
       <c r="D68">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E68">
         <v>0.79</v>
       </c>
       <c r="F68" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2405,7 +2489,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>12.72</v>
+        <v>13.53</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2414,7 +2498,7 @@
         <v>0.79</v>
       </c>
       <c r="F69" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2425,16 +2509,16 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>12.62</v>
+        <v>13.59</v>
       </c>
       <c r="D70">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E70">
         <v>0.79</v>
       </c>
       <c r="F70" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2445,7 +2529,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>12.4</v>
+        <v>13.59</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2454,7 +2538,7 @@
         <v>0.79</v>
       </c>
       <c r="F71" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2465,16 +2549,16 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>12.02</v>
+        <v>13.59</v>
       </c>
       <c r="D72">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E72">
         <v>0.79</v>
       </c>
       <c r="F72" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2485,16 +2569,16 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>11.32</v>
+        <v>13.59</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73">
         <v>0.79</v>
       </c>
       <c r="F73" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2505,7 +2589,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>13.57</v>
+        <v>13.59</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -2514,7 +2598,7 @@
         <v>0.79</v>
       </c>
       <c r="F74" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2525,7 +2609,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>13.56</v>
+        <v>13.59</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -2534,7 +2618,7 @@
         <v>0.79</v>
       </c>
       <c r="F75" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2545,7 +2629,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>13.56</v>
+        <v>13.2</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -2554,7 +2638,7 @@
         <v>0.79</v>
       </c>
       <c r="F76" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2565,16 +2649,16 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>13.57</v>
+        <v>12.89</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E77">
         <v>0.79</v>
       </c>
       <c r="F77" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2585,7 +2669,7 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>13.56</v>
+        <v>12.84</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -2594,7 +2678,7 @@
         <v>0.79</v>
       </c>
       <c r="F78" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2605,16 +2689,16 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>13.56</v>
+        <v>12.83</v>
       </c>
       <c r="D79">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E79">
         <v>0.79</v>
       </c>
       <c r="F79" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2625,7 +2709,7 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>13.57</v>
+        <v>12.83</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -2634,7 +2718,7 @@
         <v>0.79</v>
       </c>
       <c r="F80" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2645,7 +2729,7 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>13.56</v>
+        <v>12.82</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -2654,7 +2738,7 @@
         <v>0.79</v>
       </c>
       <c r="F81" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2665,7 +2749,7 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>13.55</v>
+        <v>12.8</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -2674,7 +2758,7 @@
         <v>0.79</v>
       </c>
       <c r="F82" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2685,7 +2769,7 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>13.57</v>
+        <v>12.82</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -2694,7 +2778,7 @@
         <v>0.79</v>
       </c>
       <c r="F83" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2705,7 +2789,7 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>13.56</v>
+        <v>12.82</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -2714,7 +2798,7 @@
         <v>0.79</v>
       </c>
       <c r="F84" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2725,7 +2809,7 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>13.57</v>
+        <v>12.82</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -2734,7 +2818,7 @@
         <v>0.79</v>
       </c>
       <c r="F85" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2745,7 +2829,7 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>13.57</v>
+        <v>12.82</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -2754,7 +2838,7 @@
         <v>0.79</v>
       </c>
       <c r="F86" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2765,7 +2849,7 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>13.56</v>
+        <v>12.81</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -2774,7 +2858,7 @@
         <v>0.79</v>
       </c>
       <c r="F87" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2785,16 +2869,16 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>13.57</v>
+        <v>12.81</v>
       </c>
       <c r="D88">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E88">
         <v>0.79</v>
       </c>
       <c r="F88" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2805,7 +2889,7 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>13.58</v>
+        <v>12.81</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -2814,7 +2898,7 @@
         <v>0.79</v>
       </c>
       <c r="F89" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2825,7 +2909,7 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>13.57</v>
+        <v>12.8</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -2834,7 +2918,7 @@
         <v>0.79</v>
       </c>
       <c r="F90" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2845,7 +2929,7 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>13.57</v>
+        <v>12.8</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -2854,7 +2938,7 @@
         <v>0.79</v>
       </c>
       <c r="F91" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2865,7 +2949,7 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>13.58</v>
+        <v>12.79</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -2874,7 +2958,7 @@
         <v>0.79</v>
       </c>
       <c r="F92" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2885,7 +2969,7 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>13.57</v>
+        <v>12.79</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -2894,7 +2978,7 @@
         <v>0.79</v>
       </c>
       <c r="F93" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2905,7 +2989,7 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>13.57</v>
+        <v>12.78</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -2914,7 +2998,7 @@
         <v>0.79</v>
       </c>
       <c r="F94" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2925,7 +3009,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>13.58</v>
+        <v>12.77</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -2934,7 +3018,7 @@
         <v>0.79</v>
       </c>
       <c r="F95" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2945,7 +3029,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>13.57</v>
+        <v>12.76</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -2954,7 +3038,7 @@
         <v>0.79</v>
       </c>
       <c r="F96" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2965,7 +3049,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>13.58</v>
+        <v>12.76</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -2974,7 +3058,7 @@
         <v>0.79</v>
       </c>
       <c r="F97" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2985,7 +3069,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>13.58</v>
+        <v>12.74</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -2994,7 +3078,7 @@
         <v>0.79</v>
       </c>
       <c r="F98" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3005,16 +3089,16 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>13.57</v>
+        <v>12.66</v>
       </c>
       <c r="D99">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E99">
         <v>0.79</v>
       </c>
       <c r="F99" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3025,16 +3109,16 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>13.58</v>
+        <v>12.37</v>
       </c>
       <c r="D100">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E100">
         <v>0.79</v>
       </c>
       <c r="F100" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3045,7 +3129,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>13.57</v>
+        <v>11.79</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -3054,7 +3138,7 @@
         <v>0.79</v>
       </c>
       <c r="F101" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3065,7 +3149,7 @@
         <v>105</v>
       </c>
       <c r="C102">
-        <v>13.56</v>
+        <v>11.87</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -3074,7 +3158,7 @@
         <v>0.79</v>
       </c>
       <c r="F102" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3085,7 +3169,7 @@
         <v>106</v>
       </c>
       <c r="C103">
-        <v>13.58</v>
+        <v>13.57</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -3094,7 +3178,7 @@
         <v>0.79</v>
       </c>
       <c r="F103" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3108,13 +3192,13 @@
         <v>13.57</v>
       </c>
       <c r="D104">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E104">
         <v>0.79</v>
       </c>
       <c r="F104" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3134,7 +3218,7 @@
         <v>0.79</v>
       </c>
       <c r="F105" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3145,16 +3229,16 @@
         <v>109</v>
       </c>
       <c r="C106">
-        <v>13.58</v>
+        <v>13.57</v>
       </c>
       <c r="D106">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E106">
-        <v>0.79</v>
+        <v>1.14</v>
       </c>
       <c r="F106" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3168,13 +3252,13 @@
         <v>13.57</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F107" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3191,10 +3275,10 @@
         <v>0</v>
       </c>
       <c r="E108">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F108" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3205,16 +3289,16 @@
         <v>112</v>
       </c>
       <c r="C109">
-        <v>13.59</v>
+        <v>13.57</v>
       </c>
       <c r="D109">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E109">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F109" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3225,16 +3309,16 @@
         <v>113</v>
       </c>
       <c r="C110">
-        <v>13.57</v>
+        <v>13.53</v>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F110" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3248,13 +3332,13 @@
         <v>13.58</v>
       </c>
       <c r="D111">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E111">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3265,16 +3349,16 @@
         <v>115</v>
       </c>
       <c r="C112">
-        <v>13.59</v>
+        <v>13.58</v>
       </c>
       <c r="D112">
         <v>0</v>
       </c>
       <c r="E112">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3291,10 +3375,10 @@
         <v>0</v>
       </c>
       <c r="E113">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3308,13 +3392,13 @@
         <v>13.58</v>
       </c>
       <c r="D114">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E114">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F114" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3331,10 +3415,10 @@
         <v>0</v>
       </c>
       <c r="E115">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F115" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3345,16 +3429,16 @@
         <v>119</v>
       </c>
       <c r="C116">
-        <v>13.58</v>
+        <v>13.59</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F116" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3365,16 +3449,16 @@
         <v>120</v>
       </c>
       <c r="C117">
-        <v>13.26</v>
+        <v>13.59</v>
       </c>
       <c r="D117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E117">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F117" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3385,16 +3469,16 @@
         <v>121</v>
       </c>
       <c r="C118">
-        <v>13.37</v>
+        <v>13.59</v>
       </c>
       <c r="D118">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E118">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F118" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3405,16 +3489,16 @@
         <v>122</v>
       </c>
       <c r="C119">
-        <v>13.46</v>
+        <v>13.59</v>
       </c>
       <c r="D119">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E119">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F119" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3425,16 +3509,16 @@
         <v>123</v>
       </c>
       <c r="C120">
-        <v>13.34</v>
+        <v>13.59</v>
       </c>
       <c r="D120">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E120">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F120" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3445,16 +3529,16 @@
         <v>124</v>
       </c>
       <c r="C121">
-        <v>12.93</v>
+        <v>13.59</v>
       </c>
       <c r="D121">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E121">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F121" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3465,16 +3549,16 @@
         <v>125</v>
       </c>
       <c r="C122">
-        <v>12.82</v>
+        <v>13.6</v>
       </c>
       <c r="D122">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E122">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F122" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3485,16 +3569,16 @@
         <v>126</v>
       </c>
       <c r="C123">
-        <v>12.82</v>
+        <v>13.6</v>
       </c>
       <c r="D123">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E123">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F123" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3505,16 +3589,16 @@
         <v>127</v>
       </c>
       <c r="C124">
-        <v>12.84</v>
+        <v>13.6</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E124">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F124" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3525,16 +3609,16 @@
         <v>128</v>
       </c>
       <c r="C125">
-        <v>12.8</v>
+        <v>13.6</v>
       </c>
       <c r="D125">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E125">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F125" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3545,16 +3629,16 @@
         <v>129</v>
       </c>
       <c r="C126">
-        <v>12.8</v>
+        <v>13.6</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E126">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F126" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3565,16 +3649,16 @@
         <v>130</v>
       </c>
       <c r="C127">
-        <v>12.82</v>
+        <v>13.59</v>
       </c>
       <c r="D127">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E127">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F127" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3585,16 +3669,16 @@
         <v>131</v>
       </c>
       <c r="C128">
-        <v>12.79</v>
+        <v>13.6</v>
       </c>
       <c r="D128">
         <v>0</v>
       </c>
       <c r="E128">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F128" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3605,16 +3689,16 @@
         <v>132</v>
       </c>
       <c r="C129">
-        <v>12.8</v>
+        <v>13.6</v>
       </c>
       <c r="D129">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E129">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F129" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3625,16 +3709,16 @@
         <v>133</v>
       </c>
       <c r="C130">
-        <v>12.81</v>
+        <v>13.6</v>
       </c>
       <c r="D130">
         <v>0</v>
       </c>
       <c r="E130">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F130" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3645,16 +3729,16 @@
         <v>134</v>
       </c>
       <c r="C131">
-        <v>12.78</v>
+        <v>13.61</v>
       </c>
       <c r="D131">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E131">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F131" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3665,16 +3749,16 @@
         <v>135</v>
       </c>
       <c r="C132">
-        <v>12.78</v>
+        <v>13.61</v>
       </c>
       <c r="D132">
         <v>0</v>
       </c>
       <c r="E132">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F132" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3685,16 +3769,16 @@
         <v>136</v>
       </c>
       <c r="C133">
-        <v>12.78</v>
+        <v>13.61</v>
       </c>
       <c r="D133">
         <v>0</v>
       </c>
       <c r="E133">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F133" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3705,16 +3789,16 @@
         <v>137</v>
       </c>
       <c r="C134">
-        <v>12.75</v>
+        <v>13.61</v>
       </c>
       <c r="D134">
         <v>0</v>
       </c>
       <c r="E134">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F134" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3725,16 +3809,16 @@
         <v>138</v>
       </c>
       <c r="C135">
-        <v>12.75</v>
+        <v>13.61</v>
       </c>
       <c r="D135">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E135">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F135" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3745,16 +3829,16 @@
         <v>139</v>
       </c>
       <c r="C136">
-        <v>12.74</v>
+        <v>13.61</v>
       </c>
       <c r="D136">
         <v>0</v>
       </c>
       <c r="E136">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F136" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3765,16 +3849,16 @@
         <v>140</v>
       </c>
       <c r="C137">
-        <v>12.51</v>
+        <v>13.61</v>
       </c>
       <c r="D137">
         <v>0</v>
       </c>
       <c r="E137">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F137" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3785,16 +3869,16 @@
         <v>141</v>
       </c>
       <c r="C138">
-        <v>12.29</v>
+        <v>13.61</v>
       </c>
       <c r="D138">
         <v>0</v>
       </c>
       <c r="E138">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F138" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3805,16 +3889,16 @@
         <v>142</v>
       </c>
       <c r="C139">
-        <v>11.23</v>
+        <v>13.61</v>
       </c>
       <c r="D139">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E139">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F139" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3825,16 +3909,16 @@
         <v>143</v>
       </c>
       <c r="C140">
-        <v>12.53</v>
+        <v>13.62</v>
       </c>
       <c r="D140">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E140">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F140" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3845,16 +3929,16 @@
         <v>144</v>
       </c>
       <c r="C141">
-        <v>13.57</v>
+        <v>13.62</v>
       </c>
       <c r="D141">
         <v>0</v>
       </c>
       <c r="E141">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F141" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3865,16 +3949,16 @@
         <v>145</v>
       </c>
       <c r="C142">
-        <v>13.55</v>
+        <v>13.62</v>
       </c>
       <c r="D142">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E142">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F142" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3885,16 +3969,16 @@
         <v>146</v>
       </c>
       <c r="C143">
-        <v>13.42</v>
+        <v>13.62</v>
       </c>
       <c r="D143">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E143">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F143" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3905,16 +3989,16 @@
         <v>147</v>
       </c>
       <c r="C144">
-        <v>13.22</v>
+        <v>13.61</v>
       </c>
       <c r="D144">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E144">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F144" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3925,16 +4009,16 @@
         <v>148</v>
       </c>
       <c r="C145">
-        <v>13.22</v>
+        <v>13.61</v>
       </c>
       <c r="D145">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E145">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F145" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3945,16 +4029,16 @@
         <v>149</v>
       </c>
       <c r="C146">
-        <v>12.72</v>
+        <v>13.61</v>
       </c>
       <c r="D146">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E146">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F146" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3965,16 +4049,16 @@
         <v>150</v>
       </c>
       <c r="C147">
-        <v>11.99</v>
+        <v>13.61</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E147">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F147" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3985,16 +4069,16 @@
         <v>151</v>
       </c>
       <c r="C148">
-        <v>12.01</v>
+        <v>13.61</v>
       </c>
       <c r="D148">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E148">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F148" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4005,16 +4089,16 @@
         <v>152</v>
       </c>
       <c r="C149">
-        <v>11.12</v>
+        <v>13.61</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E149">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F149" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4025,16 +4109,16 @@
         <v>153</v>
       </c>
       <c r="C150">
-        <v>11.31</v>
+        <v>13.61</v>
       </c>
       <c r="D150">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="E150">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F150" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4045,16 +4129,16 @@
         <v>154</v>
       </c>
       <c r="C151">
-        <v>13.3</v>
+        <v>13.61</v>
       </c>
       <c r="D151">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E151">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F151" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4065,16 +4149,16 @@
         <v>155</v>
       </c>
       <c r="C152">
-        <v>13.56</v>
+        <v>13.6</v>
       </c>
       <c r="D152">
         <v>0</v>
       </c>
       <c r="E152">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F152" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4085,16 +4169,16 @@
         <v>156</v>
       </c>
       <c r="C153">
-        <v>13.39</v>
+        <v>13.61</v>
       </c>
       <c r="D153">
         <v>0</v>
       </c>
       <c r="E153">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F153" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4105,16 +4189,16 @@
         <v>157</v>
       </c>
       <c r="C154">
-        <v>12.12</v>
+        <v>13.61</v>
       </c>
       <c r="D154">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E154">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F154" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4125,16 +4209,16 @@
         <v>158</v>
       </c>
       <c r="C155">
-        <v>11.49</v>
+        <v>13.61</v>
       </c>
       <c r="D155">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E155">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F155" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4145,16 +4229,16 @@
         <v>159</v>
       </c>
       <c r="C156">
-        <v>11.32</v>
+        <v>13.61</v>
       </c>
       <c r="D156">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E156">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F156" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4165,16 +4249,16 @@
         <v>160</v>
       </c>
       <c r="C157">
-        <v>13.14</v>
+        <v>13.61</v>
       </c>
       <c r="D157">
         <v>0</v>
       </c>
       <c r="E157">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F157" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4185,16 +4269,16 @@
         <v>161</v>
       </c>
       <c r="C158">
-        <v>13.36</v>
+        <v>13.61</v>
       </c>
       <c r="D158">
         <v>0</v>
       </c>
       <c r="E158">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F158" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4205,16 +4289,16 @@
         <v>162</v>
       </c>
       <c r="C159">
-        <v>13.56</v>
+        <v>13.51</v>
       </c>
       <c r="D159">
         <v>0</v>
       </c>
       <c r="E159">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F159" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4225,16 +4309,16 @@
         <v>163</v>
       </c>
       <c r="C160">
-        <v>13.57</v>
+        <v>13.31</v>
       </c>
       <c r="D160">
         <v>0</v>
       </c>
       <c r="E160">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F160" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4245,16 +4329,16 @@
         <v>164</v>
       </c>
       <c r="C161">
-        <v>13.57</v>
+        <v>12.89</v>
       </c>
       <c r="D161">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E161">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F161" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4265,16 +4349,16 @@
         <v>165</v>
       </c>
       <c r="C162">
-        <v>13.56</v>
+        <v>12.85</v>
       </c>
       <c r="D162">
         <v>0</v>
       </c>
       <c r="E162">
-        <v>0.79</v>
+        <v>1.06</v>
       </c>
       <c r="F162" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4285,7 +4369,7 @@
         <v>166</v>
       </c>
       <c r="C163">
-        <v>13.56</v>
+        <v>12.85</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -4294,7 +4378,7 @@
         <v>0.79</v>
       </c>
       <c r="F163" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4305,7 +4389,7 @@
         <v>167</v>
       </c>
       <c r="C164">
-        <v>13.57</v>
+        <v>12.85</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -4314,7 +4398,7 @@
         <v>0.79</v>
       </c>
       <c r="F164" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4325,7 +4409,7 @@
         <v>168</v>
       </c>
       <c r="C165">
-        <v>13.58</v>
+        <v>12.84</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -4334,7 +4418,7 @@
         <v>0.79</v>
       </c>
       <c r="F165" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4345,16 +4429,16 @@
         <v>169</v>
       </c>
       <c r="C166">
-        <v>13.58</v>
+        <v>12.83</v>
       </c>
       <c r="D166">
         <v>0</v>
       </c>
       <c r="E166">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="F166" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4365,16 +4449,16 @@
         <v>170</v>
       </c>
       <c r="C167">
-        <v>13.58</v>
+        <v>12.84</v>
       </c>
       <c r="D167">
         <v>0</v>
       </c>
       <c r="E167">
-        <v>0.79</v>
+        <v>1.03</v>
       </c>
       <c r="F167" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4385,16 +4469,16 @@
         <v>171</v>
       </c>
       <c r="C168">
-        <v>13.59</v>
+        <v>12.8</v>
       </c>
       <c r="D168">
         <v>0</v>
       </c>
       <c r="E168">
-        <v>0.79</v>
+        <v>1.05</v>
       </c>
       <c r="F168" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4405,7 +4489,7 @@
         <v>172</v>
       </c>
       <c r="C169">
-        <v>13.58</v>
+        <v>12.83</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -4414,7 +4498,7 @@
         <v>0.79</v>
       </c>
       <c r="F169" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4425,16 +4509,16 @@
         <v>173</v>
       </c>
       <c r="C170">
-        <v>13.59</v>
+        <v>12.82</v>
       </c>
       <c r="D170">
         <v>0</v>
       </c>
       <c r="E170">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="F170" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4445,16 +4529,16 @@
         <v>174</v>
       </c>
       <c r="C171">
-        <v>13.58</v>
+        <v>12.82</v>
       </c>
       <c r="D171">
         <v>0</v>
       </c>
       <c r="E171">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="F171" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4465,16 +4549,16 @@
         <v>175</v>
       </c>
       <c r="C172">
-        <v>13.58</v>
+        <v>12.8</v>
       </c>
       <c r="D172">
         <v>0</v>
       </c>
       <c r="E172">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="F172" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4485,7 +4569,7 @@
         <v>176</v>
       </c>
       <c r="C173">
-        <v>13.58</v>
+        <v>12.81</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -4494,7 +4578,7 @@
         <v>0.79</v>
       </c>
       <c r="F173" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4505,7 +4589,7 @@
         <v>177</v>
       </c>
       <c r="C174">
-        <v>13.57</v>
+        <v>12.8</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -4514,7 +4598,7 @@
         <v>0.79</v>
       </c>
       <c r="F174" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4525,7 +4609,7 @@
         <v>178</v>
       </c>
       <c r="C175">
-        <v>13.57</v>
+        <v>12.8</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -4534,7 +4618,7 @@
         <v>0.79</v>
       </c>
       <c r="F175" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4545,7 +4629,7 @@
         <v>179</v>
       </c>
       <c r="C176">
-        <v>13.58</v>
+        <v>12.79</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -4554,7 +4638,7 @@
         <v>0.79</v>
       </c>
       <c r="F176" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4565,7 +4649,7 @@
         <v>180</v>
       </c>
       <c r="C177">
-        <v>13.6</v>
+        <v>12.78</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -4574,7 +4658,7 @@
         <v>0.79</v>
       </c>
       <c r="F177" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4585,16 +4669,16 @@
         <v>181</v>
       </c>
       <c r="C178">
-        <v>13.6</v>
+        <v>12.77</v>
       </c>
       <c r="D178">
         <v>0</v>
       </c>
       <c r="E178">
-        <v>0.79</v>
+        <v>0.87</v>
       </c>
       <c r="F178" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4605,7 +4689,7 @@
         <v>182</v>
       </c>
       <c r="C179">
-        <v>13.59</v>
+        <v>12.76</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -4614,7 +4698,7 @@
         <v>0.79</v>
       </c>
       <c r="F179" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4625,7 +4709,7 @@
         <v>183</v>
       </c>
       <c r="C180">
-        <v>13.6</v>
+        <v>12.74</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -4634,7 +4718,7 @@
         <v>0.79</v>
       </c>
       <c r="F180" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4645,7 +4729,7 @@
         <v>184</v>
       </c>
       <c r="C181">
-        <v>13.6</v>
+        <v>12.57</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -4654,7 +4738,7 @@
         <v>0.79</v>
       </c>
       <c r="F181" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4665,16 +4749,16 @@
         <v>185</v>
       </c>
       <c r="C182">
-        <v>13.6</v>
+        <v>12.4</v>
       </c>
       <c r="D182">
         <v>0</v>
       </c>
       <c r="E182">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="F182" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4685,16 +4769,16 @@
         <v>186</v>
       </c>
       <c r="C183">
-        <v>13.6</v>
+        <v>11.83</v>
       </c>
       <c r="D183">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E183">
         <v>0.79</v>
       </c>
       <c r="F183" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4705,16 +4789,16 @@
         <v>187</v>
       </c>
       <c r="C184">
-        <v>13.6</v>
+        <v>11.11</v>
       </c>
       <c r="D184">
         <v>0</v>
       </c>
       <c r="E184">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="F184" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4725,7 +4809,7 @@
         <v>188</v>
       </c>
       <c r="C185">
-        <v>13.6</v>
+        <v>11.42</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -4734,7 +4818,7 @@
         <v>0.79</v>
       </c>
       <c r="F185" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4745,7 +4829,7 @@
         <v>189</v>
       </c>
       <c r="C186">
-        <v>13.6</v>
+        <v>13.39</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -4754,7 +4838,7 @@
         <v>0.79</v>
       </c>
       <c r="F186" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4765,7 +4849,7 @@
         <v>190</v>
       </c>
       <c r="C187">
-        <v>13.6</v>
+        <v>13.45</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -4774,7 +4858,7 @@
         <v>0.79</v>
       </c>
       <c r="F187" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4785,7 +4869,7 @@
         <v>191</v>
       </c>
       <c r="C188">
-        <v>13.6</v>
+        <v>13.51</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -4794,7 +4878,7 @@
         <v>0.79</v>
       </c>
       <c r="F188" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4805,7 +4889,7 @@
         <v>192</v>
       </c>
       <c r="C189">
-        <v>13.6</v>
+        <v>13.57</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -4814,7 +4898,7 @@
         <v>0.79</v>
       </c>
       <c r="F189" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4825,7 +4909,7 @@
         <v>193</v>
       </c>
       <c r="C190">
-        <v>13.6</v>
+        <v>13.57</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -4834,7 +4918,7 @@
         <v>0.79</v>
       </c>
       <c r="F190" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4845,7 +4929,7 @@
         <v>194</v>
       </c>
       <c r="C191">
-        <v>13.6</v>
+        <v>13.57</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -4854,7 +4938,7 @@
         <v>0.79</v>
       </c>
       <c r="F191" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4865,7 +4949,7 @@
         <v>195</v>
       </c>
       <c r="C192">
-        <v>13.6</v>
+        <v>13.57</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -4874,7 +4958,7 @@
         <v>0.79</v>
       </c>
       <c r="F192" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4894,7 +4978,7 @@
         <v>0.79</v>
       </c>
       <c r="F193" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4905,7 +4989,7 @@
         <v>197</v>
       </c>
       <c r="C194">
-        <v>13.59</v>
+        <v>13.58</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -4914,7 +4998,7 @@
         <v>0.79</v>
       </c>
       <c r="F194" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4925,7 +5009,7 @@
         <v>198</v>
       </c>
       <c r="C195">
-        <v>13.6</v>
+        <v>13.58</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -4934,7 +5018,7 @@
         <v>0.79</v>
       </c>
       <c r="F195" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4945,7 +5029,7 @@
         <v>199</v>
       </c>
       <c r="C196">
-        <v>13.6</v>
+        <v>13.59</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -4954,7 +5038,7 @@
         <v>0.79</v>
       </c>
       <c r="F196" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4965,7 +5049,7 @@
         <v>200</v>
       </c>
       <c r="C197">
-        <v>13.6</v>
+        <v>13.59</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -4974,7 +5058,7 @@
         <v>0.79</v>
       </c>
       <c r="F197" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4988,13 +5072,13 @@
         <v>13.59</v>
       </c>
       <c r="D198">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E198">
         <v>0.79</v>
       </c>
       <c r="F198" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5014,7 +5098,7 @@
         <v>0.79</v>
       </c>
       <c r="F199" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5034,7 +5118,7 @@
         <v>0.79</v>
       </c>
       <c r="F200" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5045,7 +5129,7 @@
         <v>204</v>
       </c>
       <c r="C201">
-        <v>13.49</v>
+        <v>13.59</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -5054,7 +5138,7 @@
         <v>0.79</v>
       </c>
       <c r="F201" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5065,7 +5149,7 @@
         <v>205</v>
       </c>
       <c r="C202">
-        <v>13.1</v>
+        <v>13.59</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -5074,7 +5158,7 @@
         <v>0.79</v>
       </c>
       <c r="F202" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5085,7 +5169,7 @@
         <v>206</v>
       </c>
       <c r="C203">
-        <v>13.16</v>
+        <v>13.59</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -5094,7 +5178,7 @@
         <v>0.79</v>
       </c>
       <c r="F203" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5105,7 +5189,7 @@
         <v>207</v>
       </c>
       <c r="C204">
-        <v>13.21</v>
+        <v>13.59</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -5114,7 +5198,7 @@
         <v>0.79</v>
       </c>
       <c r="F204" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5125,7 +5209,7 @@
         <v>208</v>
       </c>
       <c r="C205">
-        <v>13.54</v>
+        <v>13.59</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -5134,7 +5218,7 @@
         <v>0.79</v>
       </c>
       <c r="F205" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5145,7 +5229,7 @@
         <v>209</v>
       </c>
       <c r="C206">
-        <v>13.53</v>
+        <v>13.6</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -5154,7 +5238,7 @@
         <v>0.79</v>
       </c>
       <c r="F206" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5165,7 +5249,7 @@
         <v>210</v>
       </c>
       <c r="C207">
-        <v>13.59</v>
+        <v>13.6</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -5174,7 +5258,7 @@
         <v>0.79</v>
       </c>
       <c r="F207" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5185,7 +5269,7 @@
         <v>211</v>
       </c>
       <c r="C208">
-        <v>13.59</v>
+        <v>13.6</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -5194,7 +5278,7 @@
         <v>0.79</v>
       </c>
       <c r="F208" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5205,7 +5289,7 @@
         <v>212</v>
       </c>
       <c r="C209">
-        <v>13.59</v>
+        <v>13.6</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -5214,7 +5298,7 @@
         <v>0.79</v>
       </c>
       <c r="F209" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5234,7 +5318,7 @@
         <v>0.79</v>
       </c>
       <c r="F210" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5245,7 +5329,7 @@
         <v>214</v>
       </c>
       <c r="C211">
-        <v>13.59</v>
+        <v>13.6</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -5254,7 +5338,7 @@
         <v>0.79</v>
       </c>
       <c r="F211" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5265,7 +5349,7 @@
         <v>215</v>
       </c>
       <c r="C212">
-        <v>13.59</v>
+        <v>13.6</v>
       </c>
       <c r="D212">
         <v>0</v>
@@ -5274,7 +5358,7 @@
         <v>0.79</v>
       </c>
       <c r="F212" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5285,7 +5369,7 @@
         <v>216</v>
       </c>
       <c r="C213">
-        <v>13.2</v>
+        <v>13.61</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -5294,7 +5378,7 @@
         <v>0.79</v>
       </c>
       <c r="F213" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5305,16 +5389,16 @@
         <v>217</v>
       </c>
       <c r="C214">
-        <v>12.89</v>
+        <v>13.61</v>
       </c>
       <c r="D214">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E214">
         <v>0.79</v>
       </c>
       <c r="F214" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5325,7 +5409,7 @@
         <v>218</v>
       </c>
       <c r="C215">
-        <v>12.84</v>
+        <v>13.61</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -5334,7 +5418,7 @@
         <v>0.79</v>
       </c>
       <c r="F215" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5345,7 +5429,7 @@
         <v>219</v>
       </c>
       <c r="C216">
-        <v>12.83</v>
+        <v>13.61</v>
       </c>
       <c r="D216">
         <v>0</v>
@@ -5354,7 +5438,567 @@
         <v>0.79</v>
       </c>
       <c r="F216" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" t="s">
         <v>220</v>
+      </c>
+      <c r="C217">
+        <v>13.61</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="E217">
+        <v>0.79</v>
+      </c>
+      <c r="F217" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" t="s">
+        <v>221</v>
+      </c>
+      <c r="C218">
+        <v>13.61</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218">
+        <v>0.79</v>
+      </c>
+      <c r="F218" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" t="s">
+        <v>222</v>
+      </c>
+      <c r="C219">
+        <v>13.61</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <v>0.79</v>
+      </c>
+      <c r="F219" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" t="s">
+        <v>223</v>
+      </c>
+      <c r="C220">
+        <v>13.61</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220">
+        <v>0.79</v>
+      </c>
+      <c r="F220" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" t="s">
+        <v>224</v>
+      </c>
+      <c r="C221">
+        <v>13.61</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221">
+        <v>0.79</v>
+      </c>
+      <c r="F221" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" t="s">
+        <v>225</v>
+      </c>
+      <c r="C222">
+        <v>13.61</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222">
+        <v>0.79</v>
+      </c>
+      <c r="F222" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" t="s">
+        <v>226</v>
+      </c>
+      <c r="C223">
+        <v>13.62</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+      <c r="E223">
+        <v>0.79</v>
+      </c>
+      <c r="F223" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" t="s">
+        <v>227</v>
+      </c>
+      <c r="C224">
+        <v>13.62</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224">
+        <v>0.79</v>
+      </c>
+      <c r="F224" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" t="s">
+        <v>228</v>
+      </c>
+      <c r="C225">
+        <v>13.62</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225">
+        <v>0.79</v>
+      </c>
+      <c r="F225" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" t="s">
+        <v>229</v>
+      </c>
+      <c r="C226">
+        <v>13.62</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226">
+        <v>0.79</v>
+      </c>
+      <c r="F226" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" t="s">
+        <v>230</v>
+      </c>
+      <c r="C227">
+        <v>13.62</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <v>0.79</v>
+      </c>
+      <c r="F227" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" t="s">
+        <v>231</v>
+      </c>
+      <c r="C228">
+        <v>13.62</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+      <c r="E228">
+        <v>0.79</v>
+      </c>
+      <c r="F228" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" t="s">
+        <v>232</v>
+      </c>
+      <c r="C229">
+        <v>13.62</v>
+      </c>
+      <c r="D229">
+        <v>0</v>
+      </c>
+      <c r="E229">
+        <v>0.79</v>
+      </c>
+      <c r="F229" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" t="s">
+        <v>233</v>
+      </c>
+      <c r="C230">
+        <v>13.62</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+      <c r="E230">
+        <v>0.79</v>
+      </c>
+      <c r="F230" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" t="s">
+        <v>234</v>
+      </c>
+      <c r="C231">
+        <v>13.62</v>
+      </c>
+      <c r="D231">
+        <v>0</v>
+      </c>
+      <c r="E231">
+        <v>0.79</v>
+      </c>
+      <c r="F231" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" t="s">
+        <v>235</v>
+      </c>
+      <c r="C232">
+        <v>13.62</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="E232">
+        <v>0.79</v>
+      </c>
+      <c r="F232" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" t="s">
+        <v>236</v>
+      </c>
+      <c r="C233">
+        <v>13.61</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+      <c r="E233">
+        <v>0.79</v>
+      </c>
+      <c r="F233" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" t="s">
+        <v>237</v>
+      </c>
+      <c r="C234">
+        <v>13.61</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+      <c r="E234">
+        <v>0.79</v>
+      </c>
+      <c r="F234" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" t="s">
+        <v>238</v>
+      </c>
+      <c r="C235">
+        <v>13.6</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="E235">
+        <v>0.79</v>
+      </c>
+      <c r="F235" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" t="s">
+        <v>239</v>
+      </c>
+      <c r="C236">
+        <v>13.61</v>
+      </c>
+      <c r="D236">
+        <v>0</v>
+      </c>
+      <c r="E236">
+        <v>0.79</v>
+      </c>
+      <c r="F236" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" t="s">
+        <v>240</v>
+      </c>
+      <c r="C237">
+        <v>13.61</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+      <c r="E237">
+        <v>0.79</v>
+      </c>
+      <c r="F237" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" t="s">
+        <v>241</v>
+      </c>
+      <c r="C238">
+        <v>13.61</v>
+      </c>
+      <c r="D238">
+        <v>0</v>
+      </c>
+      <c r="E238">
+        <v>0.79</v>
+      </c>
+      <c r="F238" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" t="s">
+        <v>242</v>
+      </c>
+      <c r="C239">
+        <v>13.61</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+      <c r="E239">
+        <v>0.79</v>
+      </c>
+      <c r="F239" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" t="s">
+        <v>243</v>
+      </c>
+      <c r="C240">
+        <v>13.58</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+      <c r="E240">
+        <v>0.79</v>
+      </c>
+      <c r="F240" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" t="s">
+        <v>244</v>
+      </c>
+      <c r="C241">
+        <v>13.27</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="E241">
+        <v>0.79</v>
+      </c>
+      <c r="F241" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" t="s">
+        <v>245</v>
+      </c>
+      <c r="C242">
+        <v>13.04</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242">
+        <v>0.79</v>
+      </c>
+      <c r="F242" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" t="s">
+        <v>246</v>
+      </c>
+      <c r="C243">
+        <v>12.96</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+      <c r="E243">
+        <v>0.79</v>
+      </c>
+      <c r="F243" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" t="s">
+        <v>247</v>
+      </c>
+      <c r="C244">
+        <v>12.9</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+      <c r="E244">
+        <v>0.79</v>
+      </c>
+      <c r="F244" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/MODESTO MENDEZ.xlsx
+++ b/tablas_insivumeh/MODESTO MENDEZ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="244">
   <si>
     <t>Fecha</t>
   </si>
@@ -31,57 +31,6 @@
     <t>Estación</t>
   </si>
   <si>
-    <t>11/5/2020 9:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 9:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 10:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 10:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 10:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 10:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 10:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 11:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 11:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/5/2020 2:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/5/2020 2:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/5/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/5/2020 3:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/5/2020 3:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/5/2020 3:30:00 PM</t>
-  </si>
-  <si>
     <t>11/6/2020 7:30:00 AM</t>
   </si>
   <si>
@@ -758,6 +707,42 @@
   </si>
   <si>
     <t>11/8/2020 4:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 5:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 5:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 5:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 5:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 5:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 6:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 6:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 6:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 6:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 6:50:00 PM</t>
   </si>
   <si>
     <t>MODESTO MENDEZ</t>
@@ -1118,7 +1103,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F244"/>
+  <dimension ref="A1:F239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1149,16 +1134,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>11.23</v>
+        <v>11.32</v>
       </c>
       <c r="D2">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0.79</v>
       </c>
       <c r="F2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1169,16 +1154,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>12.53</v>
+        <v>13.14</v>
       </c>
       <c r="D3">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0.79</v>
       </c>
       <c r="F3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1189,7 +1174,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>13.57</v>
+        <v>13.36</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1198,7 +1183,7 @@
         <v>0.79</v>
       </c>
       <c r="F4" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1209,16 +1194,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>13.55</v>
+        <v>13.56</v>
       </c>
       <c r="D5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0.79</v>
       </c>
       <c r="F5" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1229,16 +1214,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>13.42</v>
+        <v>13.57</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0.79</v>
       </c>
       <c r="F6" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1249,7 +1234,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>13.22</v>
+        <v>13.57</v>
       </c>
       <c r="D7">
         <v>0.5</v>
@@ -1258,7 +1243,7 @@
         <v>0.79</v>
       </c>
       <c r="F7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1269,16 +1254,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>13.22</v>
+        <v>13.56</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0.79</v>
       </c>
       <c r="F8" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1289,16 +1274,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>12.72</v>
+        <v>13.56</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0.79</v>
       </c>
       <c r="F9" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1309,16 +1294,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>11.99</v>
+        <v>13.57</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0.79</v>
       </c>
       <c r="F10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1329,16 +1314,16 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>12.01</v>
+        <v>13.58</v>
       </c>
       <c r="D11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0.79</v>
       </c>
       <c r="F11" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1349,16 +1334,16 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>11.12</v>
+        <v>13.58</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0.79</v>
       </c>
       <c r="F12" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1369,16 +1354,16 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>11.31</v>
+        <v>13.58</v>
       </c>
       <c r="D13">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0.79</v>
       </c>
       <c r="F13" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1389,16 +1374,16 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>13.3</v>
+        <v>13.59</v>
       </c>
       <c r="D14">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0.79</v>
       </c>
       <c r="F14" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1409,7 +1394,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>13.56</v>
+        <v>13.58</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1418,7 +1403,7 @@
         <v>0.79</v>
       </c>
       <c r="F15" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1429,7 +1414,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>13.39</v>
+        <v>13.59</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1438,7 +1423,7 @@
         <v>0.79</v>
       </c>
       <c r="F16" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1449,16 +1434,16 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>12.12</v>
+        <v>13.58</v>
       </c>
       <c r="D17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0.79</v>
       </c>
       <c r="F17" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1469,16 +1454,16 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>11.49</v>
+        <v>13.58</v>
       </c>
       <c r="D18">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0.79</v>
       </c>
       <c r="F18" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1489,16 +1474,16 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>11.32</v>
+        <v>13.58</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0.79</v>
       </c>
       <c r="F19" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1509,7 +1494,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>13.14</v>
+        <v>13.57</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1518,7 +1503,7 @@
         <v>0.79</v>
       </c>
       <c r="F20" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1529,7 +1514,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>13.36</v>
+        <v>13.57</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1538,7 +1523,7 @@
         <v>0.79</v>
       </c>
       <c r="F21" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1549,7 +1534,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>13.56</v>
+        <v>13.58</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1558,7 +1543,7 @@
         <v>0.79</v>
       </c>
       <c r="F22" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1569,7 +1554,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>13.57</v>
+        <v>13.6</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1578,7 +1563,7 @@
         <v>0.79</v>
       </c>
       <c r="F23" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1589,16 +1574,16 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>13.57</v>
+        <v>13.6</v>
       </c>
       <c r="D24">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0.79</v>
       </c>
       <c r="F24" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1609,7 +1594,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>13.56</v>
+        <v>13.59</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1618,7 +1603,7 @@
         <v>0.79</v>
       </c>
       <c r="F25" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1629,7 +1614,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>13.56</v>
+        <v>13.6</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1638,7 +1623,7 @@
         <v>0.79</v>
       </c>
       <c r="F26" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1649,7 +1634,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>13.57</v>
+        <v>13.6</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1658,7 +1643,7 @@
         <v>0.79</v>
       </c>
       <c r="F27" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1669,7 +1654,7 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>13.58</v>
+        <v>13.6</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1678,7 +1663,7 @@
         <v>0.79</v>
       </c>
       <c r="F28" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1689,16 +1674,16 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>13.58</v>
+        <v>13.6</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E29">
         <v>0.79</v>
       </c>
       <c r="F29" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1709,7 +1694,7 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>13.58</v>
+        <v>13.6</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1718,7 +1703,7 @@
         <v>0.79</v>
       </c>
       <c r="F30" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1729,7 +1714,7 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>13.59</v>
+        <v>13.6</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1738,7 +1723,7 @@
         <v>0.79</v>
       </c>
       <c r="F31" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1749,7 +1734,7 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>13.58</v>
+        <v>13.6</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1758,7 +1743,7 @@
         <v>0.79</v>
       </c>
       <c r="F32" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1769,7 +1754,7 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>13.59</v>
+        <v>13.6</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1778,7 +1763,7 @@
         <v>0.79</v>
       </c>
       <c r="F33" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1789,7 +1774,7 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>13.58</v>
+        <v>13.6</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1798,7 +1783,7 @@
         <v>0.79</v>
       </c>
       <c r="F34" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1809,7 +1794,7 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>13.58</v>
+        <v>13.6</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1818,7 +1803,7 @@
         <v>0.79</v>
       </c>
       <c r="F35" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1829,7 +1814,7 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>13.58</v>
+        <v>13.6</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1838,7 +1823,7 @@
         <v>0.79</v>
       </c>
       <c r="F36" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1849,7 +1834,7 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>13.57</v>
+        <v>13.6</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1858,7 +1843,7 @@
         <v>0.79</v>
       </c>
       <c r="F37" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1869,7 +1854,7 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>13.57</v>
+        <v>13.6</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1878,7 +1863,7 @@
         <v>0.79</v>
       </c>
       <c r="F38" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1898,7 +1883,7 @@
         <v>0.79</v>
       </c>
       <c r="F39" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1909,7 +1894,7 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>13.6</v>
+        <v>13.59</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1918,7 +1903,7 @@
         <v>0.79</v>
       </c>
       <c r="F40" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1938,7 +1923,7 @@
         <v>0.79</v>
       </c>
       <c r="F41" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1949,7 +1934,7 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>13.59</v>
+        <v>13.6</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1958,7 +1943,7 @@
         <v>0.79</v>
       </c>
       <c r="F42" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1978,7 +1963,7 @@
         <v>0.79</v>
       </c>
       <c r="F43" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1989,16 +1974,16 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>13.6</v>
+        <v>13.59</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E44">
         <v>0.79</v>
       </c>
       <c r="F44" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2009,7 +1994,7 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>13.6</v>
+        <v>13.59</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2018,7 +2003,7 @@
         <v>0.79</v>
       </c>
       <c r="F45" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2029,16 +2014,16 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>13.6</v>
+        <v>13.59</v>
       </c>
       <c r="D46">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>0.79</v>
       </c>
       <c r="F46" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2049,7 +2034,7 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>13.6</v>
+        <v>13.49</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2058,7 +2043,7 @@
         <v>0.79</v>
       </c>
       <c r="F47" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2069,7 +2054,7 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>13.6</v>
+        <v>13.1</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2078,7 +2063,7 @@
         <v>0.79</v>
       </c>
       <c r="F48" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2089,7 +2074,7 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>13.6</v>
+        <v>13.16</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2098,7 +2083,7 @@
         <v>0.79</v>
       </c>
       <c r="F49" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2109,7 +2094,7 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>13.6</v>
+        <v>13.21</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2118,7 +2103,7 @@
         <v>0.79</v>
       </c>
       <c r="F50" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2129,7 +2114,7 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>13.6</v>
+        <v>13.54</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2138,7 +2123,7 @@
         <v>0.79</v>
       </c>
       <c r="F51" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2149,7 +2134,7 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>13.6</v>
+        <v>13.53</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2158,7 +2143,7 @@
         <v>0.79</v>
       </c>
       <c r="F52" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2169,7 +2154,7 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>13.6</v>
+        <v>13.59</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2178,7 +2163,7 @@
         <v>0.79</v>
       </c>
       <c r="F53" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2189,7 +2174,7 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>13.6</v>
+        <v>13.59</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2198,7 +2183,7 @@
         <v>0.79</v>
       </c>
       <c r="F54" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2209,7 +2194,7 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>13.6</v>
+        <v>13.59</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2218,7 +2203,7 @@
         <v>0.79</v>
       </c>
       <c r="F55" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2229,7 +2214,7 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>13.58</v>
+        <v>13.59</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2238,7 +2223,7 @@
         <v>0.79</v>
       </c>
       <c r="F56" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2258,7 +2243,7 @@
         <v>0.79</v>
       </c>
       <c r="F57" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2269,7 +2254,7 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>13.6</v>
+        <v>13.59</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2278,7 +2263,7 @@
         <v>0.79</v>
       </c>
       <c r="F58" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2289,7 +2274,7 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>13.6</v>
+        <v>13.2</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2298,7 +2283,7 @@
         <v>0.79</v>
       </c>
       <c r="F59" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2309,16 +2294,16 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>13.6</v>
+        <v>12.89</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E60">
         <v>0.79</v>
       </c>
       <c r="F60" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2329,16 +2314,16 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>13.59</v>
+        <v>12.84</v>
       </c>
       <c r="D61">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <v>0.79</v>
       </c>
       <c r="F61" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2349,7 +2334,7 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>13.59</v>
+        <v>12.83</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2358,7 +2343,7 @@
         <v>0.79</v>
       </c>
       <c r="F62" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2369,7 +2354,7 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>13.59</v>
+        <v>12.83</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2378,7 +2363,7 @@
         <v>0.79</v>
       </c>
       <c r="F63" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2389,7 +2374,7 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>13.49</v>
+        <v>12.82</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2398,7 +2383,7 @@
         <v>0.79</v>
       </c>
       <c r="F64" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2409,7 +2394,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2418,7 +2403,7 @@
         <v>0.79</v>
       </c>
       <c r="F65" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2429,7 +2414,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>13.16</v>
+        <v>12.82</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2438,7 +2423,7 @@
         <v>0.79</v>
       </c>
       <c r="F66" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2449,7 +2434,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>13.21</v>
+        <v>12.82</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2458,7 +2443,7 @@
         <v>0.79</v>
       </c>
       <c r="F67" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2469,7 +2454,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>13.54</v>
+        <v>12.82</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2478,7 +2463,7 @@
         <v>0.79</v>
       </c>
       <c r="F68" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2489,7 +2474,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>13.53</v>
+        <v>12.82</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2498,7 +2483,7 @@
         <v>0.79</v>
       </c>
       <c r="F69" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2509,7 +2494,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>13.59</v>
+        <v>12.81</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2518,7 +2503,7 @@
         <v>0.79</v>
       </c>
       <c r="F70" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2529,7 +2514,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>13.59</v>
+        <v>12.81</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2538,7 +2523,7 @@
         <v>0.79</v>
       </c>
       <c r="F71" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2549,7 +2534,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>13.59</v>
+        <v>12.81</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -2558,7 +2543,7 @@
         <v>0.79</v>
       </c>
       <c r="F72" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2569,7 +2554,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>13.59</v>
+        <v>12.8</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2578,7 +2563,7 @@
         <v>0.79</v>
       </c>
       <c r="F73" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2589,7 +2574,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>13.59</v>
+        <v>12.8</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -2598,7 +2583,7 @@
         <v>0.79</v>
       </c>
       <c r="F74" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2609,7 +2594,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>13.59</v>
+        <v>12.79</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -2618,7 +2603,7 @@
         <v>0.79</v>
       </c>
       <c r="F75" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2629,7 +2614,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>13.2</v>
+        <v>12.79</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -2638,7 +2623,7 @@
         <v>0.79</v>
       </c>
       <c r="F76" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2649,16 +2634,16 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>12.89</v>
+        <v>12.78</v>
       </c>
       <c r="D77">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E77">
         <v>0.79</v>
       </c>
       <c r="F77" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2669,7 +2654,7 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>12.84</v>
+        <v>12.77</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -2678,7 +2663,7 @@
         <v>0.79</v>
       </c>
       <c r="F78" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2689,7 +2674,7 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>12.83</v>
+        <v>12.76</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -2698,7 +2683,7 @@
         <v>0.79</v>
       </c>
       <c r="F79" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2709,7 +2694,7 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>12.83</v>
+        <v>12.76</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -2718,7 +2703,7 @@
         <v>0.79</v>
       </c>
       <c r="F80" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2729,7 +2714,7 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>12.82</v>
+        <v>12.74</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -2738,7 +2723,7 @@
         <v>0.79</v>
       </c>
       <c r="F81" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2749,7 +2734,7 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>12.8</v>
+        <v>12.66</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -2758,7 +2743,7 @@
         <v>0.79</v>
       </c>
       <c r="F82" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2769,7 +2754,7 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>12.82</v>
+        <v>12.37</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -2778,7 +2763,7 @@
         <v>0.79</v>
       </c>
       <c r="F83" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2789,7 +2774,7 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>12.82</v>
+        <v>11.79</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -2798,7 +2783,7 @@
         <v>0.79</v>
       </c>
       <c r="F84" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2809,7 +2794,7 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>12.82</v>
+        <v>11.87</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -2818,7 +2803,7 @@
         <v>0.79</v>
       </c>
       <c r="F85" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2829,7 +2814,7 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>12.82</v>
+        <v>13.57</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -2838,7 +2823,7 @@
         <v>0.79</v>
       </c>
       <c r="F86" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2849,7 +2834,7 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>12.81</v>
+        <v>13.57</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -2858,7 +2843,7 @@
         <v>0.79</v>
       </c>
       <c r="F87" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2869,7 +2854,7 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>12.81</v>
+        <v>13.57</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -2878,7 +2863,7 @@
         <v>0.79</v>
       </c>
       <c r="F88" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2889,16 +2874,16 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>12.81</v>
+        <v>13.57</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>0.79</v>
+        <v>1.14</v>
       </c>
       <c r="F89" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2909,16 +2894,16 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>12.8</v>
+        <v>13.57</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F90" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2929,16 +2914,16 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>12.8</v>
+        <v>13.57</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F91" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2949,16 +2934,16 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>12.79</v>
+        <v>13.57</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F92" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2969,16 +2954,16 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>12.79</v>
+        <v>13.53</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F93" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2989,16 +2974,16 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>12.78</v>
+        <v>13.58</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F94" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3009,16 +2994,16 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>12.77</v>
+        <v>13.58</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F95" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3029,16 +3014,16 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>12.76</v>
+        <v>13.58</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F96" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3049,16 +3034,16 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>12.76</v>
+        <v>13.58</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F97" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3069,16 +3054,16 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>12.74</v>
+        <v>13.59</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F98" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3089,16 +3074,16 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>12.66</v>
+        <v>13.59</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F99" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3109,16 +3094,16 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>12.37</v>
+        <v>13.59</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F100" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3129,16 +3114,16 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>11.79</v>
+        <v>13.59</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F101" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3149,16 +3134,16 @@
         <v>105</v>
       </c>
       <c r="C102">
-        <v>11.87</v>
+        <v>13.59</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F102" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3169,16 +3154,16 @@
         <v>106</v>
       </c>
       <c r="C103">
-        <v>13.57</v>
+        <v>13.59</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F103" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3189,16 +3174,16 @@
         <v>107</v>
       </c>
       <c r="C104">
-        <v>13.57</v>
+        <v>13.59</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F104" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3209,16 +3194,16 @@
         <v>108</v>
       </c>
       <c r="C105">
-        <v>13.57</v>
+        <v>13.6</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F105" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3229,16 +3214,16 @@
         <v>109</v>
       </c>
       <c r="C106">
-        <v>13.57</v>
+        <v>13.6</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="F106" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3249,7 +3234,7 @@
         <v>110</v>
       </c>
       <c r="C107">
-        <v>13.57</v>
+        <v>13.6</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -3258,7 +3243,7 @@
         <v>1.21</v>
       </c>
       <c r="F107" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3269,7 +3254,7 @@
         <v>111</v>
       </c>
       <c r="C108">
-        <v>13.57</v>
+        <v>13.6</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -3278,7 +3263,7 @@
         <v>1.21</v>
       </c>
       <c r="F108" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3289,7 +3274,7 @@
         <v>112</v>
       </c>
       <c r="C109">
-        <v>13.57</v>
+        <v>13.6</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -3298,7 +3283,7 @@
         <v>1.21</v>
       </c>
       <c r="F109" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3309,7 +3294,7 @@
         <v>113</v>
       </c>
       <c r="C110">
-        <v>13.53</v>
+        <v>13.59</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -3318,7 +3303,7 @@
         <v>1.21</v>
       </c>
       <c r="F110" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3329,7 +3314,7 @@
         <v>114</v>
       </c>
       <c r="C111">
-        <v>13.58</v>
+        <v>13.6</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -3338,7 +3323,7 @@
         <v>1.21</v>
       </c>
       <c r="F111" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3349,7 +3334,7 @@
         <v>115</v>
       </c>
       <c r="C112">
-        <v>13.58</v>
+        <v>13.6</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -3358,7 +3343,7 @@
         <v>1.21</v>
       </c>
       <c r="F112" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3369,7 +3354,7 @@
         <v>116</v>
       </c>
       <c r="C113">
-        <v>13.58</v>
+        <v>13.6</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -3378,7 +3363,7 @@
         <v>1.21</v>
       </c>
       <c r="F113" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3389,7 +3374,7 @@
         <v>117</v>
       </c>
       <c r="C114">
-        <v>13.58</v>
+        <v>13.61</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -3398,7 +3383,7 @@
         <v>1.21</v>
       </c>
       <c r="F114" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3409,7 +3394,7 @@
         <v>118</v>
       </c>
       <c r="C115">
-        <v>13.59</v>
+        <v>13.61</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -3418,7 +3403,7 @@
         <v>1.21</v>
       </c>
       <c r="F115" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3429,7 +3414,7 @@
         <v>119</v>
       </c>
       <c r="C116">
-        <v>13.59</v>
+        <v>13.61</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -3438,7 +3423,7 @@
         <v>1.21</v>
       </c>
       <c r="F116" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3449,7 +3434,7 @@
         <v>120</v>
       </c>
       <c r="C117">
-        <v>13.59</v>
+        <v>13.61</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -3458,7 +3443,7 @@
         <v>1.21</v>
       </c>
       <c r="F117" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3469,7 +3454,7 @@
         <v>121</v>
       </c>
       <c r="C118">
-        <v>13.59</v>
+        <v>13.61</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -3478,7 +3463,7 @@
         <v>1.21</v>
       </c>
       <c r="F118" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3489,7 +3474,7 @@
         <v>122</v>
       </c>
       <c r="C119">
-        <v>13.59</v>
+        <v>13.61</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -3498,7 +3483,7 @@
         <v>1.21</v>
       </c>
       <c r="F119" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3509,7 +3494,7 @@
         <v>123</v>
       </c>
       <c r="C120">
-        <v>13.59</v>
+        <v>13.61</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -3518,7 +3503,7 @@
         <v>1.21</v>
       </c>
       <c r="F120" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3529,7 +3514,7 @@
         <v>124</v>
       </c>
       <c r="C121">
-        <v>13.59</v>
+        <v>13.61</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -3538,7 +3523,7 @@
         <v>1.21</v>
       </c>
       <c r="F121" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3549,7 +3534,7 @@
         <v>125</v>
       </c>
       <c r="C122">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -3558,7 +3543,7 @@
         <v>1.21</v>
       </c>
       <c r="F122" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3569,7 +3554,7 @@
         <v>126</v>
       </c>
       <c r="C123">
-        <v>13.6</v>
+        <v>13.62</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -3578,7 +3563,7 @@
         <v>1.21</v>
       </c>
       <c r="F123" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3589,7 +3574,7 @@
         <v>127</v>
       </c>
       <c r="C124">
-        <v>13.6</v>
+        <v>13.62</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -3598,7 +3583,7 @@
         <v>1.21</v>
       </c>
       <c r="F124" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3609,7 +3594,7 @@
         <v>128</v>
       </c>
       <c r="C125">
-        <v>13.6</v>
+        <v>13.62</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -3618,7 +3603,7 @@
         <v>1.21</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3629,7 +3614,7 @@
         <v>129</v>
       </c>
       <c r="C126">
-        <v>13.6</v>
+        <v>13.62</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -3638,7 +3623,7 @@
         <v>1.21</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3649,7 +3634,7 @@
         <v>130</v>
       </c>
       <c r="C127">
-        <v>13.59</v>
+        <v>13.61</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -3658,7 +3643,7 @@
         <v>1.21</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3669,7 +3654,7 @@
         <v>131</v>
       </c>
       <c r="C128">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -3678,7 +3663,7 @@
         <v>1.21</v>
       </c>
       <c r="F128" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3689,7 +3674,7 @@
         <v>132</v>
       </c>
       <c r="C129">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -3698,7 +3683,7 @@
         <v>1.21</v>
       </c>
       <c r="F129" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3709,7 +3694,7 @@
         <v>133</v>
       </c>
       <c r="C130">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -3718,7 +3703,7 @@
         <v>1.21</v>
       </c>
       <c r="F130" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3738,7 +3723,7 @@
         <v>1.21</v>
       </c>
       <c r="F131" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3758,7 +3743,7 @@
         <v>1.21</v>
       </c>
       <c r="F132" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3778,7 +3763,7 @@
         <v>1.21</v>
       </c>
       <c r="F133" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3798,7 +3783,7 @@
         <v>1.21</v>
       </c>
       <c r="F134" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3809,7 +3794,7 @@
         <v>138</v>
       </c>
       <c r="C135">
-        <v>13.61</v>
+        <v>13.6</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -3818,7 +3803,7 @@
         <v>1.21</v>
       </c>
       <c r="F135" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3838,7 +3823,7 @@
         <v>1.21</v>
       </c>
       <c r="F136" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3858,7 +3843,7 @@
         <v>1.21</v>
       </c>
       <c r="F137" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3878,7 +3863,7 @@
         <v>1.21</v>
       </c>
       <c r="F138" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3898,7 +3883,7 @@
         <v>1.21</v>
       </c>
       <c r="F139" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3909,7 +3894,7 @@
         <v>143</v>
       </c>
       <c r="C140">
-        <v>13.62</v>
+        <v>13.61</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -3918,7 +3903,7 @@
         <v>1.21</v>
       </c>
       <c r="F140" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3929,7 +3914,7 @@
         <v>144</v>
       </c>
       <c r="C141">
-        <v>13.62</v>
+        <v>13.61</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -3938,7 +3923,7 @@
         <v>1.21</v>
       </c>
       <c r="F141" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3949,7 +3934,7 @@
         <v>145</v>
       </c>
       <c r="C142">
-        <v>13.62</v>
+        <v>13.51</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -3958,7 +3943,7 @@
         <v>1.21</v>
       </c>
       <c r="F142" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3969,7 +3954,7 @@
         <v>146</v>
       </c>
       <c r="C143">
-        <v>13.62</v>
+        <v>13.31</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -3978,7 +3963,7 @@
         <v>1.21</v>
       </c>
       <c r="F143" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3989,7 +3974,7 @@
         <v>147</v>
       </c>
       <c r="C144">
-        <v>13.61</v>
+        <v>12.89</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -3998,7 +3983,7 @@
         <v>1.21</v>
       </c>
       <c r="F144" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4009,16 +3994,16 @@
         <v>148</v>
       </c>
       <c r="C145">
-        <v>13.61</v>
+        <v>12.85</v>
       </c>
       <c r="D145">
         <v>0</v>
       </c>
       <c r="E145">
-        <v>1.21</v>
+        <v>1.06</v>
       </c>
       <c r="F145" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4029,16 +4014,16 @@
         <v>149</v>
       </c>
       <c r="C146">
-        <v>13.61</v>
+        <v>12.85</v>
       </c>
       <c r="D146">
         <v>0</v>
       </c>
       <c r="E146">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F146" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4049,16 +4034,16 @@
         <v>150</v>
       </c>
       <c r="C147">
-        <v>13.61</v>
+        <v>12.85</v>
       </c>
       <c r="D147">
         <v>0</v>
       </c>
       <c r="E147">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F147" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4069,16 +4054,16 @@
         <v>151</v>
       </c>
       <c r="C148">
-        <v>13.61</v>
+        <v>12.84</v>
       </c>
       <c r="D148">
         <v>0</v>
       </c>
       <c r="E148">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F148" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4089,16 +4074,16 @@
         <v>152</v>
       </c>
       <c r="C149">
-        <v>13.61</v>
+        <v>12.83</v>
       </c>
       <c r="D149">
         <v>0</v>
       </c>
       <c r="E149">
-        <v>1.21</v>
+        <v>0.78</v>
       </c>
       <c r="F149" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4109,16 +4094,16 @@
         <v>153</v>
       </c>
       <c r="C150">
-        <v>13.61</v>
+        <v>12.84</v>
       </c>
       <c r="D150">
         <v>0</v>
       </c>
       <c r="E150">
-        <v>1.21</v>
+        <v>1.03</v>
       </c>
       <c r="F150" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4129,16 +4114,16 @@
         <v>154</v>
       </c>
       <c r="C151">
-        <v>13.61</v>
+        <v>12.8</v>
       </c>
       <c r="D151">
         <v>0</v>
       </c>
       <c r="E151">
-        <v>1.21</v>
+        <v>1.05</v>
       </c>
       <c r="F151" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4149,16 +4134,16 @@
         <v>155</v>
       </c>
       <c r="C152">
-        <v>13.6</v>
+        <v>12.83</v>
       </c>
       <c r="D152">
         <v>0</v>
       </c>
       <c r="E152">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F152" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4169,16 +4154,16 @@
         <v>156</v>
       </c>
       <c r="C153">
-        <v>13.61</v>
+        <v>12.82</v>
       </c>
       <c r="D153">
         <v>0</v>
       </c>
       <c r="E153">
-        <v>1.21</v>
+        <v>0.78</v>
       </c>
       <c r="F153" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4189,16 +4174,16 @@
         <v>157</v>
       </c>
       <c r="C154">
-        <v>13.61</v>
+        <v>12.82</v>
       </c>
       <c r="D154">
         <v>0</v>
       </c>
       <c r="E154">
-        <v>1.21</v>
+        <v>0.78</v>
       </c>
       <c r="F154" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4209,16 +4194,16 @@
         <v>158</v>
       </c>
       <c r="C155">
-        <v>13.61</v>
+        <v>12.8</v>
       </c>
       <c r="D155">
         <v>0</v>
       </c>
       <c r="E155">
-        <v>1.21</v>
+        <v>0.78</v>
       </c>
       <c r="F155" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4229,16 +4214,16 @@
         <v>159</v>
       </c>
       <c r="C156">
-        <v>13.61</v>
+        <v>12.81</v>
       </c>
       <c r="D156">
         <v>0</v>
       </c>
       <c r="E156">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F156" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4249,16 +4234,16 @@
         <v>160</v>
       </c>
       <c r="C157">
-        <v>13.61</v>
+        <v>12.8</v>
       </c>
       <c r="D157">
         <v>0</v>
       </c>
       <c r="E157">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F157" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4269,16 +4254,16 @@
         <v>161</v>
       </c>
       <c r="C158">
-        <v>13.61</v>
+        <v>12.8</v>
       </c>
       <c r="D158">
         <v>0</v>
       </c>
       <c r="E158">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F158" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4289,16 +4274,16 @@
         <v>162</v>
       </c>
       <c r="C159">
-        <v>13.51</v>
+        <v>12.79</v>
       </c>
       <c r="D159">
         <v>0</v>
       </c>
       <c r="E159">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F159" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4309,16 +4294,16 @@
         <v>163</v>
       </c>
       <c r="C160">
-        <v>13.31</v>
+        <v>12.78</v>
       </c>
       <c r="D160">
         <v>0</v>
       </c>
       <c r="E160">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F160" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4329,16 +4314,16 @@
         <v>164</v>
       </c>
       <c r="C161">
-        <v>12.89</v>
+        <v>12.77</v>
       </c>
       <c r="D161">
         <v>0</v>
       </c>
       <c r="E161">
-        <v>1.21</v>
+        <v>0.87</v>
       </c>
       <c r="F161" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4349,16 +4334,16 @@
         <v>165</v>
       </c>
       <c r="C162">
-        <v>12.85</v>
+        <v>12.76</v>
       </c>
       <c r="D162">
         <v>0</v>
       </c>
       <c r="E162">
-        <v>1.06</v>
+        <v>0.79</v>
       </c>
       <c r="F162" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4369,7 +4354,7 @@
         <v>166</v>
       </c>
       <c r="C163">
-        <v>12.85</v>
+        <v>12.74</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -4378,7 +4363,7 @@
         <v>0.79</v>
       </c>
       <c r="F163" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4389,7 +4374,7 @@
         <v>167</v>
       </c>
       <c r="C164">
-        <v>12.85</v>
+        <v>12.57</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -4398,7 +4383,7 @@
         <v>0.79</v>
       </c>
       <c r="F164" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4409,16 +4394,16 @@
         <v>168</v>
       </c>
       <c r="C165">
-        <v>12.84</v>
+        <v>12.4</v>
       </c>
       <c r="D165">
         <v>0</v>
       </c>
       <c r="E165">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="F165" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4429,16 +4414,16 @@
         <v>169</v>
       </c>
       <c r="C166">
-        <v>12.83</v>
+        <v>11.83</v>
       </c>
       <c r="D166">
         <v>0</v>
       </c>
       <c r="E166">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="F166" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4449,16 +4434,16 @@
         <v>170</v>
       </c>
       <c r="C167">
-        <v>12.84</v>
+        <v>11.11</v>
       </c>
       <c r="D167">
         <v>0</v>
       </c>
       <c r="E167">
-        <v>1.03</v>
+        <v>0.78</v>
       </c>
       <c r="F167" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4469,16 +4454,16 @@
         <v>171</v>
       </c>
       <c r="C168">
-        <v>12.8</v>
+        <v>11.42</v>
       </c>
       <c r="D168">
         <v>0</v>
       </c>
       <c r="E168">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="F168" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4489,7 +4474,7 @@
         <v>172</v>
       </c>
       <c r="C169">
-        <v>12.83</v>
+        <v>13.39</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -4498,7 +4483,7 @@
         <v>0.79</v>
       </c>
       <c r="F169" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4509,16 +4494,16 @@
         <v>173</v>
       </c>
       <c r="C170">
-        <v>12.82</v>
+        <v>13.45</v>
       </c>
       <c r="D170">
         <v>0</v>
       </c>
       <c r="E170">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="F170" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4529,16 +4514,16 @@
         <v>174</v>
       </c>
       <c r="C171">
-        <v>12.82</v>
+        <v>13.51</v>
       </c>
       <c r="D171">
         <v>0</v>
       </c>
       <c r="E171">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="F171" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4549,16 +4534,16 @@
         <v>175</v>
       </c>
       <c r="C172">
-        <v>12.8</v>
+        <v>13.57</v>
       </c>
       <c r="D172">
         <v>0</v>
       </c>
       <c r="E172">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="F172" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4569,7 +4554,7 @@
         <v>176</v>
       </c>
       <c r="C173">
-        <v>12.81</v>
+        <v>13.57</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -4578,7 +4563,7 @@
         <v>0.79</v>
       </c>
       <c r="F173" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4589,7 +4574,7 @@
         <v>177</v>
       </c>
       <c r="C174">
-        <v>12.8</v>
+        <v>13.57</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -4598,7 +4583,7 @@
         <v>0.79</v>
       </c>
       <c r="F174" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4609,7 +4594,7 @@
         <v>178</v>
       </c>
       <c r="C175">
-        <v>12.8</v>
+        <v>13.57</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -4618,7 +4603,7 @@
         <v>0.79</v>
       </c>
       <c r="F175" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4629,7 +4614,7 @@
         <v>179</v>
       </c>
       <c r="C176">
-        <v>12.79</v>
+        <v>13.58</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -4638,7 +4623,7 @@
         <v>0.79</v>
       </c>
       <c r="F176" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4649,7 +4634,7 @@
         <v>180</v>
       </c>
       <c r="C177">
-        <v>12.78</v>
+        <v>13.58</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -4658,7 +4643,7 @@
         <v>0.79</v>
       </c>
       <c r="F177" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4669,16 +4654,16 @@
         <v>181</v>
       </c>
       <c r="C178">
-        <v>12.77</v>
+        <v>13.58</v>
       </c>
       <c r="D178">
         <v>0</v>
       </c>
       <c r="E178">
-        <v>0.87</v>
+        <v>0.79</v>
       </c>
       <c r="F178" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4689,7 +4674,7 @@
         <v>182</v>
       </c>
       <c r="C179">
-        <v>12.76</v>
+        <v>13.59</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -4698,7 +4683,7 @@
         <v>0.79</v>
       </c>
       <c r="F179" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4709,7 +4694,7 @@
         <v>183</v>
       </c>
       <c r="C180">
-        <v>12.74</v>
+        <v>13.59</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -4718,7 +4703,7 @@
         <v>0.79</v>
       </c>
       <c r="F180" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4729,7 +4714,7 @@
         <v>184</v>
       </c>
       <c r="C181">
-        <v>12.57</v>
+        <v>13.59</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -4738,7 +4723,7 @@
         <v>0.79</v>
       </c>
       <c r="F181" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4749,16 +4734,16 @@
         <v>185</v>
       </c>
       <c r="C182">
-        <v>12.4</v>
+        <v>13.59</v>
       </c>
       <c r="D182">
         <v>0</v>
       </c>
       <c r="E182">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="F182" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4769,7 +4754,7 @@
         <v>186</v>
       </c>
       <c r="C183">
-        <v>11.83</v>
+        <v>13.59</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -4778,7 +4763,7 @@
         <v>0.79</v>
       </c>
       <c r="F183" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4789,16 +4774,16 @@
         <v>187</v>
       </c>
       <c r="C184">
-        <v>11.11</v>
+        <v>13.59</v>
       </c>
       <c r="D184">
         <v>0</v>
       </c>
       <c r="E184">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="F184" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4809,7 +4794,7 @@
         <v>188</v>
       </c>
       <c r="C185">
-        <v>11.42</v>
+        <v>13.59</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -4818,7 +4803,7 @@
         <v>0.79</v>
       </c>
       <c r="F185" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4829,7 +4814,7 @@
         <v>189</v>
       </c>
       <c r="C186">
-        <v>13.39</v>
+        <v>13.59</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -4838,7 +4823,7 @@
         <v>0.79</v>
       </c>
       <c r="F186" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4849,7 +4834,7 @@
         <v>190</v>
       </c>
       <c r="C187">
-        <v>13.45</v>
+        <v>13.59</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -4858,7 +4843,7 @@
         <v>0.79</v>
       </c>
       <c r="F187" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4869,7 +4854,7 @@
         <v>191</v>
       </c>
       <c r="C188">
-        <v>13.51</v>
+        <v>13.59</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -4878,7 +4863,7 @@
         <v>0.79</v>
       </c>
       <c r="F188" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4889,7 +4874,7 @@
         <v>192</v>
       </c>
       <c r="C189">
-        <v>13.57</v>
+        <v>13.6</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -4898,7 +4883,7 @@
         <v>0.79</v>
       </c>
       <c r="F189" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4909,7 +4894,7 @@
         <v>193</v>
       </c>
       <c r="C190">
-        <v>13.57</v>
+        <v>13.6</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -4918,7 +4903,7 @@
         <v>0.79</v>
       </c>
       <c r="F190" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4929,7 +4914,7 @@
         <v>194</v>
       </c>
       <c r="C191">
-        <v>13.57</v>
+        <v>13.6</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -4938,7 +4923,7 @@
         <v>0.79</v>
       </c>
       <c r="F191" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4949,7 +4934,7 @@
         <v>195</v>
       </c>
       <c r="C192">
-        <v>13.57</v>
+        <v>13.6</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -4958,7 +4943,7 @@
         <v>0.79</v>
       </c>
       <c r="F192" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4969,7 +4954,7 @@
         <v>196</v>
       </c>
       <c r="C193">
-        <v>13.58</v>
+        <v>13.59</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -4978,7 +4963,7 @@
         <v>0.79</v>
       </c>
       <c r="F193" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4989,7 +4974,7 @@
         <v>197</v>
       </c>
       <c r="C194">
-        <v>13.58</v>
+        <v>13.6</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -4998,7 +4983,7 @@
         <v>0.79</v>
       </c>
       <c r="F194" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5009,7 +4994,7 @@
         <v>198</v>
       </c>
       <c r="C195">
-        <v>13.58</v>
+        <v>13.6</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -5018,7 +5003,7 @@
         <v>0.79</v>
       </c>
       <c r="F195" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5029,7 +5014,7 @@
         <v>199</v>
       </c>
       <c r="C196">
-        <v>13.59</v>
+        <v>13.61</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -5038,7 +5023,7 @@
         <v>0.79</v>
       </c>
       <c r="F196" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5049,7 +5034,7 @@
         <v>200</v>
       </c>
       <c r="C197">
-        <v>13.59</v>
+        <v>13.61</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -5058,7 +5043,7 @@
         <v>0.79</v>
       </c>
       <c r="F197" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5069,7 +5054,7 @@
         <v>201</v>
       </c>
       <c r="C198">
-        <v>13.59</v>
+        <v>13.61</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -5078,7 +5063,7 @@
         <v>0.79</v>
       </c>
       <c r="F198" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5089,7 +5074,7 @@
         <v>202</v>
       </c>
       <c r="C199">
-        <v>13.59</v>
+        <v>13.61</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -5098,7 +5083,7 @@
         <v>0.79</v>
       </c>
       <c r="F199" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5109,7 +5094,7 @@
         <v>203</v>
       </c>
       <c r="C200">
-        <v>13.59</v>
+        <v>13.61</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -5118,7 +5103,7 @@
         <v>0.79</v>
       </c>
       <c r="F200" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5129,7 +5114,7 @@
         <v>204</v>
       </c>
       <c r="C201">
-        <v>13.59</v>
+        <v>13.61</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -5138,7 +5123,7 @@
         <v>0.79</v>
       </c>
       <c r="F201" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5149,7 +5134,7 @@
         <v>205</v>
       </c>
       <c r="C202">
-        <v>13.59</v>
+        <v>13.61</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -5158,7 +5143,7 @@
         <v>0.79</v>
       </c>
       <c r="F202" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5169,7 +5154,7 @@
         <v>206</v>
       </c>
       <c r="C203">
-        <v>13.59</v>
+        <v>13.61</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -5178,7 +5163,7 @@
         <v>0.79</v>
       </c>
       <c r="F203" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5189,7 +5174,7 @@
         <v>207</v>
       </c>
       <c r="C204">
-        <v>13.59</v>
+        <v>13.61</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -5198,7 +5183,7 @@
         <v>0.79</v>
       </c>
       <c r="F204" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5209,7 +5194,7 @@
         <v>208</v>
       </c>
       <c r="C205">
-        <v>13.59</v>
+        <v>13.61</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -5218,7 +5203,7 @@
         <v>0.79</v>
       </c>
       <c r="F205" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5229,7 +5214,7 @@
         <v>209</v>
       </c>
       <c r="C206">
-        <v>13.6</v>
+        <v>13.62</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -5238,7 +5223,7 @@
         <v>0.79</v>
       </c>
       <c r="F206" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5249,7 +5234,7 @@
         <v>210</v>
       </c>
       <c r="C207">
-        <v>13.6</v>
+        <v>13.62</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -5258,7 +5243,7 @@
         <v>0.79</v>
       </c>
       <c r="F207" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5269,7 +5254,7 @@
         <v>211</v>
       </c>
       <c r="C208">
-        <v>13.6</v>
+        <v>13.62</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -5278,7 +5263,7 @@
         <v>0.79</v>
       </c>
       <c r="F208" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5289,7 +5274,7 @@
         <v>212</v>
       </c>
       <c r="C209">
-        <v>13.6</v>
+        <v>13.62</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -5298,7 +5283,7 @@
         <v>0.79</v>
       </c>
       <c r="F209" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5309,7 +5294,7 @@
         <v>213</v>
       </c>
       <c r="C210">
-        <v>13.59</v>
+        <v>13.62</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -5318,7 +5303,7 @@
         <v>0.79</v>
       </c>
       <c r="F210" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5329,7 +5314,7 @@
         <v>214</v>
       </c>
       <c r="C211">
-        <v>13.6</v>
+        <v>13.62</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -5338,7 +5323,7 @@
         <v>0.79</v>
       </c>
       <c r="F211" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5349,7 +5334,7 @@
         <v>215</v>
       </c>
       <c r="C212">
-        <v>13.6</v>
+        <v>13.62</v>
       </c>
       <c r="D212">
         <v>0</v>
@@ -5358,7 +5343,7 @@
         <v>0.79</v>
       </c>
       <c r="F212" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5369,7 +5354,7 @@
         <v>216</v>
       </c>
       <c r="C213">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -5378,7 +5363,7 @@
         <v>0.79</v>
       </c>
       <c r="F213" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5389,7 +5374,7 @@
         <v>217</v>
       </c>
       <c r="C214">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D214">
         <v>0</v>
@@ -5398,7 +5383,7 @@
         <v>0.79</v>
       </c>
       <c r="F214" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5409,7 +5394,7 @@
         <v>218</v>
       </c>
       <c r="C215">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -5418,7 +5403,7 @@
         <v>0.79</v>
       </c>
       <c r="F215" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5438,7 +5423,7 @@
         <v>0.79</v>
       </c>
       <c r="F216" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5458,7 +5443,7 @@
         <v>0.79</v>
       </c>
       <c r="F217" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5469,7 +5454,7 @@
         <v>221</v>
       </c>
       <c r="C218">
-        <v>13.61</v>
+        <v>13.6</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -5478,7 +5463,7 @@
         <v>0.79</v>
       </c>
       <c r="F218" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5498,7 +5483,7 @@
         <v>0.79</v>
       </c>
       <c r="F219" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5518,7 +5503,7 @@
         <v>0.79</v>
       </c>
       <c r="F220" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5538,7 +5523,7 @@
         <v>0.79</v>
       </c>
       <c r="F221" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5558,7 +5543,7 @@
         <v>0.79</v>
       </c>
       <c r="F222" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5569,7 +5554,7 @@
         <v>226</v>
       </c>
       <c r="C223">
-        <v>13.62</v>
+        <v>13.58</v>
       </c>
       <c r="D223">
         <v>0</v>
@@ -5578,7 +5563,7 @@
         <v>0.79</v>
       </c>
       <c r="F223" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5589,7 +5574,7 @@
         <v>227</v>
       </c>
       <c r="C224">
-        <v>13.62</v>
+        <v>13.27</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -5598,7 +5583,7 @@
         <v>0.79</v>
       </c>
       <c r="F224" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5609,7 +5594,7 @@
         <v>228</v>
       </c>
       <c r="C225">
-        <v>13.62</v>
+        <v>13.04</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -5618,7 +5603,7 @@
         <v>0.79</v>
       </c>
       <c r="F225" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5629,7 +5614,7 @@
         <v>229</v>
       </c>
       <c r="C226">
-        <v>13.62</v>
+        <v>12.96</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -5638,7 +5623,7 @@
         <v>0.79</v>
       </c>
       <c r="F226" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5649,7 +5634,7 @@
         <v>230</v>
       </c>
       <c r="C227">
-        <v>13.62</v>
+        <v>12.9</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -5658,7 +5643,7 @@
         <v>0.79</v>
       </c>
       <c r="F227" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5669,7 +5654,7 @@
         <v>231</v>
       </c>
       <c r="C228">
-        <v>13.62</v>
+        <v>12.86</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -5678,7 +5663,7 @@
         <v>0.79</v>
       </c>
       <c r="F228" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5689,7 +5674,7 @@
         <v>232</v>
       </c>
       <c r="C229">
-        <v>13.62</v>
+        <v>12.85</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -5698,7 +5683,7 @@
         <v>0.79</v>
       </c>
       <c r="F229" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5709,7 +5694,7 @@
         <v>233</v>
       </c>
       <c r="C230">
-        <v>13.62</v>
+        <v>12.84</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -5718,7 +5703,7 @@
         <v>0.79</v>
       </c>
       <c r="F230" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5729,7 +5714,7 @@
         <v>234</v>
       </c>
       <c r="C231">
-        <v>13.62</v>
+        <v>12.84</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -5738,7 +5723,7 @@
         <v>0.79</v>
       </c>
       <c r="F231" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5749,7 +5734,7 @@
         <v>235</v>
       </c>
       <c r="C232">
-        <v>13.62</v>
+        <v>12.84</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -5758,7 +5743,7 @@
         <v>0.79</v>
       </c>
       <c r="F232" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5769,7 +5754,7 @@
         <v>236</v>
       </c>
       <c r="C233">
-        <v>13.61</v>
+        <v>12.83</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -5778,7 +5763,7 @@
         <v>0.79</v>
       </c>
       <c r="F233" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5789,7 +5774,7 @@
         <v>237</v>
       </c>
       <c r="C234">
-        <v>13.61</v>
+        <v>12.83</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -5798,7 +5783,7 @@
         <v>0.79</v>
       </c>
       <c r="F234" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5809,7 +5794,7 @@
         <v>238</v>
       </c>
       <c r="C235">
-        <v>13.6</v>
+        <v>12.82</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -5818,7 +5803,7 @@
         <v>0.79</v>
       </c>
       <c r="F235" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5829,7 +5814,7 @@
         <v>239</v>
       </c>
       <c r="C236">
-        <v>13.61</v>
+        <v>12.81</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -5838,7 +5823,7 @@
         <v>0.79</v>
       </c>
       <c r="F236" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5849,7 +5834,7 @@
         <v>240</v>
       </c>
       <c r="C237">
-        <v>13.61</v>
+        <v>12.81</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -5858,7 +5843,7 @@
         <v>0.79</v>
       </c>
       <c r="F237" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5869,7 +5854,7 @@
         <v>241</v>
       </c>
       <c r="C238">
-        <v>13.61</v>
+        <v>12.8</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -5878,7 +5863,7 @@
         <v>0.79</v>
       </c>
       <c r="F238" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5889,7 +5874,7 @@
         <v>242</v>
       </c>
       <c r="C239">
-        <v>13.61</v>
+        <v>12.8</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -5898,107 +5883,7 @@
         <v>0.79</v>
       </c>
       <c r="F239" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6">
-      <c r="A240" s="1">
-        <v>238</v>
-      </c>
-      <c r="B240" t="s">
-        <v>243</v>
-      </c>
-      <c r="C240">
-        <v>13.58</v>
-      </c>
-      <c r="D240">
-        <v>0</v>
-      </c>
-      <c r="E240">
-        <v>0.79</v>
-      </c>
-      <c r="F240" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6">
-      <c r="A241" s="1">
-        <v>239</v>
-      </c>
-      <c r="B241" t="s">
-        <v>244</v>
-      </c>
-      <c r="C241">
-        <v>13.27</v>
-      </c>
-      <c r="D241">
-        <v>0</v>
-      </c>
-      <c r="E241">
-        <v>0.79</v>
-      </c>
-      <c r="F241" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6">
-      <c r="A242" s="1">
-        <v>240</v>
-      </c>
-      <c r="B242" t="s">
-        <v>245</v>
-      </c>
-      <c r="C242">
-        <v>13.04</v>
-      </c>
-      <c r="D242">
-        <v>0</v>
-      </c>
-      <c r="E242">
-        <v>0.79</v>
-      </c>
-      <c r="F242" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6">
-      <c r="A243" s="1">
-        <v>241</v>
-      </c>
-      <c r="B243" t="s">
-        <v>246</v>
-      </c>
-      <c r="C243">
-        <v>12.96</v>
-      </c>
-      <c r="D243">
-        <v>0</v>
-      </c>
-      <c r="E243">
-        <v>0.79</v>
-      </c>
-      <c r="F243" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6">
-      <c r="A244" s="1">
-        <v>242</v>
-      </c>
-      <c r="B244" t="s">
-        <v>247</v>
-      </c>
-      <c r="C244">
-        <v>12.9</v>
-      </c>
-      <c r="D244">
-        <v>0</v>
-      </c>
-      <c r="E244">
-        <v>0.79</v>
-      </c>
-      <c r="F244" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/MODESTO MENDEZ.xlsx
+++ b/tablas_insivumeh/MODESTO MENDEZ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="258">
   <si>
     <t>Fecha</t>
   </si>
@@ -770,6 +770,21 @@
   </si>
   <si>
     <t>11/8/2020 8:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 8:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/9/2020 7:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 7:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 7:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 8:00:00 AM</t>
   </si>
   <si>
     <t>MODESTO MENDEZ</t>
@@ -1130,7 +1145,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F248"/>
+  <dimension ref="A1:F253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1170,7 +1185,7 @@
         <v>0.79</v>
       </c>
       <c r="F2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1190,7 +1205,7 @@
         <v>0.79</v>
       </c>
       <c r="F3" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1210,7 +1225,7 @@
         <v>0.79</v>
       </c>
       <c r="F4" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1230,7 +1245,7 @@
         <v>0.79</v>
       </c>
       <c r="F5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1250,7 +1265,7 @@
         <v>0.79</v>
       </c>
       <c r="F6" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1270,7 +1285,7 @@
         <v>0.79</v>
       </c>
       <c r="F7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1290,7 +1305,7 @@
         <v>0.79</v>
       </c>
       <c r="F8" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1310,7 +1325,7 @@
         <v>0.79</v>
       </c>
       <c r="F9" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1330,7 +1345,7 @@
         <v>0.79</v>
       </c>
       <c r="F10" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1350,7 +1365,7 @@
         <v>0.79</v>
       </c>
       <c r="F11" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1370,7 +1385,7 @@
         <v>0.79</v>
       </c>
       <c r="F12" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1390,7 +1405,7 @@
         <v>0.79</v>
       </c>
       <c r="F13" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1410,7 +1425,7 @@
         <v>0.79</v>
       </c>
       <c r="F14" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1430,7 +1445,7 @@
         <v>0.79</v>
       </c>
       <c r="F15" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1450,7 +1465,7 @@
         <v>0.79</v>
       </c>
       <c r="F16" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1470,7 +1485,7 @@
         <v>0.79</v>
       </c>
       <c r="F17" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1490,7 +1505,7 @@
         <v>0.79</v>
       </c>
       <c r="F18" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1510,7 +1525,7 @@
         <v>0.79</v>
       </c>
       <c r="F19" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1530,7 +1545,7 @@
         <v>0.79</v>
       </c>
       <c r="F20" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1550,7 +1565,7 @@
         <v>0.79</v>
       </c>
       <c r="F21" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1570,7 +1585,7 @@
         <v>0.79</v>
       </c>
       <c r="F22" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1590,7 +1605,7 @@
         <v>0.79</v>
       </c>
       <c r="F23" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1610,7 +1625,7 @@
         <v>0.79</v>
       </c>
       <c r="F24" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1630,7 +1645,7 @@
         <v>0.79</v>
       </c>
       <c r="F25" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1650,7 +1665,7 @@
         <v>0.79</v>
       </c>
       <c r="F26" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1670,7 +1685,7 @@
         <v>0.79</v>
       </c>
       <c r="F27" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1690,7 +1705,7 @@
         <v>0.79</v>
       </c>
       <c r="F28" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1710,7 +1725,7 @@
         <v>0.79</v>
       </c>
       <c r="F29" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1730,7 +1745,7 @@
         <v>0.79</v>
       </c>
       <c r="F30" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1750,7 +1765,7 @@
         <v>0.79</v>
       </c>
       <c r="F31" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1770,7 +1785,7 @@
         <v>0.79</v>
       </c>
       <c r="F32" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1790,7 +1805,7 @@
         <v>0.79</v>
       </c>
       <c r="F33" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1810,7 +1825,7 @@
         <v>0.79</v>
       </c>
       <c r="F34" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1830,7 +1845,7 @@
         <v>0.79</v>
       </c>
       <c r="F35" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1850,7 +1865,7 @@
         <v>0.79</v>
       </c>
       <c r="F36" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1870,7 +1885,7 @@
         <v>0.79</v>
       </c>
       <c r="F37" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1890,7 +1905,7 @@
         <v>0.79</v>
       </c>
       <c r="F38" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1910,7 +1925,7 @@
         <v>0.79</v>
       </c>
       <c r="F39" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1930,7 +1945,7 @@
         <v>0.79</v>
       </c>
       <c r="F40" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1950,7 +1965,7 @@
         <v>0.79</v>
       </c>
       <c r="F41" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1970,7 +1985,7 @@
         <v>0.79</v>
       </c>
       <c r="F42" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1990,7 +2005,7 @@
         <v>0.79</v>
       </c>
       <c r="F43" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2010,7 +2025,7 @@
         <v>0.79</v>
       </c>
       <c r="F44" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2030,7 +2045,7 @@
         <v>0.79</v>
       </c>
       <c r="F45" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2050,7 +2065,7 @@
         <v>0.79</v>
       </c>
       <c r="F46" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2070,7 +2085,7 @@
         <v>0.79</v>
       </c>
       <c r="F47" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2090,7 +2105,7 @@
         <v>0.79</v>
       </c>
       <c r="F48" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2110,7 +2125,7 @@
         <v>0.79</v>
       </c>
       <c r="F49" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2130,7 +2145,7 @@
         <v>0.79</v>
       </c>
       <c r="F50" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2150,7 +2165,7 @@
         <v>0.79</v>
       </c>
       <c r="F51" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2170,7 +2185,7 @@
         <v>0.79</v>
       </c>
       <c r="F52" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2190,7 +2205,7 @@
         <v>0.79</v>
       </c>
       <c r="F53" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2210,7 +2225,7 @@
         <v>0.79</v>
       </c>
       <c r="F54" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2230,7 +2245,7 @@
         <v>0.79</v>
       </c>
       <c r="F55" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2250,7 +2265,7 @@
         <v>0.79</v>
       </c>
       <c r="F56" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2270,7 +2285,7 @@
         <v>0.79</v>
       </c>
       <c r="F57" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2290,7 +2305,7 @@
         <v>0.79</v>
       </c>
       <c r="F58" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2310,7 +2325,7 @@
         <v>0.79</v>
       </c>
       <c r="F59" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2330,7 +2345,7 @@
         <v>0.79</v>
       </c>
       <c r="F60" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2350,7 +2365,7 @@
         <v>0.79</v>
       </c>
       <c r="F61" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2370,7 +2385,7 @@
         <v>0.79</v>
       </c>
       <c r="F62" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2390,7 +2405,7 @@
         <v>0.79</v>
       </c>
       <c r="F63" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2410,7 +2425,7 @@
         <v>0.79</v>
       </c>
       <c r="F64" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2430,7 +2445,7 @@
         <v>0.79</v>
       </c>
       <c r="F65" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2450,7 +2465,7 @@
         <v>0.79</v>
       </c>
       <c r="F66" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2470,7 +2485,7 @@
         <v>0.79</v>
       </c>
       <c r="F67" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2490,7 +2505,7 @@
         <v>0.79</v>
       </c>
       <c r="F68" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2510,7 +2525,7 @@
         <v>0.79</v>
       </c>
       <c r="F69" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2530,7 +2545,7 @@
         <v>0.79</v>
       </c>
       <c r="F70" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2550,7 +2565,7 @@
         <v>0.79</v>
       </c>
       <c r="F71" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2570,7 +2585,7 @@
         <v>0.79</v>
       </c>
       <c r="F72" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2590,7 +2605,7 @@
         <v>0.79</v>
       </c>
       <c r="F73" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2610,7 +2625,7 @@
         <v>0.79</v>
       </c>
       <c r="F74" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2630,7 +2645,7 @@
         <v>0.79</v>
       </c>
       <c r="F75" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2650,7 +2665,7 @@
         <v>0.79</v>
       </c>
       <c r="F76" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2670,7 +2685,7 @@
         <v>0.79</v>
       </c>
       <c r="F77" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2690,7 +2705,7 @@
         <v>0.79</v>
       </c>
       <c r="F78" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2710,7 +2725,7 @@
         <v>0.79</v>
       </c>
       <c r="F79" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2730,7 +2745,7 @@
         <v>0.79</v>
       </c>
       <c r="F80" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2750,7 +2765,7 @@
         <v>0.79</v>
       </c>
       <c r="F81" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2770,7 +2785,7 @@
         <v>0.79</v>
       </c>
       <c r="F82" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2790,7 +2805,7 @@
         <v>0.79</v>
       </c>
       <c r="F83" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2810,7 +2825,7 @@
         <v>0.79</v>
       </c>
       <c r="F84" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2830,7 +2845,7 @@
         <v>0.79</v>
       </c>
       <c r="F85" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2850,7 +2865,7 @@
         <v>0.79</v>
       </c>
       <c r="F86" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2870,7 +2885,7 @@
         <v>0.79</v>
       </c>
       <c r="F87" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2890,7 +2905,7 @@
         <v>0.79</v>
       </c>
       <c r="F88" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2910,7 +2925,7 @@
         <v>1.14</v>
       </c>
       <c r="F89" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2930,7 +2945,7 @@
         <v>1.21</v>
       </c>
       <c r="F90" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2950,7 +2965,7 @@
         <v>1.21</v>
       </c>
       <c r="F91" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2970,7 +2985,7 @@
         <v>1.21</v>
       </c>
       <c r="F92" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2990,7 +3005,7 @@
         <v>1.21</v>
       </c>
       <c r="F93" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3010,7 +3025,7 @@
         <v>1.21</v>
       </c>
       <c r="F94" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3030,7 +3045,7 @@
         <v>1.21</v>
       </c>
       <c r="F95" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3050,7 +3065,7 @@
         <v>1.21</v>
       </c>
       <c r="F96" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3070,7 +3085,7 @@
         <v>1.21</v>
       </c>
       <c r="F97" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3090,7 +3105,7 @@
         <v>1.21</v>
       </c>
       <c r="F98" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3110,7 +3125,7 @@
         <v>1.21</v>
       </c>
       <c r="F99" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3130,7 +3145,7 @@
         <v>1.21</v>
       </c>
       <c r="F100" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3150,7 +3165,7 @@
         <v>1.21</v>
       </c>
       <c r="F101" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3170,7 +3185,7 @@
         <v>1.21</v>
       </c>
       <c r="F102" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3190,7 +3205,7 @@
         <v>1.21</v>
       </c>
       <c r="F103" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3210,7 +3225,7 @@
         <v>1.21</v>
       </c>
       <c r="F104" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3230,7 +3245,7 @@
         <v>1.21</v>
       </c>
       <c r="F105" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3250,7 +3265,7 @@
         <v>1.21</v>
       </c>
       <c r="F106" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3270,7 +3285,7 @@
         <v>1.21</v>
       </c>
       <c r="F107" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3290,7 +3305,7 @@
         <v>1.21</v>
       </c>
       <c r="F108" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3310,7 +3325,7 @@
         <v>1.21</v>
       </c>
       <c r="F109" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3330,7 +3345,7 @@
         <v>1.21</v>
       </c>
       <c r="F110" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3350,7 +3365,7 @@
         <v>1.21</v>
       </c>
       <c r="F111" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3370,7 +3385,7 @@
         <v>1.21</v>
       </c>
       <c r="F112" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3390,7 +3405,7 @@
         <v>1.21</v>
       </c>
       <c r="F113" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3410,7 +3425,7 @@
         <v>1.21</v>
       </c>
       <c r="F114" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3430,7 +3445,7 @@
         <v>1.21</v>
       </c>
       <c r="F115" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3450,7 +3465,7 @@
         <v>1.21</v>
       </c>
       <c r="F116" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3470,7 +3485,7 @@
         <v>1.21</v>
       </c>
       <c r="F117" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3490,7 +3505,7 @@
         <v>1.21</v>
       </c>
       <c r="F118" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3510,7 +3525,7 @@
         <v>1.21</v>
       </c>
       <c r="F119" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3530,7 +3545,7 @@
         <v>1.21</v>
       </c>
       <c r="F120" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3550,7 +3565,7 @@
         <v>1.21</v>
       </c>
       <c r="F121" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3570,7 +3585,7 @@
         <v>1.21</v>
       </c>
       <c r="F122" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3590,7 +3605,7 @@
         <v>1.21</v>
       </c>
       <c r="F123" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3610,7 +3625,7 @@
         <v>1.21</v>
       </c>
       <c r="F124" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3630,7 +3645,7 @@
         <v>1.21</v>
       </c>
       <c r="F125" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3650,7 +3665,7 @@
         <v>1.21</v>
       </c>
       <c r="F126" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3670,7 +3685,7 @@
         <v>1.21</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3690,7 +3705,7 @@
         <v>1.21</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3710,7 +3725,7 @@
         <v>1.21</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3730,7 +3745,7 @@
         <v>1.21</v>
       </c>
       <c r="F130" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3750,7 +3765,7 @@
         <v>1.21</v>
       </c>
       <c r="F131" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3770,7 +3785,7 @@
         <v>1.21</v>
       </c>
       <c r="F132" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3790,7 +3805,7 @@
         <v>1.21</v>
       </c>
       <c r="F133" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3810,7 +3825,7 @@
         <v>1.21</v>
       </c>
       <c r="F134" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3830,7 +3845,7 @@
         <v>1.21</v>
       </c>
       <c r="F135" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3850,7 +3865,7 @@
         <v>1.21</v>
       </c>
       <c r="F136" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3870,7 +3885,7 @@
         <v>1.21</v>
       </c>
       <c r="F137" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3890,7 +3905,7 @@
         <v>1.21</v>
       </c>
       <c r="F138" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3910,7 +3925,7 @@
         <v>1.21</v>
       </c>
       <c r="F139" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3930,7 +3945,7 @@
         <v>1.21</v>
       </c>
       <c r="F140" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3950,7 +3965,7 @@
         <v>1.21</v>
       </c>
       <c r="F141" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3970,7 +3985,7 @@
         <v>1.21</v>
       </c>
       <c r="F142" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3990,7 +4005,7 @@
         <v>1.21</v>
       </c>
       <c r="F143" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4010,7 +4025,7 @@
         <v>1.21</v>
       </c>
       <c r="F144" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4030,7 +4045,7 @@
         <v>1.06</v>
       </c>
       <c r="F145" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4050,7 +4065,7 @@
         <v>0.79</v>
       </c>
       <c r="F146" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4070,7 +4085,7 @@
         <v>0.79</v>
       </c>
       <c r="F147" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4090,7 +4105,7 @@
         <v>0.79</v>
       </c>
       <c r="F148" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4110,7 +4125,7 @@
         <v>0.78</v>
       </c>
       <c r="F149" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4130,7 +4145,7 @@
         <v>1.03</v>
       </c>
       <c r="F150" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4150,7 +4165,7 @@
         <v>1.05</v>
       </c>
       <c r="F151" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4170,7 +4185,7 @@
         <v>0.79</v>
       </c>
       <c r="F152" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4190,7 +4205,7 @@
         <v>0.78</v>
       </c>
       <c r="F153" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4210,7 +4225,7 @@
         <v>0.78</v>
       </c>
       <c r="F154" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4230,7 +4245,7 @@
         <v>0.78</v>
       </c>
       <c r="F155" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4250,7 +4265,7 @@
         <v>0.79</v>
       </c>
       <c r="F156" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4270,7 +4285,7 @@
         <v>0.79</v>
       </c>
       <c r="F157" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4290,7 +4305,7 @@
         <v>0.79</v>
       </c>
       <c r="F158" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4310,7 +4325,7 @@
         <v>0.79</v>
       </c>
       <c r="F159" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4330,7 +4345,7 @@
         <v>0.79</v>
       </c>
       <c r="F160" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4350,7 +4365,7 @@
         <v>0.87</v>
       </c>
       <c r="F161" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4370,7 +4385,7 @@
         <v>0.79</v>
       </c>
       <c r="F162" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4390,7 +4405,7 @@
         <v>0.79</v>
       </c>
       <c r="F163" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4410,7 +4425,7 @@
         <v>0.79</v>
       </c>
       <c r="F164" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4430,7 +4445,7 @@
         <v>0.82</v>
       </c>
       <c r="F165" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4450,7 +4465,7 @@
         <v>0.79</v>
       </c>
       <c r="F166" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4470,7 +4485,7 @@
         <v>0.78</v>
       </c>
       <c r="F167" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4490,7 +4505,7 @@
         <v>0.79</v>
       </c>
       <c r="F168" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4510,7 +4525,7 @@
         <v>0.79</v>
       </c>
       <c r="F169" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4530,7 +4545,7 @@
         <v>0.79</v>
       </c>
       <c r="F170" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4550,7 +4565,7 @@
         <v>0.79</v>
       </c>
       <c r="F171" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4570,7 +4585,7 @@
         <v>0.79</v>
       </c>
       <c r="F172" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4590,7 +4605,7 @@
         <v>0.79</v>
       </c>
       <c r="F173" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4610,7 +4625,7 @@
         <v>0.79</v>
       </c>
       <c r="F174" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4630,7 +4645,7 @@
         <v>0.79</v>
       </c>
       <c r="F175" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4650,7 +4665,7 @@
         <v>0.79</v>
       </c>
       <c r="F176" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4670,7 +4685,7 @@
         <v>0.79</v>
       </c>
       <c r="F177" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4690,7 +4705,7 @@
         <v>0.79</v>
       </c>
       <c r="F178" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4710,7 +4725,7 @@
         <v>0.79</v>
       </c>
       <c r="F179" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4730,7 +4745,7 @@
         <v>0.79</v>
       </c>
       <c r="F180" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4750,7 +4765,7 @@
         <v>0.79</v>
       </c>
       <c r="F181" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4770,7 +4785,7 @@
         <v>0.79</v>
       </c>
       <c r="F182" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4790,7 +4805,7 @@
         <v>0.79</v>
       </c>
       <c r="F183" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4810,7 +4825,7 @@
         <v>0.79</v>
       </c>
       <c r="F184" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4830,7 +4845,7 @@
         <v>0.79</v>
       </c>
       <c r="F185" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4850,7 +4865,7 @@
         <v>0.79</v>
       </c>
       <c r="F186" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4870,7 +4885,7 @@
         <v>0.79</v>
       </c>
       <c r="F187" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4890,7 +4905,7 @@
         <v>0.79</v>
       </c>
       <c r="F188" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4910,7 +4925,7 @@
         <v>0.79</v>
       </c>
       <c r="F189" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4930,7 +4945,7 @@
         <v>0.79</v>
       </c>
       <c r="F190" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4950,7 +4965,7 @@
         <v>0.79</v>
       </c>
       <c r="F191" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4970,7 +4985,7 @@
         <v>0.79</v>
       </c>
       <c r="F192" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4990,7 +5005,7 @@
         <v>0.79</v>
       </c>
       <c r="F193" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5010,7 +5025,7 @@
         <v>0.79</v>
       </c>
       <c r="F194" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5030,7 +5045,7 @@
         <v>0.79</v>
       </c>
       <c r="F195" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5050,7 +5065,7 @@
         <v>0.79</v>
       </c>
       <c r="F196" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5070,7 +5085,7 @@
         <v>0.79</v>
       </c>
       <c r="F197" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5090,7 +5105,7 @@
         <v>0.79</v>
       </c>
       <c r="F198" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5110,7 +5125,7 @@
         <v>0.79</v>
       </c>
       <c r="F199" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5130,7 +5145,7 @@
         <v>0.79</v>
       </c>
       <c r="F200" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5150,7 +5165,7 @@
         <v>0.79</v>
       </c>
       <c r="F201" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5170,7 +5185,7 @@
         <v>0.79</v>
       </c>
       <c r="F202" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5190,7 +5205,7 @@
         <v>0.79</v>
       </c>
       <c r="F203" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5210,7 +5225,7 @@
         <v>0.79</v>
       </c>
       <c r="F204" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5230,7 +5245,7 @@
         <v>0.79</v>
       </c>
       <c r="F205" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5250,7 +5265,7 @@
         <v>0.79</v>
       </c>
       <c r="F206" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5270,7 +5285,7 @@
         <v>0.79</v>
       </c>
       <c r="F207" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5290,7 +5305,7 @@
         <v>0.79</v>
       </c>
       <c r="F208" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5310,7 +5325,7 @@
         <v>0.79</v>
       </c>
       <c r="F209" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5330,7 +5345,7 @@
         <v>0.79</v>
       </c>
       <c r="F210" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5350,7 +5365,7 @@
         <v>0.79</v>
       </c>
       <c r="F211" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5370,7 +5385,7 @@
         <v>0.79</v>
       </c>
       <c r="F212" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5390,7 +5405,7 @@
         <v>0.79</v>
       </c>
       <c r="F213" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5410,7 +5425,7 @@
         <v>0.79</v>
       </c>
       <c r="F214" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5430,7 +5445,7 @@
         <v>0.79</v>
       </c>
       <c r="F215" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5450,7 +5465,7 @@
         <v>0.79</v>
       </c>
       <c r="F216" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5470,7 +5485,7 @@
         <v>0.79</v>
       </c>
       <c r="F217" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5490,7 +5505,7 @@
         <v>0.79</v>
       </c>
       <c r="F218" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5510,7 +5525,7 @@
         <v>0.79</v>
       </c>
       <c r="F219" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5530,7 +5545,7 @@
         <v>0.79</v>
       </c>
       <c r="F220" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5550,7 +5565,7 @@
         <v>0.79</v>
       </c>
       <c r="F221" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5570,7 +5585,7 @@
         <v>0.79</v>
       </c>
       <c r="F222" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5590,7 +5605,7 @@
         <v>0.79</v>
       </c>
       <c r="F223" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5610,7 +5625,7 @@
         <v>0.79</v>
       </c>
       <c r="F224" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5630,7 +5645,7 @@
         <v>0.79</v>
       </c>
       <c r="F225" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5650,7 +5665,7 @@
         <v>0.79</v>
       </c>
       <c r="F226" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5670,7 +5685,7 @@
         <v>0.79</v>
       </c>
       <c r="F227" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5690,7 +5705,7 @@
         <v>0.79</v>
       </c>
       <c r="F228" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5710,7 +5725,7 @@
         <v>0.79</v>
       </c>
       <c r="F229" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5730,7 +5745,7 @@
         <v>0.79</v>
       </c>
       <c r="F230" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5750,7 +5765,7 @@
         <v>0.79</v>
       </c>
       <c r="F231" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5770,7 +5785,7 @@
         <v>0.79</v>
       </c>
       <c r="F232" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5790,7 +5805,7 @@
         <v>0.79</v>
       </c>
       <c r="F233" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5810,7 +5825,7 @@
         <v>0.79</v>
       </c>
       <c r="F234" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5830,7 +5845,7 @@
         <v>0.79</v>
       </c>
       <c r="F235" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5850,7 +5865,7 @@
         <v>0.79</v>
       </c>
       <c r="F236" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5870,7 +5885,7 @@
         <v>0.79</v>
       </c>
       <c r="F237" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5890,7 +5905,7 @@
         <v>0.79</v>
       </c>
       <c r="F238" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5910,7 +5925,7 @@
         <v>0.79</v>
       </c>
       <c r="F239" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5930,7 +5945,7 @@
         <v>0.79</v>
       </c>
       <c r="F240" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5950,7 +5965,7 @@
         <v>0.79</v>
       </c>
       <c r="F241" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5970,7 +5985,7 @@
         <v>0.79</v>
       </c>
       <c r="F242" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -5990,7 +6005,7 @@
         <v>0.79</v>
       </c>
       <c r="F243" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6010,7 +6025,7 @@
         <v>0.79</v>
       </c>
       <c r="F244" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6030,7 +6045,7 @@
         <v>0.79</v>
       </c>
       <c r="F245" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6050,7 +6065,7 @@
         <v>0.79</v>
       </c>
       <c r="F246" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6070,7 +6085,7 @@
         <v>0.79</v>
       </c>
       <c r="F247" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6090,7 +6105,107 @@
         <v>0.79</v>
       </c>
       <c r="F248" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" t="s">
         <v>252</v>
+      </c>
+      <c r="C249">
+        <v>11.74</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+      <c r="E249">
+        <v>0.79</v>
+      </c>
+      <c r="F249" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" t="s">
+        <v>253</v>
+      </c>
+      <c r="C250">
+        <v>11.09</v>
+      </c>
+      <c r="D250">
+        <v>0</v>
+      </c>
+      <c r="E250">
+        <v>0.79</v>
+      </c>
+      <c r="F250" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" t="s">
+        <v>254</v>
+      </c>
+      <c r="C251">
+        <v>12.54</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+      <c r="E251">
+        <v>0.79</v>
+      </c>
+      <c r="F251" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" t="s">
+        <v>255</v>
+      </c>
+      <c r="C252">
+        <v>13.48</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252">
+        <v>0.78</v>
+      </c>
+      <c r="F252" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" t="s">
+        <v>256</v>
+      </c>
+      <c r="C253">
+        <v>13.56</v>
+      </c>
+      <c r="D253">
+        <v>0</v>
+      </c>
+      <c r="E253">
+        <v>0.79</v>
+      </c>
+      <c r="F253" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/MODESTO MENDEZ.xlsx
+++ b/tablas_insivumeh/MODESTO MENDEZ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="267">
   <si>
     <t>Fecha</t>
   </si>
@@ -785,6 +785,33 @@
   </si>
   <si>
     <t>11/9/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 8:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 8:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 8:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 8:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 8:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 9:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 9:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 9:30:00 AM</t>
   </si>
   <si>
     <t>MODESTO MENDEZ</t>
@@ -1145,7 +1172,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F253"/>
+  <dimension ref="A1:F262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1185,7 +1212,7 @@
         <v>0.79</v>
       </c>
       <c r="F2" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1205,7 +1232,7 @@
         <v>0.79</v>
       </c>
       <c r="F3" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1225,7 +1252,7 @@
         <v>0.79</v>
       </c>
       <c r="F4" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1245,7 +1272,7 @@
         <v>0.79</v>
       </c>
       <c r="F5" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1265,7 +1292,7 @@
         <v>0.79</v>
       </c>
       <c r="F6" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1285,7 +1312,7 @@
         <v>0.79</v>
       </c>
       <c r="F7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1305,7 +1332,7 @@
         <v>0.79</v>
       </c>
       <c r="F8" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1325,7 +1352,7 @@
         <v>0.79</v>
       </c>
       <c r="F9" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1345,7 +1372,7 @@
         <v>0.79</v>
       </c>
       <c r="F10" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1365,7 +1392,7 @@
         <v>0.79</v>
       </c>
       <c r="F11" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1385,7 +1412,7 @@
         <v>0.79</v>
       </c>
       <c r="F12" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1405,7 +1432,7 @@
         <v>0.79</v>
       </c>
       <c r="F13" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1425,7 +1452,7 @@
         <v>0.79</v>
       </c>
       <c r="F14" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1445,7 +1472,7 @@
         <v>0.79</v>
       </c>
       <c r="F15" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1465,7 +1492,7 @@
         <v>0.79</v>
       </c>
       <c r="F16" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1485,7 +1512,7 @@
         <v>0.79</v>
       </c>
       <c r="F17" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1505,7 +1532,7 @@
         <v>0.79</v>
       </c>
       <c r="F18" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1525,7 +1552,7 @@
         <v>0.79</v>
       </c>
       <c r="F19" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1545,7 +1572,7 @@
         <v>0.79</v>
       </c>
       <c r="F20" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1565,7 +1592,7 @@
         <v>0.79</v>
       </c>
       <c r="F21" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1585,7 +1612,7 @@
         <v>0.79</v>
       </c>
       <c r="F22" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1605,7 +1632,7 @@
         <v>0.79</v>
       </c>
       <c r="F23" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1625,7 +1652,7 @@
         <v>0.79</v>
       </c>
       <c r="F24" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1645,7 +1672,7 @@
         <v>0.79</v>
       </c>
       <c r="F25" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1665,7 +1692,7 @@
         <v>0.79</v>
       </c>
       <c r="F26" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1685,7 +1712,7 @@
         <v>0.79</v>
       </c>
       <c r="F27" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1705,7 +1732,7 @@
         <v>0.79</v>
       </c>
       <c r="F28" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1725,7 +1752,7 @@
         <v>0.79</v>
       </c>
       <c r="F29" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1745,7 +1772,7 @@
         <v>0.79</v>
       </c>
       <c r="F30" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1765,7 +1792,7 @@
         <v>0.79</v>
       </c>
       <c r="F31" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1785,7 +1812,7 @@
         <v>0.79</v>
       </c>
       <c r="F32" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1805,7 +1832,7 @@
         <v>0.79</v>
       </c>
       <c r="F33" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1825,7 +1852,7 @@
         <v>0.79</v>
       </c>
       <c r="F34" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1845,7 +1872,7 @@
         <v>0.79</v>
       </c>
       <c r="F35" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1865,7 +1892,7 @@
         <v>0.79</v>
       </c>
       <c r="F36" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1885,7 +1912,7 @@
         <v>0.79</v>
       </c>
       <c r="F37" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1905,7 +1932,7 @@
         <v>0.79</v>
       </c>
       <c r="F38" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1925,7 +1952,7 @@
         <v>0.79</v>
       </c>
       <c r="F39" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1945,7 +1972,7 @@
         <v>0.79</v>
       </c>
       <c r="F40" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1965,7 +1992,7 @@
         <v>0.79</v>
       </c>
       <c r="F41" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1985,7 +2012,7 @@
         <v>0.79</v>
       </c>
       <c r="F42" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2005,7 +2032,7 @@
         <v>0.79</v>
       </c>
       <c r="F43" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2025,7 +2052,7 @@
         <v>0.79</v>
       </c>
       <c r="F44" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2045,7 +2072,7 @@
         <v>0.79</v>
       </c>
       <c r="F45" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2065,7 +2092,7 @@
         <v>0.79</v>
       </c>
       <c r="F46" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2085,7 +2112,7 @@
         <v>0.79</v>
       </c>
       <c r="F47" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2105,7 +2132,7 @@
         <v>0.79</v>
       </c>
       <c r="F48" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2125,7 +2152,7 @@
         <v>0.79</v>
       </c>
       <c r="F49" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2145,7 +2172,7 @@
         <v>0.79</v>
       </c>
       <c r="F50" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2165,7 +2192,7 @@
         <v>0.79</v>
       </c>
       <c r="F51" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2185,7 +2212,7 @@
         <v>0.79</v>
       </c>
       <c r="F52" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2205,7 +2232,7 @@
         <v>0.79</v>
       </c>
       <c r="F53" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2225,7 +2252,7 @@
         <v>0.79</v>
       </c>
       <c r="F54" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2245,7 +2272,7 @@
         <v>0.79</v>
       </c>
       <c r="F55" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2265,7 +2292,7 @@
         <v>0.79</v>
       </c>
       <c r="F56" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2285,7 +2312,7 @@
         <v>0.79</v>
       </c>
       <c r="F57" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2305,7 +2332,7 @@
         <v>0.79</v>
       </c>
       <c r="F58" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2325,7 +2352,7 @@
         <v>0.79</v>
       </c>
       <c r="F59" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2345,7 +2372,7 @@
         <v>0.79</v>
       </c>
       <c r="F60" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2365,7 +2392,7 @@
         <v>0.79</v>
       </c>
       <c r="F61" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2385,7 +2412,7 @@
         <v>0.79</v>
       </c>
       <c r="F62" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2405,7 +2432,7 @@
         <v>0.79</v>
       </c>
       <c r="F63" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2425,7 +2452,7 @@
         <v>0.79</v>
       </c>
       <c r="F64" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2445,7 +2472,7 @@
         <v>0.79</v>
       </c>
       <c r="F65" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2465,7 +2492,7 @@
         <v>0.79</v>
       </c>
       <c r="F66" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2485,7 +2512,7 @@
         <v>0.79</v>
       </c>
       <c r="F67" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2505,7 +2532,7 @@
         <v>0.79</v>
       </c>
       <c r="F68" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2525,7 +2552,7 @@
         <v>0.79</v>
       </c>
       <c r="F69" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2545,7 +2572,7 @@
         <v>0.79</v>
       </c>
       <c r="F70" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2565,7 +2592,7 @@
         <v>0.79</v>
       </c>
       <c r="F71" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2585,7 +2612,7 @@
         <v>0.79</v>
       </c>
       <c r="F72" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2605,7 +2632,7 @@
         <v>0.79</v>
       </c>
       <c r="F73" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2625,7 +2652,7 @@
         <v>0.79</v>
       </c>
       <c r="F74" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2645,7 +2672,7 @@
         <v>0.79</v>
       </c>
       <c r="F75" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2665,7 +2692,7 @@
         <v>0.79</v>
       </c>
       <c r="F76" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2685,7 +2712,7 @@
         <v>0.79</v>
       </c>
       <c r="F77" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2705,7 +2732,7 @@
         <v>0.79</v>
       </c>
       <c r="F78" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2725,7 +2752,7 @@
         <v>0.79</v>
       </c>
       <c r="F79" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2745,7 +2772,7 @@
         <v>0.79</v>
       </c>
       <c r="F80" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2765,7 +2792,7 @@
         <v>0.79</v>
       </c>
       <c r="F81" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2785,7 +2812,7 @@
         <v>0.79</v>
       </c>
       <c r="F82" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2805,7 +2832,7 @@
         <v>0.79</v>
       </c>
       <c r="F83" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2825,7 +2852,7 @@
         <v>0.79</v>
       </c>
       <c r="F84" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2845,7 +2872,7 @@
         <v>0.79</v>
       </c>
       <c r="F85" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2865,7 +2892,7 @@
         <v>0.79</v>
       </c>
       <c r="F86" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2885,7 +2912,7 @@
         <v>0.79</v>
       </c>
       <c r="F87" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2905,7 +2932,7 @@
         <v>0.79</v>
       </c>
       <c r="F88" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2925,7 +2952,7 @@
         <v>1.14</v>
       </c>
       <c r="F89" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2945,7 +2972,7 @@
         <v>1.21</v>
       </c>
       <c r="F90" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2965,7 +2992,7 @@
         <v>1.21</v>
       </c>
       <c r="F91" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2985,7 +3012,7 @@
         <v>1.21</v>
       </c>
       <c r="F92" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3005,7 +3032,7 @@
         <v>1.21</v>
       </c>
       <c r="F93" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3025,7 +3052,7 @@
         <v>1.21</v>
       </c>
       <c r="F94" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3045,7 +3072,7 @@
         <v>1.21</v>
       </c>
       <c r="F95" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3065,7 +3092,7 @@
         <v>1.21</v>
       </c>
       <c r="F96" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3085,7 +3112,7 @@
         <v>1.21</v>
       </c>
       <c r="F97" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3105,7 +3132,7 @@
         <v>1.21</v>
       </c>
       <c r="F98" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3125,7 +3152,7 @@
         <v>1.21</v>
       </c>
       <c r="F99" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3145,7 +3172,7 @@
         <v>1.21</v>
       </c>
       <c r="F100" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3165,7 +3192,7 @@
         <v>1.21</v>
       </c>
       <c r="F101" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3185,7 +3212,7 @@
         <v>1.21</v>
       </c>
       <c r="F102" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3205,7 +3232,7 @@
         <v>1.21</v>
       </c>
       <c r="F103" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3225,7 +3252,7 @@
         <v>1.21</v>
       </c>
       <c r="F104" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3245,7 +3272,7 @@
         <v>1.21</v>
       </c>
       <c r="F105" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3265,7 +3292,7 @@
         <v>1.21</v>
       </c>
       <c r="F106" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3285,7 +3312,7 @@
         <v>1.21</v>
       </c>
       <c r="F107" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3305,7 +3332,7 @@
         <v>1.21</v>
       </c>
       <c r="F108" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3325,7 +3352,7 @@
         <v>1.21</v>
       </c>
       <c r="F109" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3345,7 +3372,7 @@
         <v>1.21</v>
       </c>
       <c r="F110" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3365,7 +3392,7 @@
         <v>1.21</v>
       </c>
       <c r="F111" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3385,7 +3412,7 @@
         <v>1.21</v>
       </c>
       <c r="F112" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3405,7 +3432,7 @@
         <v>1.21</v>
       </c>
       <c r="F113" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3425,7 +3452,7 @@
         <v>1.21</v>
       </c>
       <c r="F114" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3445,7 +3472,7 @@
         <v>1.21</v>
       </c>
       <c r="F115" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3465,7 +3492,7 @@
         <v>1.21</v>
       </c>
       <c r="F116" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3485,7 +3512,7 @@
         <v>1.21</v>
       </c>
       <c r="F117" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3505,7 +3532,7 @@
         <v>1.21</v>
       </c>
       <c r="F118" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3525,7 +3552,7 @@
         <v>1.21</v>
       </c>
       <c r="F119" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3545,7 +3572,7 @@
         <v>1.21</v>
       </c>
       <c r="F120" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3565,7 +3592,7 @@
         <v>1.21</v>
       </c>
       <c r="F121" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3585,7 +3612,7 @@
         <v>1.21</v>
       </c>
       <c r="F122" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3605,7 +3632,7 @@
         <v>1.21</v>
       </c>
       <c r="F123" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3625,7 +3652,7 @@
         <v>1.21</v>
       </c>
       <c r="F124" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3645,7 +3672,7 @@
         <v>1.21</v>
       </c>
       <c r="F125" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3665,7 +3692,7 @@
         <v>1.21</v>
       </c>
       <c r="F126" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3685,7 +3712,7 @@
         <v>1.21</v>
       </c>
       <c r="F127" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3705,7 +3732,7 @@
         <v>1.21</v>
       </c>
       <c r="F128" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3725,7 +3752,7 @@
         <v>1.21</v>
       </c>
       <c r="F129" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3745,7 +3772,7 @@
         <v>1.21</v>
       </c>
       <c r="F130" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3765,7 +3792,7 @@
         <v>1.21</v>
       </c>
       <c r="F131" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3785,7 +3812,7 @@
         <v>1.21</v>
       </c>
       <c r="F132" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3805,7 +3832,7 @@
         <v>1.21</v>
       </c>
       <c r="F133" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3825,7 +3852,7 @@
         <v>1.21</v>
       </c>
       <c r="F134" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3845,7 +3872,7 @@
         <v>1.21</v>
       </c>
       <c r="F135" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3865,7 +3892,7 @@
         <v>1.21</v>
       </c>
       <c r="F136" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3885,7 +3912,7 @@
         <v>1.21</v>
       </c>
       <c r="F137" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3905,7 +3932,7 @@
         <v>1.21</v>
       </c>
       <c r="F138" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3925,7 +3952,7 @@
         <v>1.21</v>
       </c>
       <c r="F139" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3945,7 +3972,7 @@
         <v>1.21</v>
       </c>
       <c r="F140" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3965,7 +3992,7 @@
         <v>1.21</v>
       </c>
       <c r="F141" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3985,7 +4012,7 @@
         <v>1.21</v>
       </c>
       <c r="F142" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4005,7 +4032,7 @@
         <v>1.21</v>
       </c>
       <c r="F143" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4025,7 +4052,7 @@
         <v>1.21</v>
       </c>
       <c r="F144" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4045,7 +4072,7 @@
         <v>1.06</v>
       </c>
       <c r="F145" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4065,7 +4092,7 @@
         <v>0.79</v>
       </c>
       <c r="F146" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4085,7 +4112,7 @@
         <v>0.79</v>
       </c>
       <c r="F147" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4105,7 +4132,7 @@
         <v>0.79</v>
       </c>
       <c r="F148" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4125,7 +4152,7 @@
         <v>0.78</v>
       </c>
       <c r="F149" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4145,7 +4172,7 @@
         <v>1.03</v>
       </c>
       <c r="F150" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4165,7 +4192,7 @@
         <v>1.05</v>
       </c>
       <c r="F151" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4185,7 +4212,7 @@
         <v>0.79</v>
       </c>
       <c r="F152" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4205,7 +4232,7 @@
         <v>0.78</v>
       </c>
       <c r="F153" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4225,7 +4252,7 @@
         <v>0.78</v>
       </c>
       <c r="F154" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4245,7 +4272,7 @@
         <v>0.78</v>
       </c>
       <c r="F155" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4265,7 +4292,7 @@
         <v>0.79</v>
       </c>
       <c r="F156" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4285,7 +4312,7 @@
         <v>0.79</v>
       </c>
       <c r="F157" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4305,7 +4332,7 @@
         <v>0.79</v>
       </c>
       <c r="F158" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4325,7 +4352,7 @@
         <v>0.79</v>
       </c>
       <c r="F159" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4345,7 +4372,7 @@
         <v>0.79</v>
       </c>
       <c r="F160" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4365,7 +4392,7 @@
         <v>0.87</v>
       </c>
       <c r="F161" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4385,7 +4412,7 @@
         <v>0.79</v>
       </c>
       <c r="F162" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4405,7 +4432,7 @@
         <v>0.79</v>
       </c>
       <c r="F163" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4425,7 +4452,7 @@
         <v>0.79</v>
       </c>
       <c r="F164" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4445,7 +4472,7 @@
         <v>0.82</v>
       </c>
       <c r="F165" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4465,7 +4492,7 @@
         <v>0.79</v>
       </c>
       <c r="F166" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4485,7 +4512,7 @@
         <v>0.78</v>
       </c>
       <c r="F167" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4505,7 +4532,7 @@
         <v>0.79</v>
       </c>
       <c r="F168" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4525,7 +4552,7 @@
         <v>0.79</v>
       </c>
       <c r="F169" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4545,7 +4572,7 @@
         <v>0.79</v>
       </c>
       <c r="F170" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4565,7 +4592,7 @@
         <v>0.79</v>
       </c>
       <c r="F171" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4585,7 +4612,7 @@
         <v>0.79</v>
       </c>
       <c r="F172" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4605,7 +4632,7 @@
         <v>0.79</v>
       </c>
       <c r="F173" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4625,7 +4652,7 @@
         <v>0.79</v>
       </c>
       <c r="F174" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4645,7 +4672,7 @@
         <v>0.79</v>
       </c>
       <c r="F175" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4665,7 +4692,7 @@
         <v>0.79</v>
       </c>
       <c r="F176" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4685,7 +4712,7 @@
         <v>0.79</v>
       </c>
       <c r="F177" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4705,7 +4732,7 @@
         <v>0.79</v>
       </c>
       <c r="F178" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4725,7 +4752,7 @@
         <v>0.79</v>
       </c>
       <c r="F179" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4745,7 +4772,7 @@
         <v>0.79</v>
       </c>
       <c r="F180" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4765,7 +4792,7 @@
         <v>0.79</v>
       </c>
       <c r="F181" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4785,7 +4812,7 @@
         <v>0.79</v>
       </c>
       <c r="F182" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4805,7 +4832,7 @@
         <v>0.79</v>
       </c>
       <c r="F183" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4825,7 +4852,7 @@
         <v>0.79</v>
       </c>
       <c r="F184" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4845,7 +4872,7 @@
         <v>0.79</v>
       </c>
       <c r="F185" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4865,7 +4892,7 @@
         <v>0.79</v>
       </c>
       <c r="F186" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4885,7 +4912,7 @@
         <v>0.79</v>
       </c>
       <c r="F187" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4905,7 +4932,7 @@
         <v>0.79</v>
       </c>
       <c r="F188" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4925,7 +4952,7 @@
         <v>0.79</v>
       </c>
       <c r="F189" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4945,7 +4972,7 @@
         <v>0.79</v>
       </c>
       <c r="F190" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4965,7 +4992,7 @@
         <v>0.79</v>
       </c>
       <c r="F191" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4985,7 +5012,7 @@
         <v>0.79</v>
       </c>
       <c r="F192" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5005,7 +5032,7 @@
         <v>0.79</v>
       </c>
       <c r="F193" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5025,7 +5052,7 @@
         <v>0.79</v>
       </c>
       <c r="F194" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5045,7 +5072,7 @@
         <v>0.79</v>
       </c>
       <c r="F195" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5065,7 +5092,7 @@
         <v>0.79</v>
       </c>
       <c r="F196" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5085,7 +5112,7 @@
         <v>0.79</v>
       </c>
       <c r="F197" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5105,7 +5132,7 @@
         <v>0.79</v>
       </c>
       <c r="F198" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5125,7 +5152,7 @@
         <v>0.79</v>
       </c>
       <c r="F199" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5145,7 +5172,7 @@
         <v>0.79</v>
       </c>
       <c r="F200" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5165,7 +5192,7 @@
         <v>0.79</v>
       </c>
       <c r="F201" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5185,7 +5212,7 @@
         <v>0.79</v>
       </c>
       <c r="F202" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5205,7 +5232,7 @@
         <v>0.79</v>
       </c>
       <c r="F203" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5225,7 +5252,7 @@
         <v>0.79</v>
       </c>
       <c r="F204" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5245,7 +5272,7 @@
         <v>0.79</v>
       </c>
       <c r="F205" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5265,7 +5292,7 @@
         <v>0.79</v>
       </c>
       <c r="F206" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5285,7 +5312,7 @@
         <v>0.79</v>
       </c>
       <c r="F207" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5305,7 +5332,7 @@
         <v>0.79</v>
       </c>
       <c r="F208" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5325,7 +5352,7 @@
         <v>0.79</v>
       </c>
       <c r="F209" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5345,7 +5372,7 @@
         <v>0.79</v>
       </c>
       <c r="F210" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5365,7 +5392,7 @@
         <v>0.79</v>
       </c>
       <c r="F211" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5385,7 +5412,7 @@
         <v>0.79</v>
       </c>
       <c r="F212" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5405,7 +5432,7 @@
         <v>0.79</v>
       </c>
       <c r="F213" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5425,7 +5452,7 @@
         <v>0.79</v>
       </c>
       <c r="F214" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5445,7 +5472,7 @@
         <v>0.79</v>
       </c>
       <c r="F215" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5465,7 +5492,7 @@
         <v>0.79</v>
       </c>
       <c r="F216" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5485,7 +5512,7 @@
         <v>0.79</v>
       </c>
       <c r="F217" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5505,7 +5532,7 @@
         <v>0.79</v>
       </c>
       <c r="F218" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5525,7 +5552,7 @@
         <v>0.79</v>
       </c>
       <c r="F219" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5545,7 +5572,7 @@
         <v>0.79</v>
       </c>
       <c r="F220" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5565,7 +5592,7 @@
         <v>0.79</v>
       </c>
       <c r="F221" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5585,7 +5612,7 @@
         <v>0.79</v>
       </c>
       <c r="F222" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5605,7 +5632,7 @@
         <v>0.79</v>
       </c>
       <c r="F223" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5625,7 +5652,7 @@
         <v>0.79</v>
       </c>
       <c r="F224" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5645,7 +5672,7 @@
         <v>0.79</v>
       </c>
       <c r="F225" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5665,7 +5692,7 @@
         <v>0.79</v>
       </c>
       <c r="F226" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5685,7 +5712,7 @@
         <v>0.79</v>
       </c>
       <c r="F227" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5705,7 +5732,7 @@
         <v>0.79</v>
       </c>
       <c r="F228" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5725,7 +5752,7 @@
         <v>0.79</v>
       </c>
       <c r="F229" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5745,7 +5772,7 @@
         <v>0.79</v>
       </c>
       <c r="F230" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5765,7 +5792,7 @@
         <v>0.79</v>
       </c>
       <c r="F231" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5785,7 +5812,7 @@
         <v>0.79</v>
       </c>
       <c r="F232" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5805,7 +5832,7 @@
         <v>0.79</v>
       </c>
       <c r="F233" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5825,7 +5852,7 @@
         <v>0.79</v>
       </c>
       <c r="F234" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5845,7 +5872,7 @@
         <v>0.79</v>
       </c>
       <c r="F235" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5865,7 +5892,7 @@
         <v>0.79</v>
       </c>
       <c r="F236" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5885,7 +5912,7 @@
         <v>0.79</v>
       </c>
       <c r="F237" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5905,7 +5932,7 @@
         <v>0.79</v>
       </c>
       <c r="F238" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5925,7 +5952,7 @@
         <v>0.79</v>
       </c>
       <c r="F239" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5945,7 +5972,7 @@
         <v>0.79</v>
       </c>
       <c r="F240" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5965,7 +5992,7 @@
         <v>0.79</v>
       </c>
       <c r="F241" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5985,7 +6012,7 @@
         <v>0.79</v>
       </c>
       <c r="F242" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6005,7 +6032,7 @@
         <v>0.79</v>
       </c>
       <c r="F243" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6025,7 +6052,7 @@
         <v>0.79</v>
       </c>
       <c r="F244" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6045,7 +6072,7 @@
         <v>0.79</v>
       </c>
       <c r="F245" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6065,7 +6092,7 @@
         <v>0.79</v>
       </c>
       <c r="F246" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6085,7 +6112,7 @@
         <v>0.79</v>
       </c>
       <c r="F247" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6105,7 +6132,7 @@
         <v>0.79</v>
       </c>
       <c r="F248" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6125,7 +6152,7 @@
         <v>0.79</v>
       </c>
       <c r="F249" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6145,7 +6172,7 @@
         <v>0.79</v>
       </c>
       <c r="F250" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6165,7 +6192,7 @@
         <v>0.79</v>
       </c>
       <c r="F251" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6185,7 +6212,7 @@
         <v>0.78</v>
       </c>
       <c r="F252" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6205,7 +6232,187 @@
         <v>0.79</v>
       </c>
       <c r="F253" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" t="s">
         <v>257</v>
+      </c>
+      <c r="C254">
+        <v>13.56</v>
+      </c>
+      <c r="D254">
+        <v>0</v>
+      </c>
+      <c r="E254">
+        <v>1.12</v>
+      </c>
+      <c r="F254" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" t="s">
+        <v>258</v>
+      </c>
+      <c r="C255">
+        <v>13.57</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+      <c r="E255">
+        <v>1.21</v>
+      </c>
+      <c r="F255" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" t="s">
+        <v>259</v>
+      </c>
+      <c r="C256">
+        <v>13.57</v>
+      </c>
+      <c r="D256">
+        <v>0</v>
+      </c>
+      <c r="E256">
+        <v>0.83</v>
+      </c>
+      <c r="F256" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" t="s">
+        <v>260</v>
+      </c>
+      <c r="C257">
+        <v>13.57</v>
+      </c>
+      <c r="D257">
+        <v>0</v>
+      </c>
+      <c r="E257">
+        <v>0.79</v>
+      </c>
+      <c r="F257" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" t="s">
+        <v>261</v>
+      </c>
+      <c r="C258">
+        <v>13.58</v>
+      </c>
+      <c r="D258">
+        <v>0</v>
+      </c>
+      <c r="E258">
+        <v>0.79</v>
+      </c>
+      <c r="F258" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" t="s">
+        <v>262</v>
+      </c>
+      <c r="C259">
+        <v>13.58</v>
+      </c>
+      <c r="D259">
+        <v>0</v>
+      </c>
+      <c r="E259">
+        <v>0.79</v>
+      </c>
+      <c r="F259" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" t="s">
+        <v>263</v>
+      </c>
+      <c r="C260">
+        <v>13.58</v>
+      </c>
+      <c r="D260">
+        <v>0</v>
+      </c>
+      <c r="E260">
+        <v>0.79</v>
+      </c>
+      <c r="F260" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" t="s">
+        <v>264</v>
+      </c>
+      <c r="C261">
+        <v>13.58</v>
+      </c>
+      <c r="D261">
+        <v>0</v>
+      </c>
+      <c r="E261">
+        <v>0.79</v>
+      </c>
+      <c r="F261" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262" t="s">
+        <v>265</v>
+      </c>
+      <c r="C262">
+        <v>13.58</v>
+      </c>
+      <c r="D262">
+        <v>0</v>
+      </c>
+      <c r="E262">
+        <v>0.79</v>
+      </c>
+      <c r="F262" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/MODESTO MENDEZ.xlsx
+++ b/tablas_insivumeh/MODESTO MENDEZ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="302">
   <si>
     <t>Fecha</t>
   </si>
@@ -31,787 +31,892 @@
     <t>Estación</t>
   </si>
   <si>
-    <t>11/6/2020 7:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 7:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 7:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 8:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 8:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 8:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 8:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 8:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 9:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 9:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 9:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 9:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 9:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 10:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 10:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 10:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 10:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 10:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 11:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 11:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 11:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 11:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 11:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 12:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 12:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 12:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 12:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 12:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 1:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 1:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 1:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 1:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 1:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 2:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 2:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 2:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 2:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 2:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 3:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 3:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 3:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 3:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 3:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 4:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 4:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 4:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 4:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 4:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 5:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 5:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 5:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 5:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 5:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 6:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 6:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 6:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 6:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 6:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 6:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 7:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 7:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 7:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 7:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 7:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 7:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 8:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 8:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 8:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 8:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 8:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 8:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 9:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 9:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 7:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 7:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 7:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 7:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 7:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 8:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 8:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 8:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 8:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 8:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 9:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 9:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 9:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 9:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 9:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 10:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 10:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 10:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 10:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 10:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 11:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 11:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 11:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 11:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 11:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 12:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 12:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 12:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 12:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 12:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 1:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 1:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 1:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 1:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 1:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 2:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 2:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 2:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 2:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 2:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 3:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 3:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 3:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 3:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 3:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 4:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 4:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 4:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 4:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 4:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 5:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 5:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 5:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 5:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 5:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 6:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 6:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 6:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 6:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 6:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 6:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 7:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 7:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 7:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 7:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 7:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 7:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 8:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 8:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 8:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 8:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 6:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 7:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 7:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 7:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 7:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 7:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 8:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 8:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 8:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 8:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 8:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 9:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 9:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 9:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 9:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 9:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 10:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 10:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 10:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 10:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 10:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 11:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 11:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 11:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 11:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 11:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 12:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 12:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 12:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 12:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 12:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 1:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 1:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 1:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 1:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 1:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 2:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 2:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 2:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 2:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 2:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 3:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 3:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 3:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 3:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 3:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 4:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 4:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 4:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 4:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 4:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 5:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 5:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 5:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 5:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 5:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 6:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 6:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 6:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 6:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 6:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 6:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 7:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 7:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 7:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 7:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 7:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 7:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 8:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 8:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 8:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 8:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/9/2020 7:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 7:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 7:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 8:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 8:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 8:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 8:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 8:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 9:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 9:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 9:30:00 AM</t>
+    <t>11/10/2020 7:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 7:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 7:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 7:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 7:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 8:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 8:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 8:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 8:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 8:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 9:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 9:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 9:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 9:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 9:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 10:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 10:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 10:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 10:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 10:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 11:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 11:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 11:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 11:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 11:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 12:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 12:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 12:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 12:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 12:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 1:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 1:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 1:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 1:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 1:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 2:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 2:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 2:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 2:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 2:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 3:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 3:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 3:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 3:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 3:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 4:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 4:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 4:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 4:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 4:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 5:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 5:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 5:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 5:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 5:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 6:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 6:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 6:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 6:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 6:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 7:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 7:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 7:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 7:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 7:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 7:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 8:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 7:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 7:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 7:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 7:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 7:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 8:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 8:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 8:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 8:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 8:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 9:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 9:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 9:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 9:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 9:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 10:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 10:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 10:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 10:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 10:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 11:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 11:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 11:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 11:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 11:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 12:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 12:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 12:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 12:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 12:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 1:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 1:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 1:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 1:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 1:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 2:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 2:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 2:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 2:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 2:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 3:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 3:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 3:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 3:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 3:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 4:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 4:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 4:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 4:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 4:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 5:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 5:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 5:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 5:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 5:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 6:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 6:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 6:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 6:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 6:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 7:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 7:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 7:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 7:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 7:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 7:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 7:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 7:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 7:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 7:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 7:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 8:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 8:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 8:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 8:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 8:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 9:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 9:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 9:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 9:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 9:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 10:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 10:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 10:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 10:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 10:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 11:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 11:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 11:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 11:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 11:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 12:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 12:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 12:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 12:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 12:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 1:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 1:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 1:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 1:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 1:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 2:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 2:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 2:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 2:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 2:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 3:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 3:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 3:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 3:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 3:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 4:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 4:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 4:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 4:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 4:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 5:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 5:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 5:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 5:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 5:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 6:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 6:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 6:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 6:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 6:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 7:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 7:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 7:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 7:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 7:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 7:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 8:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 8:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 7:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 7:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 7:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 7:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 7:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 8:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 8:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 8:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 8:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 8:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 9:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 9:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 9:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 9:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 9:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 10:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 10:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 10:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 10:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 10:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 11:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 11:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 11:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 11:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 11:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 12:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 12:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 12:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 12:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 12:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 1:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 1:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 1:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 1:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 1:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 2:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 2:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 2:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 2:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 2:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 3:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 3:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 3:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 3:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 3:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 4:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 4:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 4:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 4:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 4:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 5:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 5:20:00 PM</t>
   </si>
   <si>
     <t>MODESTO MENDEZ</t>
@@ -1172,7 +1277,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F262"/>
+  <dimension ref="A1:F297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1203,16 +1308,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>11.32</v>
+        <v>11.79</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.79</v>
+        <v>0.91</v>
       </c>
       <c r="F2" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1223,7 +1328,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>13.14</v>
+        <v>13.57</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1232,7 +1337,7 @@
         <v>0.79</v>
       </c>
       <c r="F3" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1243,7 +1348,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>13.36</v>
+        <v>13.57</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1252,7 +1357,7 @@
         <v>0.79</v>
       </c>
       <c r="F4" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1263,7 +1368,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>13.56</v>
+        <v>13.57</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1272,7 +1377,7 @@
         <v>0.79</v>
       </c>
       <c r="F5" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1292,7 +1397,7 @@
         <v>0.79</v>
       </c>
       <c r="F6" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,13 +1411,13 @@
         <v>13.57</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0.79</v>
       </c>
       <c r="F7" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1323,7 +1428,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>13.56</v>
+        <v>13.57</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1332,7 +1437,7 @@
         <v>0.79</v>
       </c>
       <c r="F8" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1343,7 +1448,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>13.56</v>
+        <v>13.57</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1352,7 +1457,7 @@
         <v>0.79</v>
       </c>
       <c r="F9" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1372,7 +1477,7 @@
         <v>0.79</v>
       </c>
       <c r="F10" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1392,7 +1497,7 @@
         <v>0.79</v>
       </c>
       <c r="F11" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1412,7 +1517,7 @@
         <v>0.79</v>
       </c>
       <c r="F12" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1432,7 +1537,7 @@
         <v>0.79</v>
       </c>
       <c r="F13" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1443,7 +1548,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>13.59</v>
+        <v>13.58</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1452,7 +1557,7 @@
         <v>0.79</v>
       </c>
       <c r="F14" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1463,7 +1568,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>13.58</v>
+        <v>13.59</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1472,7 +1577,7 @@
         <v>0.79</v>
       </c>
       <c r="F15" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1492,7 +1597,7 @@
         <v>0.79</v>
       </c>
       <c r="F16" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1503,7 +1608,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>13.58</v>
+        <v>13.59</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1512,7 +1617,7 @@
         <v>0.79</v>
       </c>
       <c r="F17" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1523,7 +1628,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>13.58</v>
+        <v>13.59</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1532,7 +1637,7 @@
         <v>0.79</v>
       </c>
       <c r="F18" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1543,7 +1648,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>13.58</v>
+        <v>13.59</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1552,7 +1657,7 @@
         <v>0.79</v>
       </c>
       <c r="F19" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1563,7 +1668,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>13.57</v>
+        <v>13.59</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1572,7 +1677,7 @@
         <v>0.79</v>
       </c>
       <c r="F20" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1583,7 +1688,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>13.57</v>
+        <v>13.59</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1592,7 +1697,7 @@
         <v>0.79</v>
       </c>
       <c r="F21" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1603,7 +1708,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>13.58</v>
+        <v>13.6</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1612,7 +1717,7 @@
         <v>0.79</v>
       </c>
       <c r="F22" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1632,7 +1737,7 @@
         <v>0.79</v>
       </c>
       <c r="F23" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1652,7 +1757,7 @@
         <v>0.79</v>
       </c>
       <c r="F24" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1663,7 +1768,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>13.59</v>
+        <v>13.6</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1672,7 +1777,7 @@
         <v>0.79</v>
       </c>
       <c r="F25" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1692,7 +1797,7 @@
         <v>0.79</v>
       </c>
       <c r="F26" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1703,7 +1808,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>13.6</v>
+        <v>13.59</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1712,7 +1817,7 @@
         <v>0.79</v>
       </c>
       <c r="F27" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1732,7 +1837,7 @@
         <v>0.79</v>
       </c>
       <c r="F28" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1746,13 +1851,13 @@
         <v>13.6</v>
       </c>
       <c r="D29">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>0.79</v>
+        <v>1.13</v>
       </c>
       <c r="F29" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1763,16 +1868,16 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F30" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1783,16 +1888,16 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F31" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1803,16 +1908,16 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F32" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1823,16 +1928,16 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F33" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1843,16 +1948,16 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F34" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1863,16 +1968,16 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F35" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1883,16 +1988,16 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>13.6</v>
+        <v>13.62</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F36" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1903,16 +2008,16 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>13.6</v>
+        <v>13.62</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F37" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1923,16 +2028,16 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>13.6</v>
+        <v>13.62</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F38" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1943,16 +2048,16 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>13.58</v>
+        <v>13.62</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F39" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1963,16 +2068,16 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>13.59</v>
+        <v>13.62</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F40" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1983,16 +2088,16 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>13.6</v>
+        <v>13.62</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F41" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2003,16 +2108,16 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>13.6</v>
+        <v>13.62</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F42" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2023,16 +2128,16 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>13.6</v>
+        <v>13.62</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F43" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2043,16 +2148,16 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>13.59</v>
+        <v>13.62</v>
       </c>
       <c r="D44">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F44" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2063,16 +2168,16 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>13.59</v>
+        <v>13.62</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F45" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2083,16 +2188,16 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>13.59</v>
+        <v>13.61</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F46" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2103,16 +2208,16 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>13.49</v>
+        <v>13.62</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F47" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2123,16 +2228,16 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>13.1</v>
+        <v>13.61</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F48" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2143,16 +2248,16 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>13.16</v>
+        <v>13.61</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F49" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2163,16 +2268,16 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>13.21</v>
+        <v>13.61</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F50" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2183,16 +2288,16 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>13.54</v>
+        <v>13.61</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F51" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2203,16 +2308,16 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>13.53</v>
+        <v>13.6</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F52" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2223,16 +2328,16 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>13.59</v>
+        <v>13.61</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F53" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2243,16 +2348,16 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>13.59</v>
+        <v>13.61</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F54" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2263,16 +2368,16 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>13.59</v>
+        <v>13.61</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F55" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2283,16 +2388,16 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>13.59</v>
+        <v>13.57</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F56" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2303,16 +2408,16 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>13.59</v>
+        <v>13.09</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F57" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2323,16 +2428,16 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>13.59</v>
+        <v>13.01</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F58" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2343,16 +2448,16 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>13.2</v>
+        <v>12.94</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F59" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2363,16 +2468,16 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>12.89</v>
+        <v>12.88</v>
       </c>
       <c r="D60">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F60" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2383,16 +2488,16 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>12.84</v>
+        <v>12.85</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F61" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2403,16 +2508,16 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>12.83</v>
+        <v>12.84</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F62" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2423,16 +2528,16 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>12.83</v>
+        <v>12.84</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F63" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2443,16 +2548,16 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>12.82</v>
+        <v>12.83</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F64" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2463,16 +2568,16 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>12.8</v>
+        <v>12.83</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F65" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2489,10 +2594,10 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F66" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2509,10 +2614,10 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F67" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2523,16 +2628,16 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>12.82</v>
+        <v>12.81</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F68" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2543,16 +2648,16 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>12.82</v>
+        <v>12.8</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F69" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2563,16 +2668,16 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>12.81</v>
+        <v>12.8</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F70" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2583,16 +2688,16 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>12.81</v>
+        <v>12.76</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>0.79</v>
+        <v>1.06</v>
       </c>
       <c r="F71" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2603,16 +2708,16 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>12.81</v>
+        <v>12.78</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="F72" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2623,7 +2728,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>12.8</v>
+        <v>12.78</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2632,7 +2737,7 @@
         <v>0.79</v>
       </c>
       <c r="F73" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2643,7 +2748,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>12.8</v>
+        <v>12.78</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -2652,7 +2757,7 @@
         <v>0.79</v>
       </c>
       <c r="F74" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2663,7 +2768,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>12.79</v>
+        <v>12.73</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -2672,7 +2777,7 @@
         <v>0.79</v>
       </c>
       <c r="F75" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2683,7 +2788,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>12.79</v>
+        <v>12.75</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -2692,7 +2797,7 @@
         <v>0.79</v>
       </c>
       <c r="F76" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2703,7 +2808,7 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>12.78</v>
+        <v>12.54</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -2712,7 +2817,7 @@
         <v>0.79</v>
       </c>
       <c r="F77" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2723,16 +2828,16 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>12.77</v>
+        <v>12.44</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>0.79</v>
+        <v>1.12</v>
       </c>
       <c r="F78" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2743,16 +2848,16 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>12.76</v>
+        <v>12.01</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>0.79</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F79" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2763,16 +2868,16 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>12.76</v>
+        <v>11.37</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>0.79</v>
+        <v>0.96</v>
       </c>
       <c r="F80" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2783,7 +2888,7 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>12.74</v>
+        <v>13.51</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -2792,7 +2897,7 @@
         <v>0.79</v>
       </c>
       <c r="F81" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2803,7 +2908,7 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>12.66</v>
+        <v>13.57</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -2812,7 +2917,7 @@
         <v>0.79</v>
       </c>
       <c r="F82" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2823,7 +2928,7 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>12.37</v>
+        <v>13.57</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -2832,7 +2937,7 @@
         <v>0.79</v>
       </c>
       <c r="F83" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2843,7 +2948,7 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>11.79</v>
+        <v>13.57</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -2852,7 +2957,7 @@
         <v>0.79</v>
       </c>
       <c r="F84" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2863,7 +2968,7 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>11.87</v>
+        <v>13.57</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -2872,7 +2977,7 @@
         <v>0.79</v>
       </c>
       <c r="F85" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2892,7 +2997,7 @@
         <v>0.79</v>
       </c>
       <c r="F86" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2912,7 +3017,7 @@
         <v>0.79</v>
       </c>
       <c r="F87" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2932,7 +3037,7 @@
         <v>0.79</v>
       </c>
       <c r="F88" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2943,16 +3048,16 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>13.57</v>
+        <v>13.58</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>1.14</v>
+        <v>0.79</v>
       </c>
       <c r="F89" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2963,16 +3068,16 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>13.57</v>
+        <v>13.58</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F90" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2983,16 +3088,16 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>13.57</v>
+        <v>13.58</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F91" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3003,16 +3108,16 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>13.57</v>
+        <v>13.58</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F92" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3023,16 +3128,16 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>13.53</v>
+        <v>13.59</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F93" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3043,16 +3148,16 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>13.58</v>
+        <v>13.59</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F94" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3063,16 +3168,16 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>13.58</v>
+        <v>13.59</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F95" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3083,16 +3188,16 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>13.58</v>
+        <v>13.59</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F96" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3103,16 +3208,16 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>13.58</v>
+        <v>13.59</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F97" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3129,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="E98">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F98" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3149,10 +3254,10 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F99" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3163,16 +3268,16 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>13.59</v>
+        <v>13.6</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F100" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3183,16 +3288,16 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>13.59</v>
+        <v>13.6</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F101" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3203,16 +3308,16 @@
         <v>105</v>
       </c>
       <c r="C102">
-        <v>13.59</v>
+        <v>13.6</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F102" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3223,16 +3328,16 @@
         <v>106</v>
       </c>
       <c r="C103">
-        <v>13.59</v>
+        <v>13.6</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F103" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3249,10 +3354,10 @@
         <v>0</v>
       </c>
       <c r="E104">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F104" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3269,10 +3374,10 @@
         <v>0</v>
       </c>
       <c r="E105">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F105" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3289,10 +3394,10 @@
         <v>0</v>
       </c>
       <c r="E106">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F106" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3303,16 +3408,16 @@
         <v>110</v>
       </c>
       <c r="C107">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F107" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3323,16 +3428,16 @@
         <v>111</v>
       </c>
       <c r="C108">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F108" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3343,16 +3448,16 @@
         <v>112</v>
       </c>
       <c r="C109">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F109" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3363,16 +3468,16 @@
         <v>113</v>
       </c>
       <c r="C110">
-        <v>13.59</v>
+        <v>13.61</v>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F110" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3383,16 +3488,16 @@
         <v>114</v>
       </c>
       <c r="C111">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F111" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3403,16 +3508,16 @@
         <v>115</v>
       </c>
       <c r="C112">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="D112">
         <v>0</v>
       </c>
       <c r="E112">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F112" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3423,16 +3528,16 @@
         <v>116</v>
       </c>
       <c r="C113">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="D113">
         <v>0</v>
       </c>
       <c r="E113">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F113" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3443,16 +3548,16 @@
         <v>117</v>
       </c>
       <c r="C114">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F114" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3463,16 +3568,16 @@
         <v>118</v>
       </c>
       <c r="C115">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F115" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3483,16 +3588,16 @@
         <v>119</v>
       </c>
       <c r="C116">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F116" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3503,16 +3608,16 @@
         <v>120</v>
       </c>
       <c r="C117">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
       <c r="E117">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F117" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3523,16 +3628,16 @@
         <v>121</v>
       </c>
       <c r="C118">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F118" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3543,16 +3648,16 @@
         <v>122</v>
       </c>
       <c r="C119">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F119" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3563,16 +3668,16 @@
         <v>123</v>
       </c>
       <c r="C120">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="F120" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3583,7 +3688,7 @@
         <v>124</v>
       </c>
       <c r="C121">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -3592,7 +3697,7 @@
         <v>1.21</v>
       </c>
       <c r="F121" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3603,7 +3708,7 @@
         <v>125</v>
       </c>
       <c r="C122">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -3612,7 +3717,7 @@
         <v>1.21</v>
       </c>
       <c r="F122" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3632,7 +3737,7 @@
         <v>1.21</v>
       </c>
       <c r="F123" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3652,7 +3757,7 @@
         <v>1.21</v>
       </c>
       <c r="F124" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3672,7 +3777,7 @@
         <v>1.21</v>
       </c>
       <c r="F125" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3683,7 +3788,7 @@
         <v>129</v>
       </c>
       <c r="C126">
-        <v>13.62</v>
+        <v>13.61</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -3692,7 +3797,7 @@
         <v>1.21</v>
       </c>
       <c r="F126" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3712,7 +3817,7 @@
         <v>1.21</v>
       </c>
       <c r="F127" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3723,7 +3828,7 @@
         <v>131</v>
       </c>
       <c r="C128">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -3732,7 +3837,7 @@
         <v>1.21</v>
       </c>
       <c r="F128" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3743,7 +3848,7 @@
         <v>132</v>
       </c>
       <c r="C129">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -3752,7 +3857,7 @@
         <v>1.21</v>
       </c>
       <c r="F129" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3763,7 +3868,7 @@
         <v>133</v>
       </c>
       <c r="C130">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -3772,7 +3877,7 @@
         <v>1.21</v>
       </c>
       <c r="F130" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3792,7 +3897,7 @@
         <v>1.21</v>
       </c>
       <c r="F131" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3812,7 +3917,7 @@
         <v>1.21</v>
       </c>
       <c r="F132" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3832,7 +3937,7 @@
         <v>1.21</v>
       </c>
       <c r="F133" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3852,7 +3957,7 @@
         <v>1.21</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3863,7 +3968,7 @@
         <v>138</v>
       </c>
       <c r="C135">
-        <v>13.6</v>
+        <v>13.59</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -3872,7 +3977,7 @@
         <v>1.21</v>
       </c>
       <c r="F135" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3883,7 +3988,7 @@
         <v>139</v>
       </c>
       <c r="C136">
-        <v>13.61</v>
+        <v>13.45</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -3892,7 +3997,7 @@
         <v>1.21</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3903,7 +4008,7 @@
         <v>140</v>
       </c>
       <c r="C137">
-        <v>13.61</v>
+        <v>12.99</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -3912,7 +4017,7 @@
         <v>1.21</v>
       </c>
       <c r="F137" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3923,7 +4028,7 @@
         <v>141</v>
       </c>
       <c r="C138">
-        <v>13.61</v>
+        <v>12.93</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -3932,7 +4037,7 @@
         <v>1.21</v>
       </c>
       <c r="F138" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3943,7 +4048,7 @@
         <v>142</v>
       </c>
       <c r="C139">
-        <v>13.61</v>
+        <v>12.86</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -3952,7 +4057,7 @@
         <v>1.21</v>
       </c>
       <c r="F139" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3963,7 +4068,7 @@
         <v>143</v>
       </c>
       <c r="C140">
-        <v>13.61</v>
+        <v>12.84</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -3972,7 +4077,7 @@
         <v>1.21</v>
       </c>
       <c r="F140" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3983,7 +4088,7 @@
         <v>144</v>
       </c>
       <c r="C141">
-        <v>13.61</v>
+        <v>12.84</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -3992,7 +4097,7 @@
         <v>1.21</v>
       </c>
       <c r="F141" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4003,7 +4108,7 @@
         <v>145</v>
       </c>
       <c r="C142">
-        <v>13.51</v>
+        <v>12.84</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -4012,7 +4117,7 @@
         <v>1.21</v>
       </c>
       <c r="F142" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4023,7 +4128,7 @@
         <v>146</v>
       </c>
       <c r="C143">
-        <v>13.31</v>
+        <v>12.83</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -4032,7 +4137,7 @@
         <v>1.21</v>
       </c>
       <c r="F143" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4043,7 +4148,7 @@
         <v>147</v>
       </c>
       <c r="C144">
-        <v>12.89</v>
+        <v>12.83</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -4052,7 +4157,7 @@
         <v>1.21</v>
       </c>
       <c r="F144" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4063,16 +4168,16 @@
         <v>148</v>
       </c>
       <c r="C145">
-        <v>12.85</v>
+        <v>12.82</v>
       </c>
       <c r="D145">
         <v>0</v>
       </c>
       <c r="E145">
-        <v>1.06</v>
+        <v>1.21</v>
       </c>
       <c r="F145" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4083,16 +4188,16 @@
         <v>149</v>
       </c>
       <c r="C146">
-        <v>12.85</v>
+        <v>12.82</v>
       </c>
       <c r="D146">
         <v>0</v>
       </c>
       <c r="E146">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F146" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4103,16 +4208,16 @@
         <v>150</v>
       </c>
       <c r="C147">
-        <v>12.85</v>
+        <v>12.81</v>
       </c>
       <c r="D147">
         <v>0</v>
       </c>
       <c r="E147">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F147" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4123,16 +4228,16 @@
         <v>151</v>
       </c>
       <c r="C148">
-        <v>12.84</v>
+        <v>12.8</v>
       </c>
       <c r="D148">
         <v>0</v>
       </c>
       <c r="E148">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F148" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4143,16 +4248,16 @@
         <v>152</v>
       </c>
       <c r="C149">
-        <v>12.83</v>
+        <v>12.8</v>
       </c>
       <c r="D149">
         <v>0</v>
       </c>
       <c r="E149">
-        <v>0.78</v>
+        <v>1.21</v>
       </c>
       <c r="F149" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4163,16 +4268,16 @@
         <v>153</v>
       </c>
       <c r="C150">
-        <v>12.84</v>
+        <v>12.78</v>
       </c>
       <c r="D150">
         <v>0</v>
       </c>
       <c r="E150">
-        <v>1.03</v>
+        <v>0.95</v>
       </c>
       <c r="F150" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4183,16 +4288,16 @@
         <v>154</v>
       </c>
       <c r="C151">
-        <v>12.8</v>
+        <v>12.76</v>
       </c>
       <c r="D151">
         <v>0</v>
       </c>
       <c r="E151">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="F151" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4203,16 +4308,16 @@
         <v>155</v>
       </c>
       <c r="C152">
-        <v>12.83</v>
+        <v>12.78</v>
       </c>
       <c r="D152">
         <v>0</v>
       </c>
       <c r="E152">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F152" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4223,16 +4328,16 @@
         <v>156</v>
       </c>
       <c r="C153">
-        <v>12.82</v>
+        <v>12.76</v>
       </c>
       <c r="D153">
         <v>0</v>
       </c>
       <c r="E153">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="F153" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4243,16 +4348,16 @@
         <v>157</v>
       </c>
       <c r="C154">
-        <v>12.82</v>
+        <v>12.73</v>
       </c>
       <c r="D154">
         <v>0</v>
       </c>
       <c r="E154">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="F154" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4263,16 +4368,16 @@
         <v>158</v>
       </c>
       <c r="C155">
-        <v>12.8</v>
+        <v>12.58</v>
       </c>
       <c r="D155">
         <v>0</v>
       </c>
       <c r="E155">
-        <v>0.78</v>
+        <v>1.05</v>
       </c>
       <c r="F155" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4283,16 +4388,16 @@
         <v>159</v>
       </c>
       <c r="C156">
-        <v>12.81</v>
+        <v>12.41</v>
       </c>
       <c r="D156">
         <v>0</v>
       </c>
       <c r="E156">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F156" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4303,16 +4408,16 @@
         <v>160</v>
       </c>
       <c r="C157">
-        <v>12.8</v>
+        <v>11.63</v>
       </c>
       <c r="D157">
         <v>0</v>
       </c>
       <c r="E157">
-        <v>0.79</v>
+        <v>0.97</v>
       </c>
       <c r="F157" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4323,16 +4428,16 @@
         <v>161</v>
       </c>
       <c r="C158">
-        <v>12.8</v>
+        <v>12.86</v>
       </c>
       <c r="D158">
         <v>0</v>
       </c>
       <c r="E158">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="F158" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4343,7 +4448,7 @@
         <v>162</v>
       </c>
       <c r="C159">
-        <v>12.79</v>
+        <v>13.56</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -4352,7 +4457,7 @@
         <v>0.79</v>
       </c>
       <c r="F159" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4363,7 +4468,7 @@
         <v>163</v>
       </c>
       <c r="C160">
-        <v>12.78</v>
+        <v>13.57</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -4372,7 +4477,7 @@
         <v>0.79</v>
       </c>
       <c r="F160" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4383,16 +4488,16 @@
         <v>164</v>
       </c>
       <c r="C161">
-        <v>12.77</v>
+        <v>13.56</v>
       </c>
       <c r="D161">
         <v>0</v>
       </c>
       <c r="E161">
-        <v>0.87</v>
+        <v>0.79</v>
       </c>
       <c r="F161" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4403,7 +4508,7 @@
         <v>165</v>
       </c>
       <c r="C162">
-        <v>12.76</v>
+        <v>13.57</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -4412,7 +4517,7 @@
         <v>0.79</v>
       </c>
       <c r="F162" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4423,16 +4528,16 @@
         <v>166</v>
       </c>
       <c r="C163">
-        <v>12.74</v>
+        <v>13.57</v>
       </c>
       <c r="D163">
         <v>0</v>
       </c>
       <c r="E163">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="F163" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4443,16 +4548,16 @@
         <v>167</v>
       </c>
       <c r="C164">
-        <v>12.57</v>
+        <v>13.57</v>
       </c>
       <c r="D164">
         <v>0</v>
       </c>
       <c r="E164">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="F164" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4463,16 +4568,16 @@
         <v>168</v>
       </c>
       <c r="C165">
-        <v>12.4</v>
+        <v>13.57</v>
       </c>
       <c r="D165">
         <v>0</v>
       </c>
       <c r="E165">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="F165" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4483,7 +4588,7 @@
         <v>169</v>
       </c>
       <c r="C166">
-        <v>11.83</v>
+        <v>13.58</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -4492,7 +4597,7 @@
         <v>0.79</v>
       </c>
       <c r="F166" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4503,7 +4608,7 @@
         <v>170</v>
       </c>
       <c r="C167">
-        <v>11.11</v>
+        <v>13.58</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -4512,7 +4617,7 @@
         <v>0.78</v>
       </c>
       <c r="F167" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4523,7 +4628,7 @@
         <v>171</v>
       </c>
       <c r="C168">
-        <v>11.42</v>
+        <v>13.58</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -4532,7 +4637,7 @@
         <v>0.79</v>
       </c>
       <c r="F168" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4543,7 +4648,7 @@
         <v>172</v>
       </c>
       <c r="C169">
-        <v>13.39</v>
+        <v>13.58</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -4552,7 +4657,7 @@
         <v>0.79</v>
       </c>
       <c r="F169" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4563,7 +4668,7 @@
         <v>173</v>
       </c>
       <c r="C170">
-        <v>13.45</v>
+        <v>13.58</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -4572,7 +4677,7 @@
         <v>0.79</v>
       </c>
       <c r="F170" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4583,7 +4688,7 @@
         <v>174</v>
       </c>
       <c r="C171">
-        <v>13.51</v>
+        <v>13.59</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -4592,7 +4697,7 @@
         <v>0.79</v>
       </c>
       <c r="F171" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4603,7 +4708,7 @@
         <v>175</v>
       </c>
       <c r="C172">
-        <v>13.57</v>
+        <v>13.59</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -4612,7 +4717,7 @@
         <v>0.79</v>
       </c>
       <c r="F172" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4623,7 +4728,7 @@
         <v>176</v>
       </c>
       <c r="C173">
-        <v>13.57</v>
+        <v>13.59</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -4632,7 +4737,7 @@
         <v>0.79</v>
       </c>
       <c r="F173" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4643,7 +4748,7 @@
         <v>177</v>
       </c>
       <c r="C174">
-        <v>13.57</v>
+        <v>13.59</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -4652,7 +4757,7 @@
         <v>0.79</v>
       </c>
       <c r="F174" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4663,7 +4768,7 @@
         <v>178</v>
       </c>
       <c r="C175">
-        <v>13.57</v>
+        <v>13.59</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -4672,7 +4777,7 @@
         <v>0.79</v>
       </c>
       <c r="F175" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4683,7 +4788,7 @@
         <v>179</v>
       </c>
       <c r="C176">
-        <v>13.58</v>
+        <v>13.6</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -4692,7 +4797,7 @@
         <v>0.79</v>
       </c>
       <c r="F176" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4703,7 +4808,7 @@
         <v>180</v>
       </c>
       <c r="C177">
-        <v>13.58</v>
+        <v>13.6</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -4712,7 +4817,7 @@
         <v>0.79</v>
       </c>
       <c r="F177" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4723,7 +4828,7 @@
         <v>181</v>
       </c>
       <c r="C178">
-        <v>13.58</v>
+        <v>13.6</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -4732,7 +4837,7 @@
         <v>0.79</v>
       </c>
       <c r="F178" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4743,7 +4848,7 @@
         <v>182</v>
       </c>
       <c r="C179">
-        <v>13.59</v>
+        <v>13.6</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -4752,7 +4857,7 @@
         <v>0.79</v>
       </c>
       <c r="F179" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4763,7 +4868,7 @@
         <v>183</v>
       </c>
       <c r="C180">
-        <v>13.59</v>
+        <v>13.6</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -4772,7 +4877,7 @@
         <v>0.79</v>
       </c>
       <c r="F180" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4783,7 +4888,7 @@
         <v>184</v>
       </c>
       <c r="C181">
-        <v>13.59</v>
+        <v>13.6</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -4792,7 +4897,7 @@
         <v>0.79</v>
       </c>
       <c r="F181" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4803,7 +4908,7 @@
         <v>185</v>
       </c>
       <c r="C182">
-        <v>13.59</v>
+        <v>13.6</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -4812,7 +4917,7 @@
         <v>0.79</v>
       </c>
       <c r="F182" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4832,7 +4937,7 @@
         <v>0.79</v>
       </c>
       <c r="F183" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4843,7 +4948,7 @@
         <v>187</v>
       </c>
       <c r="C184">
-        <v>13.59</v>
+        <v>13.61</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -4852,7 +4957,7 @@
         <v>0.79</v>
       </c>
       <c r="F184" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4863,7 +4968,7 @@
         <v>188</v>
       </c>
       <c r="C185">
-        <v>13.59</v>
+        <v>13.61</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -4872,7 +4977,7 @@
         <v>0.79</v>
       </c>
       <c r="F185" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4883,7 +4988,7 @@
         <v>189</v>
       </c>
       <c r="C186">
-        <v>13.59</v>
+        <v>13.61</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -4892,7 +4997,7 @@
         <v>0.79</v>
       </c>
       <c r="F186" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4903,7 +5008,7 @@
         <v>190</v>
       </c>
       <c r="C187">
-        <v>13.59</v>
+        <v>13.61</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -4912,7 +5017,7 @@
         <v>0.79</v>
       </c>
       <c r="F187" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4923,7 +5028,7 @@
         <v>191</v>
       </c>
       <c r="C188">
-        <v>13.59</v>
+        <v>13.61</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -4932,7 +5037,7 @@
         <v>0.79</v>
       </c>
       <c r="F188" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4943,7 +5048,7 @@
         <v>192</v>
       </c>
       <c r="C189">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -4952,7 +5057,7 @@
         <v>0.79</v>
       </c>
       <c r="F189" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4963,7 +5068,7 @@
         <v>193</v>
       </c>
       <c r="C190">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -4972,7 +5077,7 @@
         <v>0.79</v>
       </c>
       <c r="F190" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4983,7 +5088,7 @@
         <v>194</v>
       </c>
       <c r="C191">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -4992,7 +5097,7 @@
         <v>0.79</v>
       </c>
       <c r="F191" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5003,7 +5108,7 @@
         <v>195</v>
       </c>
       <c r="C192">
-        <v>13.6</v>
+        <v>13.62</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -5012,7 +5117,7 @@
         <v>0.79</v>
       </c>
       <c r="F192" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5023,7 +5128,7 @@
         <v>196</v>
       </c>
       <c r="C193">
-        <v>13.59</v>
+        <v>13.62</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -5032,7 +5137,7 @@
         <v>0.79</v>
       </c>
       <c r="F193" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5043,7 +5148,7 @@
         <v>197</v>
       </c>
       <c r="C194">
-        <v>13.6</v>
+        <v>13.62</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -5052,7 +5157,7 @@
         <v>0.79</v>
       </c>
       <c r="F194" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5063,7 +5168,7 @@
         <v>198</v>
       </c>
       <c r="C195">
-        <v>13.6</v>
+        <v>13.62</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -5072,7 +5177,7 @@
         <v>0.79</v>
       </c>
       <c r="F195" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5083,7 +5188,7 @@
         <v>199</v>
       </c>
       <c r="C196">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -5092,7 +5197,7 @@
         <v>0.79</v>
       </c>
       <c r="F196" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5103,7 +5208,7 @@
         <v>200</v>
       </c>
       <c r="C197">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -5112,7 +5217,7 @@
         <v>0.79</v>
       </c>
       <c r="F197" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5123,7 +5228,7 @@
         <v>201</v>
       </c>
       <c r="C198">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -5132,7 +5237,7 @@
         <v>0.79</v>
       </c>
       <c r="F198" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5143,7 +5248,7 @@
         <v>202</v>
       </c>
       <c r="C199">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -5152,7 +5257,7 @@
         <v>0.79</v>
       </c>
       <c r="F199" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5163,7 +5268,7 @@
         <v>203</v>
       </c>
       <c r="C200">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -5172,7 +5277,7 @@
         <v>0.79</v>
       </c>
       <c r="F200" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5183,7 +5288,7 @@
         <v>204</v>
       </c>
       <c r="C201">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -5192,7 +5297,7 @@
         <v>0.79</v>
       </c>
       <c r="F201" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5203,7 +5308,7 @@
         <v>205</v>
       </c>
       <c r="C202">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -5212,7 +5317,7 @@
         <v>0.79</v>
       </c>
       <c r="F202" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5223,7 +5328,7 @@
         <v>206</v>
       </c>
       <c r="C203">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -5232,7 +5337,7 @@
         <v>0.79</v>
       </c>
       <c r="F203" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5243,7 +5348,7 @@
         <v>207</v>
       </c>
       <c r="C204">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -5252,7 +5357,7 @@
         <v>0.79</v>
       </c>
       <c r="F204" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5263,7 +5368,7 @@
         <v>208</v>
       </c>
       <c r="C205">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -5272,7 +5377,7 @@
         <v>0.79</v>
       </c>
       <c r="F205" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5292,7 +5397,7 @@
         <v>0.79</v>
       </c>
       <c r="F206" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5303,7 +5408,7 @@
         <v>210</v>
       </c>
       <c r="C207">
-        <v>13.62</v>
+        <v>13.61</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -5312,7 +5417,7 @@
         <v>0.79</v>
       </c>
       <c r="F207" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5323,7 +5428,7 @@
         <v>211</v>
       </c>
       <c r="C208">
-        <v>13.62</v>
+        <v>13.6</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -5332,7 +5437,7 @@
         <v>0.79</v>
       </c>
       <c r="F208" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5352,7 +5457,7 @@
         <v>0.79</v>
       </c>
       <c r="F209" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5363,7 +5468,7 @@
         <v>213</v>
       </c>
       <c r="C210">
-        <v>13.62</v>
+        <v>13.61</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -5372,7 +5477,7 @@
         <v>0.79</v>
       </c>
       <c r="F210" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5383,7 +5488,7 @@
         <v>214</v>
       </c>
       <c r="C211">
-        <v>13.62</v>
+        <v>13.61</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -5392,7 +5497,7 @@
         <v>0.79</v>
       </c>
       <c r="F211" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5403,7 +5508,7 @@
         <v>215</v>
       </c>
       <c r="C212">
-        <v>13.62</v>
+        <v>13.61</v>
       </c>
       <c r="D212">
         <v>0</v>
@@ -5412,7 +5517,7 @@
         <v>0.79</v>
       </c>
       <c r="F212" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5423,7 +5528,7 @@
         <v>216</v>
       </c>
       <c r="C213">
-        <v>13.62</v>
+        <v>13.59</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -5432,7 +5537,7 @@
         <v>0.79</v>
       </c>
       <c r="F213" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5443,7 +5548,7 @@
         <v>217</v>
       </c>
       <c r="C214">
-        <v>13.62</v>
+        <v>13.42</v>
       </c>
       <c r="D214">
         <v>0</v>
@@ -5452,7 +5557,7 @@
         <v>0.79</v>
       </c>
       <c r="F214" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5463,7 +5568,7 @@
         <v>218</v>
       </c>
       <c r="C215">
-        <v>13.62</v>
+        <v>13.03</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -5472,7 +5577,7 @@
         <v>0.79</v>
       </c>
       <c r="F215" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5483,7 +5588,7 @@
         <v>219</v>
       </c>
       <c r="C216">
-        <v>13.61</v>
+        <v>12.93</v>
       </c>
       <c r="D216">
         <v>0</v>
@@ -5492,7 +5597,7 @@
         <v>0.79</v>
       </c>
       <c r="F216" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5503,7 +5608,7 @@
         <v>220</v>
       </c>
       <c r="C217">
-        <v>13.61</v>
+        <v>12.85</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -5512,7 +5617,7 @@
         <v>0.79</v>
       </c>
       <c r="F217" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5523,7 +5628,7 @@
         <v>221</v>
       </c>
       <c r="C218">
-        <v>13.6</v>
+        <v>12.84</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -5532,7 +5637,7 @@
         <v>0.79</v>
       </c>
       <c r="F218" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5543,7 +5648,7 @@
         <v>222</v>
       </c>
       <c r="C219">
-        <v>13.61</v>
+        <v>12.84</v>
       </c>
       <c r="D219">
         <v>0</v>
@@ -5552,7 +5657,7 @@
         <v>0.79</v>
       </c>
       <c r="F219" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5563,7 +5668,7 @@
         <v>223</v>
       </c>
       <c r="C220">
-        <v>13.61</v>
+        <v>12.83</v>
       </c>
       <c r="D220">
         <v>0</v>
@@ -5572,7 +5677,7 @@
         <v>0.79</v>
       </c>
       <c r="F220" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5583,7 +5688,7 @@
         <v>224</v>
       </c>
       <c r="C221">
-        <v>13.61</v>
+        <v>12.83</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -5592,7 +5697,7 @@
         <v>0.79</v>
       </c>
       <c r="F221" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5603,7 +5708,7 @@
         <v>225</v>
       </c>
       <c r="C222">
-        <v>13.61</v>
+        <v>12.82</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -5612,7 +5717,7 @@
         <v>0.79</v>
       </c>
       <c r="F222" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5623,7 +5728,7 @@
         <v>226</v>
       </c>
       <c r="C223">
-        <v>13.58</v>
+        <v>12.82</v>
       </c>
       <c r="D223">
         <v>0</v>
@@ -5632,7 +5737,7 @@
         <v>0.79</v>
       </c>
       <c r="F223" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5643,7 +5748,7 @@
         <v>227</v>
       </c>
       <c r="C224">
-        <v>13.27</v>
+        <v>12.81</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -5652,7 +5757,7 @@
         <v>0.79</v>
       </c>
       <c r="F224" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5663,7 +5768,7 @@
         <v>228</v>
       </c>
       <c r="C225">
-        <v>13.04</v>
+        <v>12.81</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -5672,7 +5777,7 @@
         <v>0.79</v>
       </c>
       <c r="F225" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5683,7 +5788,7 @@
         <v>229</v>
       </c>
       <c r="C226">
-        <v>12.96</v>
+        <v>12.8</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -5692,7 +5797,7 @@
         <v>0.79</v>
       </c>
       <c r="F226" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5703,16 +5808,16 @@
         <v>230</v>
       </c>
       <c r="C227">
-        <v>12.9</v>
+        <v>12.79</v>
       </c>
       <c r="D227">
         <v>0</v>
       </c>
       <c r="E227">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="F227" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5723,16 +5828,16 @@
         <v>231</v>
       </c>
       <c r="C228">
-        <v>12.86</v>
+        <v>12.79</v>
       </c>
       <c r="D228">
         <v>0</v>
       </c>
       <c r="E228">
-        <v>0.79</v>
+        <v>0.92</v>
       </c>
       <c r="F228" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5743,16 +5848,16 @@
         <v>232</v>
       </c>
       <c r="C229">
-        <v>12.85</v>
+        <v>12.78</v>
       </c>
       <c r="D229">
         <v>0</v>
       </c>
       <c r="E229">
-        <v>0.79</v>
+        <v>0.88</v>
       </c>
       <c r="F229" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5763,16 +5868,16 @@
         <v>233</v>
       </c>
       <c r="C230">
-        <v>12.84</v>
+        <v>12.77</v>
       </c>
       <c r="D230">
         <v>0</v>
       </c>
       <c r="E230">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="F230" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5783,16 +5888,16 @@
         <v>234</v>
       </c>
       <c r="C231">
-        <v>12.84</v>
+        <v>12.76</v>
       </c>
       <c r="D231">
         <v>0</v>
       </c>
       <c r="E231">
-        <v>0.79</v>
+        <v>1.11</v>
       </c>
       <c r="F231" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5803,16 +5908,16 @@
         <v>235</v>
       </c>
       <c r="C232">
-        <v>12.84</v>
+        <v>12.75</v>
       </c>
       <c r="D232">
         <v>0</v>
       </c>
       <c r="E232">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="F232" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5823,7 +5928,7 @@
         <v>236</v>
       </c>
       <c r="C233">
-        <v>12.83</v>
+        <v>12.66</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -5832,7 +5937,7 @@
         <v>0.79</v>
       </c>
       <c r="F233" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5843,16 +5948,16 @@
         <v>237</v>
       </c>
       <c r="C234">
-        <v>12.83</v>
+        <v>12.41</v>
       </c>
       <c r="D234">
         <v>0</v>
       </c>
       <c r="E234">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F234" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5863,16 +5968,16 @@
         <v>238</v>
       </c>
       <c r="C235">
-        <v>12.82</v>
+        <v>12.11</v>
       </c>
       <c r="D235">
         <v>0</v>
       </c>
       <c r="E235">
-        <v>0.79</v>
+        <v>1.18</v>
       </c>
       <c r="F235" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5883,16 +5988,16 @@
         <v>239</v>
       </c>
       <c r="C236">
-        <v>12.81</v>
+        <v>11.36</v>
       </c>
       <c r="D236">
         <v>0</v>
       </c>
       <c r="E236">
-        <v>0.79</v>
+        <v>0.97</v>
       </c>
       <c r="F236" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5903,7 +6008,7 @@
         <v>240</v>
       </c>
       <c r="C237">
-        <v>12.81</v>
+        <v>13.55</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -5912,7 +6017,7 @@
         <v>0.79</v>
       </c>
       <c r="F237" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5923,7 +6028,7 @@
         <v>241</v>
       </c>
       <c r="C238">
-        <v>12.8</v>
+        <v>13.57</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -5932,7 +6037,7 @@
         <v>0.79</v>
       </c>
       <c r="F238" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5943,7 +6048,7 @@
         <v>242</v>
       </c>
       <c r="C239">
-        <v>12.8</v>
+        <v>13.57</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -5952,7 +6057,7 @@
         <v>0.79</v>
       </c>
       <c r="F239" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5963,7 +6068,7 @@
         <v>243</v>
       </c>
       <c r="C240">
-        <v>12.79</v>
+        <v>13.57</v>
       </c>
       <c r="D240">
         <v>0</v>
@@ -5972,7 +6077,7 @@
         <v>0.79</v>
       </c>
       <c r="F240" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5983,7 +6088,7 @@
         <v>244</v>
       </c>
       <c r="C241">
-        <v>12.79</v>
+        <v>13.57</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -5992,7 +6097,7 @@
         <v>0.79</v>
       </c>
       <c r="F241" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6003,7 +6108,7 @@
         <v>245</v>
       </c>
       <c r="C242">
-        <v>12.78</v>
+        <v>13.57</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -6012,7 +6117,7 @@
         <v>0.79</v>
       </c>
       <c r="F242" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6023,7 +6128,7 @@
         <v>246</v>
       </c>
       <c r="C243">
-        <v>12.77</v>
+        <v>13.57</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -6032,7 +6137,7 @@
         <v>0.79</v>
       </c>
       <c r="F243" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6043,7 +6148,7 @@
         <v>247</v>
       </c>
       <c r="C244">
-        <v>12.73</v>
+        <v>13.58</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -6052,7 +6157,7 @@
         <v>0.79</v>
       </c>
       <c r="F244" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6063,7 +6168,7 @@
         <v>248</v>
       </c>
       <c r="C245">
-        <v>12.75</v>
+        <v>13.58</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -6072,7 +6177,7 @@
         <v>0.79</v>
       </c>
       <c r="F245" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6083,7 +6188,7 @@
         <v>249</v>
       </c>
       <c r="C246">
-        <v>12.69</v>
+        <v>13.58</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -6092,7 +6197,7 @@
         <v>0.79</v>
       </c>
       <c r="F246" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6103,7 +6208,7 @@
         <v>250</v>
       </c>
       <c r="C247">
-        <v>12.52</v>
+        <v>13.58</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -6112,7 +6217,7 @@
         <v>0.79</v>
       </c>
       <c r="F247" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6123,7 +6228,7 @@
         <v>251</v>
       </c>
       <c r="C248">
-        <v>12.33</v>
+        <v>13.59</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -6132,7 +6237,7 @@
         <v>0.79</v>
       </c>
       <c r="F248" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6143,7 +6248,7 @@
         <v>252</v>
       </c>
       <c r="C249">
-        <v>11.74</v>
+        <v>13.59</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -6152,7 +6257,7 @@
         <v>0.79</v>
       </c>
       <c r="F249" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6163,7 +6268,7 @@
         <v>253</v>
       </c>
       <c r="C250">
-        <v>11.09</v>
+        <v>13.59</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -6172,7 +6277,7 @@
         <v>0.79</v>
       </c>
       <c r="F250" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6183,7 +6288,7 @@
         <v>254</v>
       </c>
       <c r="C251">
-        <v>12.54</v>
+        <v>13.59</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -6192,7 +6297,7 @@
         <v>0.79</v>
       </c>
       <c r="F251" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6203,16 +6308,16 @@
         <v>255</v>
       </c>
       <c r="C252">
-        <v>13.48</v>
+        <v>13.59</v>
       </c>
       <c r="D252">
         <v>0</v>
       </c>
       <c r="E252">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="F252" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6223,7 +6328,7 @@
         <v>256</v>
       </c>
       <c r="C253">
-        <v>13.56</v>
+        <v>13.59</v>
       </c>
       <c r="D253">
         <v>0</v>
@@ -6232,7 +6337,7 @@
         <v>0.79</v>
       </c>
       <c r="F253" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6243,16 +6348,16 @@
         <v>257</v>
       </c>
       <c r="C254">
-        <v>13.56</v>
+        <v>13.59</v>
       </c>
       <c r="D254">
         <v>0</v>
       </c>
       <c r="E254">
-        <v>1.12</v>
+        <v>0.79</v>
       </c>
       <c r="F254" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6263,16 +6368,16 @@
         <v>258</v>
       </c>
       <c r="C255">
-        <v>13.57</v>
+        <v>13.6</v>
       </c>
       <c r="D255">
         <v>0</v>
       </c>
       <c r="E255">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F255" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6283,16 +6388,16 @@
         <v>259</v>
       </c>
       <c r="C256">
-        <v>13.57</v>
+        <v>13.6</v>
       </c>
       <c r="D256">
         <v>0</v>
       </c>
       <c r="E256">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="F256" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6303,7 +6408,7 @@
         <v>260</v>
       </c>
       <c r="C257">
-        <v>13.57</v>
+        <v>13.6</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -6312,7 +6417,7 @@
         <v>0.79</v>
       </c>
       <c r="F257" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -6323,7 +6428,7 @@
         <v>261</v>
       </c>
       <c r="C258">
-        <v>13.58</v>
+        <v>13.6</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -6332,7 +6437,7 @@
         <v>0.79</v>
       </c>
       <c r="F258" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -6343,7 +6448,7 @@
         <v>262</v>
       </c>
       <c r="C259">
-        <v>13.58</v>
+        <v>13.6</v>
       </c>
       <c r="D259">
         <v>0</v>
@@ -6352,7 +6457,7 @@
         <v>0.79</v>
       </c>
       <c r="F259" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -6363,7 +6468,7 @@
         <v>263</v>
       </c>
       <c r="C260">
-        <v>13.58</v>
+        <v>13.6</v>
       </c>
       <c r="D260">
         <v>0</v>
@@ -6372,7 +6477,7 @@
         <v>0.79</v>
       </c>
       <c r="F260" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -6383,7 +6488,7 @@
         <v>264</v>
       </c>
       <c r="C261">
-        <v>13.58</v>
+        <v>13.59</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -6392,7 +6497,7 @@
         <v>0.79</v>
       </c>
       <c r="F261" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -6403,7 +6508,7 @@
         <v>265</v>
       </c>
       <c r="C262">
-        <v>13.58</v>
+        <v>13.61</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -6412,7 +6517,707 @@
         <v>0.79</v>
       </c>
       <c r="F262" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263" t="s">
         <v>266</v>
+      </c>
+      <c r="C263">
+        <v>13.61</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+      <c r="E263">
+        <v>0.79</v>
+      </c>
+      <c r="F263" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264" t="s">
+        <v>267</v>
+      </c>
+      <c r="C264">
+        <v>13.61</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+      <c r="E264">
+        <v>0.79</v>
+      </c>
+      <c r="F264" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265" t="s">
+        <v>268</v>
+      </c>
+      <c r="C265">
+        <v>13.61</v>
+      </c>
+      <c r="D265">
+        <v>0</v>
+      </c>
+      <c r="E265">
+        <v>0.79</v>
+      </c>
+      <c r="F265" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266" t="s">
+        <v>269</v>
+      </c>
+      <c r="C266">
+        <v>13.61</v>
+      </c>
+      <c r="D266">
+        <v>0</v>
+      </c>
+      <c r="E266">
+        <v>0.79</v>
+      </c>
+      <c r="F266" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267" t="s">
+        <v>270</v>
+      </c>
+      <c r="C267">
+        <v>13.61</v>
+      </c>
+      <c r="D267">
+        <v>0</v>
+      </c>
+      <c r="E267">
+        <v>0.79</v>
+      </c>
+      <c r="F267" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268" t="s">
+        <v>271</v>
+      </c>
+      <c r="C268">
+        <v>13.61</v>
+      </c>
+      <c r="D268">
+        <v>0</v>
+      </c>
+      <c r="E268">
+        <v>0.79</v>
+      </c>
+      <c r="F268" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269" t="s">
+        <v>272</v>
+      </c>
+      <c r="C269">
+        <v>13.62</v>
+      </c>
+      <c r="D269">
+        <v>0</v>
+      </c>
+      <c r="E269">
+        <v>0.79</v>
+      </c>
+      <c r="F269" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270" t="s">
+        <v>273</v>
+      </c>
+      <c r="C270">
+        <v>13.62</v>
+      </c>
+      <c r="D270">
+        <v>0</v>
+      </c>
+      <c r="E270">
+        <v>0.79</v>
+      </c>
+      <c r="F270" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271" t="s">
+        <v>274</v>
+      </c>
+      <c r="C271">
+        <v>13.62</v>
+      </c>
+      <c r="D271">
+        <v>0</v>
+      </c>
+      <c r="E271">
+        <v>0.79</v>
+      </c>
+      <c r="F271" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272" t="s">
+        <v>275</v>
+      </c>
+      <c r="C272">
+        <v>13.62</v>
+      </c>
+      <c r="D272">
+        <v>0</v>
+      </c>
+      <c r="E272">
+        <v>0.79</v>
+      </c>
+      <c r="F272" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273" t="s">
+        <v>276</v>
+      </c>
+      <c r="C273">
+        <v>13.62</v>
+      </c>
+      <c r="D273">
+        <v>0</v>
+      </c>
+      <c r="E273">
+        <v>0.79</v>
+      </c>
+      <c r="F273" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274" t="s">
+        <v>277</v>
+      </c>
+      <c r="C274">
+        <v>13.62</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+      <c r="E274">
+        <v>0.79</v>
+      </c>
+      <c r="F274" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275" t="s">
+        <v>278</v>
+      </c>
+      <c r="C275">
+        <v>13.62</v>
+      </c>
+      <c r="D275">
+        <v>0</v>
+      </c>
+      <c r="E275">
+        <v>1.13</v>
+      </c>
+      <c r="F275" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276" t="s">
+        <v>279</v>
+      </c>
+      <c r="C276">
+        <v>13.62</v>
+      </c>
+      <c r="D276">
+        <v>0</v>
+      </c>
+      <c r="E276">
+        <v>1.21</v>
+      </c>
+      <c r="F276" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277" t="s">
+        <v>280</v>
+      </c>
+      <c r="C277">
+        <v>13.62</v>
+      </c>
+      <c r="D277">
+        <v>0</v>
+      </c>
+      <c r="E277">
+        <v>1.21</v>
+      </c>
+      <c r="F277" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278" t="s">
+        <v>281</v>
+      </c>
+      <c r="C278">
+        <v>13.62</v>
+      </c>
+      <c r="D278">
+        <v>0</v>
+      </c>
+      <c r="E278">
+        <v>1.21</v>
+      </c>
+      <c r="F278" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279" t="s">
+        <v>282</v>
+      </c>
+      <c r="C279">
+        <v>13.62</v>
+      </c>
+      <c r="D279">
+        <v>0</v>
+      </c>
+      <c r="E279">
+        <v>1.21</v>
+      </c>
+      <c r="F279" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280" t="s">
+        <v>283</v>
+      </c>
+      <c r="C280">
+        <v>13.62</v>
+      </c>
+      <c r="D280">
+        <v>0</v>
+      </c>
+      <c r="E280">
+        <v>1.21</v>
+      </c>
+      <c r="F280" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281" t="s">
+        <v>284</v>
+      </c>
+      <c r="C281">
+        <v>13.62</v>
+      </c>
+      <c r="D281">
+        <v>0</v>
+      </c>
+      <c r="E281">
+        <v>1.21</v>
+      </c>
+      <c r="F281" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282" t="s">
+        <v>285</v>
+      </c>
+      <c r="C282">
+        <v>13.41</v>
+      </c>
+      <c r="D282">
+        <v>0</v>
+      </c>
+      <c r="E282">
+        <v>1.21</v>
+      </c>
+      <c r="F282" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283" t="s">
+        <v>286</v>
+      </c>
+      <c r="C283">
+        <v>13.05</v>
+      </c>
+      <c r="D283">
+        <v>0</v>
+      </c>
+      <c r="E283">
+        <v>1.21</v>
+      </c>
+      <c r="F283" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284" t="s">
+        <v>287</v>
+      </c>
+      <c r="C284">
+        <v>13.07</v>
+      </c>
+      <c r="D284">
+        <v>0</v>
+      </c>
+      <c r="E284">
+        <v>1.21</v>
+      </c>
+      <c r="F284" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285" t="s">
+        <v>288</v>
+      </c>
+      <c r="C285">
+        <v>13.03</v>
+      </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+      <c r="E285">
+        <v>1.21</v>
+      </c>
+      <c r="F285" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286" t="s">
+        <v>289</v>
+      </c>
+      <c r="C286">
+        <v>13.2</v>
+      </c>
+      <c r="D286">
+        <v>0</v>
+      </c>
+      <c r="E286">
+        <v>1.21</v>
+      </c>
+      <c r="F286" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287" t="s">
+        <v>290</v>
+      </c>
+      <c r="C287">
+        <v>13.61</v>
+      </c>
+      <c r="D287">
+        <v>0</v>
+      </c>
+      <c r="E287">
+        <v>1.21</v>
+      </c>
+      <c r="F287" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288" t="s">
+        <v>291</v>
+      </c>
+      <c r="C288">
+        <v>13.61</v>
+      </c>
+      <c r="D288">
+        <v>0</v>
+      </c>
+      <c r="E288">
+        <v>1.21</v>
+      </c>
+      <c r="F288" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289" t="s">
+        <v>292</v>
+      </c>
+      <c r="C289">
+        <v>13.61</v>
+      </c>
+      <c r="D289">
+        <v>0</v>
+      </c>
+      <c r="E289">
+        <v>1.21</v>
+      </c>
+      <c r="F289" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290" t="s">
+        <v>293</v>
+      </c>
+      <c r="C290">
+        <v>13.61</v>
+      </c>
+      <c r="D290">
+        <v>0</v>
+      </c>
+      <c r="E290">
+        <v>1.21</v>
+      </c>
+      <c r="F290" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291" t="s">
+        <v>294</v>
+      </c>
+      <c r="C291">
+        <v>13.61</v>
+      </c>
+      <c r="D291">
+        <v>0</v>
+      </c>
+      <c r="E291">
+        <v>1.21</v>
+      </c>
+      <c r="F291" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292" t="s">
+        <v>295</v>
+      </c>
+      <c r="C292">
+        <v>13.61</v>
+      </c>
+      <c r="D292">
+        <v>0</v>
+      </c>
+      <c r="E292">
+        <v>1.21</v>
+      </c>
+      <c r="F292" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293" t="s">
+        <v>296</v>
+      </c>
+      <c r="C293">
+        <v>13.54</v>
+      </c>
+      <c r="D293">
+        <v>0</v>
+      </c>
+      <c r="E293">
+        <v>1.21</v>
+      </c>
+      <c r="F293" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294" t="s">
+        <v>297</v>
+      </c>
+      <c r="C294">
+        <v>13.03</v>
+      </c>
+      <c r="D294">
+        <v>0</v>
+      </c>
+      <c r="E294">
+        <v>1.21</v>
+      </c>
+      <c r="F294" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295" t="s">
+        <v>298</v>
+      </c>
+      <c r="C295">
+        <v>12.94</v>
+      </c>
+      <c r="D295">
+        <v>0</v>
+      </c>
+      <c r="E295">
+        <v>1.21</v>
+      </c>
+      <c r="F295" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296" t="s">
+        <v>299</v>
+      </c>
+      <c r="C296">
+        <v>12.87</v>
+      </c>
+      <c r="D296">
+        <v>0</v>
+      </c>
+      <c r="E296">
+        <v>1.21</v>
+      </c>
+      <c r="F296" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297" t="s">
+        <v>300</v>
+      </c>
+      <c r="C297">
+        <v>12.84</v>
+      </c>
+      <c r="D297">
+        <v>0</v>
+      </c>
+      <c r="E297">
+        <v>1.21</v>
+      </c>
+      <c r="F297" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/MODESTO MENDEZ.xlsx
+++ b/tablas_insivumeh/MODESTO MENDEZ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="303">
   <si>
     <t>Fecha</t>
   </si>
@@ -917,6 +917,9 @@
   </si>
   <si>
     <t>11/13/2020 5:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 5:30:00 PM</t>
   </si>
   <si>
     <t>MODESTO MENDEZ</t>
@@ -1277,7 +1280,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F297"/>
+  <dimension ref="A1:F298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1317,7 +1320,7 @@
         <v>0.91</v>
       </c>
       <c r="F2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1337,7 +1340,7 @@
         <v>0.79</v>
       </c>
       <c r="F3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1357,7 +1360,7 @@
         <v>0.79</v>
       </c>
       <c r="F4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1377,7 +1380,7 @@
         <v>0.79</v>
       </c>
       <c r="F5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1397,7 +1400,7 @@
         <v>0.79</v>
       </c>
       <c r="F6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1417,7 +1420,7 @@
         <v>0.79</v>
       </c>
       <c r="F7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1437,7 +1440,7 @@
         <v>0.79</v>
       </c>
       <c r="F8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1457,7 +1460,7 @@
         <v>0.79</v>
       </c>
       <c r="F9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1477,7 +1480,7 @@
         <v>0.79</v>
       </c>
       <c r="F10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1497,7 +1500,7 @@
         <v>0.79</v>
       </c>
       <c r="F11" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1517,7 +1520,7 @@
         <v>0.79</v>
       </c>
       <c r="F12" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1537,7 +1540,7 @@
         <v>0.79</v>
       </c>
       <c r="F13" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1557,7 +1560,7 @@
         <v>0.79</v>
       </c>
       <c r="F14" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1577,7 +1580,7 @@
         <v>0.79</v>
       </c>
       <c r="F15" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1597,7 +1600,7 @@
         <v>0.79</v>
       </c>
       <c r="F16" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1617,7 +1620,7 @@
         <v>0.79</v>
       </c>
       <c r="F17" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1637,7 +1640,7 @@
         <v>0.79</v>
       </c>
       <c r="F18" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1657,7 +1660,7 @@
         <v>0.79</v>
       </c>
       <c r="F19" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1677,7 +1680,7 @@
         <v>0.79</v>
       </c>
       <c r="F20" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1697,7 +1700,7 @@
         <v>0.79</v>
       </c>
       <c r="F21" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1717,7 +1720,7 @@
         <v>0.79</v>
       </c>
       <c r="F22" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1737,7 +1740,7 @@
         <v>0.79</v>
       </c>
       <c r="F23" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1757,7 +1760,7 @@
         <v>0.79</v>
       </c>
       <c r="F24" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1777,7 +1780,7 @@
         <v>0.79</v>
       </c>
       <c r="F25" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1797,7 +1800,7 @@
         <v>0.79</v>
       </c>
       <c r="F26" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1817,7 +1820,7 @@
         <v>0.79</v>
       </c>
       <c r="F27" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1837,7 +1840,7 @@
         <v>0.79</v>
       </c>
       <c r="F28" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1857,7 +1860,7 @@
         <v>1.13</v>
       </c>
       <c r="F29" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1877,7 +1880,7 @@
         <v>1.21</v>
       </c>
       <c r="F30" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1897,7 +1900,7 @@
         <v>1.21</v>
       </c>
       <c r="F31" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1917,7 +1920,7 @@
         <v>1.21</v>
       </c>
       <c r="F32" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1937,7 +1940,7 @@
         <v>1.21</v>
       </c>
       <c r="F33" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1957,7 +1960,7 @@
         <v>1.21</v>
       </c>
       <c r="F34" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1977,7 +1980,7 @@
         <v>1.21</v>
       </c>
       <c r="F35" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1997,7 +2000,7 @@
         <v>1.21</v>
       </c>
       <c r="F36" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2017,7 +2020,7 @@
         <v>1.21</v>
       </c>
       <c r="F37" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2037,7 +2040,7 @@
         <v>1.21</v>
       </c>
       <c r="F38" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2057,7 +2060,7 @@
         <v>1.21</v>
       </c>
       <c r="F39" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2077,7 +2080,7 @@
         <v>1.21</v>
       </c>
       <c r="F40" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2097,7 +2100,7 @@
         <v>1.21</v>
       </c>
       <c r="F41" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2117,7 +2120,7 @@
         <v>1.21</v>
       </c>
       <c r="F42" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2137,7 +2140,7 @@
         <v>1.21</v>
       </c>
       <c r="F43" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2157,7 +2160,7 @@
         <v>1.21</v>
       </c>
       <c r="F44" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2177,7 +2180,7 @@
         <v>1.21</v>
       </c>
       <c r="F45" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2197,7 +2200,7 @@
         <v>1.21</v>
       </c>
       <c r="F46" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2217,7 +2220,7 @@
         <v>1.21</v>
       </c>
       <c r="F47" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2237,7 +2240,7 @@
         <v>1.21</v>
       </c>
       <c r="F48" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2257,7 +2260,7 @@
         <v>1.21</v>
       </c>
       <c r="F49" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2277,7 +2280,7 @@
         <v>1.21</v>
       </c>
       <c r="F50" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2297,7 +2300,7 @@
         <v>1.21</v>
       </c>
       <c r="F51" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2317,7 +2320,7 @@
         <v>1.21</v>
       </c>
       <c r="F52" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2337,7 +2340,7 @@
         <v>1.21</v>
       </c>
       <c r="F53" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2357,7 +2360,7 @@
         <v>1.21</v>
       </c>
       <c r="F54" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2377,7 +2380,7 @@
         <v>1.21</v>
       </c>
       <c r="F55" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2397,7 +2400,7 @@
         <v>1.21</v>
       </c>
       <c r="F56" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2417,7 +2420,7 @@
         <v>1.21</v>
       </c>
       <c r="F57" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2437,7 +2440,7 @@
         <v>1.21</v>
       </c>
       <c r="F58" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2457,7 +2460,7 @@
         <v>1.21</v>
       </c>
       <c r="F59" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2477,7 +2480,7 @@
         <v>1.21</v>
       </c>
       <c r="F60" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2497,7 +2500,7 @@
         <v>1.21</v>
       </c>
       <c r="F61" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2517,7 +2520,7 @@
         <v>1.21</v>
       </c>
       <c r="F62" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2537,7 +2540,7 @@
         <v>1.21</v>
       </c>
       <c r="F63" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2557,7 +2560,7 @@
         <v>1.21</v>
       </c>
       <c r="F64" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2577,7 +2580,7 @@
         <v>1.21</v>
       </c>
       <c r="F65" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2597,7 +2600,7 @@
         <v>1.21</v>
       </c>
       <c r="F66" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2617,7 +2620,7 @@
         <v>1.21</v>
       </c>
       <c r="F67" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2637,7 +2640,7 @@
         <v>1.21</v>
       </c>
       <c r="F68" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2657,7 +2660,7 @@
         <v>1.21</v>
       </c>
       <c r="F69" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2677,7 +2680,7 @@
         <v>1.21</v>
       </c>
       <c r="F70" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2697,7 +2700,7 @@
         <v>1.06</v>
       </c>
       <c r="F71" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2717,7 +2720,7 @@
         <v>0.78</v>
       </c>
       <c r="F72" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2737,7 +2740,7 @@
         <v>0.79</v>
       </c>
       <c r="F73" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2757,7 +2760,7 @@
         <v>0.79</v>
       </c>
       <c r="F74" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2777,7 +2780,7 @@
         <v>0.79</v>
       </c>
       <c r="F75" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2797,7 +2800,7 @@
         <v>0.79</v>
       </c>
       <c r="F76" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2817,7 +2820,7 @@
         <v>0.79</v>
       </c>
       <c r="F77" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2837,7 +2840,7 @@
         <v>1.12</v>
       </c>
       <c r="F78" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2857,7 +2860,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="F79" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2877,7 +2880,7 @@
         <v>0.96</v>
       </c>
       <c r="F80" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2897,7 +2900,7 @@
         <v>0.79</v>
       </c>
       <c r="F81" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2917,7 +2920,7 @@
         <v>0.79</v>
       </c>
       <c r="F82" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2937,7 +2940,7 @@
         <v>0.79</v>
       </c>
       <c r="F83" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2957,7 +2960,7 @@
         <v>0.79</v>
       </c>
       <c r="F84" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2977,7 +2980,7 @@
         <v>0.79</v>
       </c>
       <c r="F85" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2997,7 +3000,7 @@
         <v>0.79</v>
       </c>
       <c r="F86" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3017,7 +3020,7 @@
         <v>0.79</v>
       </c>
       <c r="F87" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3037,7 +3040,7 @@
         <v>0.79</v>
       </c>
       <c r="F88" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3057,7 +3060,7 @@
         <v>0.79</v>
       </c>
       <c r="F89" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3077,7 +3080,7 @@
         <v>0.79</v>
       </c>
       <c r="F90" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3097,7 +3100,7 @@
         <v>0.79</v>
       </c>
       <c r="F91" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3117,7 +3120,7 @@
         <v>0.79</v>
       </c>
       <c r="F92" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3137,7 +3140,7 @@
         <v>0.79</v>
       </c>
       <c r="F93" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3157,7 +3160,7 @@
         <v>0.79</v>
       </c>
       <c r="F94" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3177,7 +3180,7 @@
         <v>0.79</v>
       </c>
       <c r="F95" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3197,7 +3200,7 @@
         <v>0.79</v>
       </c>
       <c r="F96" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3217,7 +3220,7 @@
         <v>0.79</v>
       </c>
       <c r="F97" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3237,7 +3240,7 @@
         <v>0.79</v>
       </c>
       <c r="F98" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3257,7 +3260,7 @@
         <v>0.79</v>
       </c>
       <c r="F99" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3277,7 +3280,7 @@
         <v>0.79</v>
       </c>
       <c r="F100" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3297,7 +3300,7 @@
         <v>0.79</v>
       </c>
       <c r="F101" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3317,7 +3320,7 @@
         <v>0.79</v>
       </c>
       <c r="F102" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3337,7 +3340,7 @@
         <v>0.79</v>
       </c>
       <c r="F103" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3357,7 +3360,7 @@
         <v>0.79</v>
       </c>
       <c r="F104" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3377,7 +3380,7 @@
         <v>0.79</v>
       </c>
       <c r="F105" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3397,7 +3400,7 @@
         <v>0.79</v>
       </c>
       <c r="F106" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3417,7 +3420,7 @@
         <v>0.79</v>
       </c>
       <c r="F107" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3437,7 +3440,7 @@
         <v>0.79</v>
       </c>
       <c r="F108" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3457,7 +3460,7 @@
         <v>0.79</v>
       </c>
       <c r="F109" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3477,7 +3480,7 @@
         <v>0.79</v>
       </c>
       <c r="F110" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3497,7 +3500,7 @@
         <v>0.79</v>
       </c>
       <c r="F111" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3517,7 +3520,7 @@
         <v>0.79</v>
       </c>
       <c r="F112" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3537,7 +3540,7 @@
         <v>0.79</v>
       </c>
       <c r="F113" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3557,7 +3560,7 @@
         <v>0.79</v>
       </c>
       <c r="F114" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3577,7 +3580,7 @@
         <v>0.79</v>
       </c>
       <c r="F115" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3597,7 +3600,7 @@
         <v>0.79</v>
       </c>
       <c r="F116" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3617,7 +3620,7 @@
         <v>0.79</v>
       </c>
       <c r="F117" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3637,7 +3640,7 @@
         <v>0.79</v>
       </c>
       <c r="F118" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3657,7 +3660,7 @@
         <v>0.79</v>
       </c>
       <c r="F119" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3677,7 +3680,7 @@
         <v>1.15</v>
       </c>
       <c r="F120" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3697,7 +3700,7 @@
         <v>1.21</v>
       </c>
       <c r="F121" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3717,7 +3720,7 @@
         <v>1.21</v>
       </c>
       <c r="F122" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3737,7 +3740,7 @@
         <v>1.21</v>
       </c>
       <c r="F123" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3757,7 +3760,7 @@
         <v>1.21</v>
       </c>
       <c r="F124" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3777,7 +3780,7 @@
         <v>1.21</v>
       </c>
       <c r="F125" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3797,7 +3800,7 @@
         <v>1.21</v>
       </c>
       <c r="F126" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3817,7 +3820,7 @@
         <v>1.21</v>
       </c>
       <c r="F127" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3837,7 +3840,7 @@
         <v>1.21</v>
       </c>
       <c r="F128" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3857,7 +3860,7 @@
         <v>1.21</v>
       </c>
       <c r="F129" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3877,7 +3880,7 @@
         <v>1.21</v>
       </c>
       <c r="F130" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3897,7 +3900,7 @@
         <v>1.21</v>
       </c>
       <c r="F131" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3917,7 +3920,7 @@
         <v>1.21</v>
       </c>
       <c r="F132" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3937,7 +3940,7 @@
         <v>1.21</v>
       </c>
       <c r="F133" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3957,7 +3960,7 @@
         <v>1.21</v>
       </c>
       <c r="F134" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3977,7 +3980,7 @@
         <v>1.21</v>
       </c>
       <c r="F135" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3997,7 +4000,7 @@
         <v>1.21</v>
       </c>
       <c r="F136" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4017,7 +4020,7 @@
         <v>1.21</v>
       </c>
       <c r="F137" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4037,7 +4040,7 @@
         <v>1.21</v>
       </c>
       <c r="F138" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4057,7 +4060,7 @@
         <v>1.21</v>
       </c>
       <c r="F139" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4077,7 +4080,7 @@
         <v>1.21</v>
       </c>
       <c r="F140" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4097,7 +4100,7 @@
         <v>1.21</v>
       </c>
       <c r="F141" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4117,7 +4120,7 @@
         <v>1.21</v>
       </c>
       <c r="F142" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4137,7 +4140,7 @@
         <v>1.21</v>
       </c>
       <c r="F143" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4157,7 +4160,7 @@
         <v>1.21</v>
       </c>
       <c r="F144" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4177,7 +4180,7 @@
         <v>1.21</v>
       </c>
       <c r="F145" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4197,7 +4200,7 @@
         <v>1.21</v>
       </c>
       <c r="F146" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4217,7 +4220,7 @@
         <v>1.21</v>
       </c>
       <c r="F147" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4237,7 +4240,7 @@
         <v>1.21</v>
       </c>
       <c r="F148" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4257,7 +4260,7 @@
         <v>1.21</v>
       </c>
       <c r="F149" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4277,7 +4280,7 @@
         <v>0.95</v>
       </c>
       <c r="F150" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4297,7 +4300,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4317,7 +4320,7 @@
         <v>1.21</v>
       </c>
       <c r="F152" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4337,7 +4340,7 @@
         <v>0.89</v>
       </c>
       <c r="F153" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4357,7 +4360,7 @@
         <v>0.79</v>
       </c>
       <c r="F154" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4377,7 +4380,7 @@
         <v>1.05</v>
       </c>
       <c r="F155" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4397,7 +4400,7 @@
         <v>1.21</v>
       </c>
       <c r="F156" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4417,7 +4420,7 @@
         <v>0.97</v>
       </c>
       <c r="F157" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4437,7 +4440,7 @@
         <v>0.78</v>
       </c>
       <c r="F158" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4457,7 +4460,7 @@
         <v>0.79</v>
       </c>
       <c r="F159" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4477,7 +4480,7 @@
         <v>0.79</v>
       </c>
       <c r="F160" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4497,7 +4500,7 @@
         <v>0.79</v>
       </c>
       <c r="F161" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4517,7 +4520,7 @@
         <v>0.79</v>
       </c>
       <c r="F162" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4537,7 +4540,7 @@
         <v>0.8</v>
       </c>
       <c r="F163" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4557,7 +4560,7 @@
         <v>0.78</v>
       </c>
       <c r="F164" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4577,7 +4580,7 @@
         <v>0.79</v>
       </c>
       <c r="F165" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4597,7 +4600,7 @@
         <v>0.79</v>
       </c>
       <c r="F166" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4617,7 +4620,7 @@
         <v>0.78</v>
       </c>
       <c r="F167" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4637,7 +4640,7 @@
         <v>0.79</v>
       </c>
       <c r="F168" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4657,7 +4660,7 @@
         <v>0.79</v>
       </c>
       <c r="F169" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4677,7 +4680,7 @@
         <v>0.79</v>
       </c>
       <c r="F170" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4697,7 +4700,7 @@
         <v>0.79</v>
       </c>
       <c r="F171" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4717,7 +4720,7 @@
         <v>0.79</v>
       </c>
       <c r="F172" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4737,7 +4740,7 @@
         <v>0.79</v>
       </c>
       <c r="F173" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4757,7 +4760,7 @@
         <v>0.79</v>
       </c>
       <c r="F174" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4777,7 +4780,7 @@
         <v>0.79</v>
       </c>
       <c r="F175" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4797,7 +4800,7 @@
         <v>0.79</v>
       </c>
       <c r="F176" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4817,7 +4820,7 @@
         <v>0.79</v>
       </c>
       <c r="F177" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4837,7 +4840,7 @@
         <v>0.79</v>
       </c>
       <c r="F178" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4857,7 +4860,7 @@
         <v>0.79</v>
       </c>
       <c r="F179" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4877,7 +4880,7 @@
         <v>0.79</v>
       </c>
       <c r="F180" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4897,7 +4900,7 @@
         <v>0.79</v>
       </c>
       <c r="F181" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4917,7 +4920,7 @@
         <v>0.79</v>
       </c>
       <c r="F182" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4937,7 +4940,7 @@
         <v>0.79</v>
       </c>
       <c r="F183" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4957,7 +4960,7 @@
         <v>0.79</v>
       </c>
       <c r="F184" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4977,7 +4980,7 @@
         <v>0.79</v>
       </c>
       <c r="F185" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4997,7 +5000,7 @@
         <v>0.79</v>
       </c>
       <c r="F186" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5017,7 +5020,7 @@
         <v>0.79</v>
       </c>
       <c r="F187" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5037,7 +5040,7 @@
         <v>0.79</v>
       </c>
       <c r="F188" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5057,7 +5060,7 @@
         <v>0.79</v>
       </c>
       <c r="F189" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5077,7 +5080,7 @@
         <v>0.79</v>
       </c>
       <c r="F190" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5097,7 +5100,7 @@
         <v>0.79</v>
       </c>
       <c r="F191" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5117,7 +5120,7 @@
         <v>0.79</v>
       </c>
       <c r="F192" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5137,7 +5140,7 @@
         <v>0.79</v>
       </c>
       <c r="F193" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5157,7 +5160,7 @@
         <v>0.79</v>
       </c>
       <c r="F194" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5177,7 +5180,7 @@
         <v>0.79</v>
       </c>
       <c r="F195" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5197,7 +5200,7 @@
         <v>0.79</v>
       </c>
       <c r="F196" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5217,7 +5220,7 @@
         <v>0.79</v>
       </c>
       <c r="F197" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5237,7 +5240,7 @@
         <v>0.79</v>
       </c>
       <c r="F198" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5257,7 +5260,7 @@
         <v>0.79</v>
       </c>
       <c r="F199" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5277,7 +5280,7 @@
         <v>0.79</v>
       </c>
       <c r="F200" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5297,7 +5300,7 @@
         <v>0.79</v>
       </c>
       <c r="F201" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5317,7 +5320,7 @@
         <v>0.79</v>
       </c>
       <c r="F202" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5337,7 +5340,7 @@
         <v>0.79</v>
       </c>
       <c r="F203" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5357,7 +5360,7 @@
         <v>0.79</v>
       </c>
       <c r="F204" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5377,7 +5380,7 @@
         <v>0.79</v>
       </c>
       <c r="F205" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5397,7 +5400,7 @@
         <v>0.79</v>
       </c>
       <c r="F206" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5417,7 +5420,7 @@
         <v>0.79</v>
       </c>
       <c r="F207" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5437,7 +5440,7 @@
         <v>0.79</v>
       </c>
       <c r="F208" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5457,7 +5460,7 @@
         <v>0.79</v>
       </c>
       <c r="F209" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5477,7 +5480,7 @@
         <v>0.79</v>
       </c>
       <c r="F210" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5497,7 +5500,7 @@
         <v>0.79</v>
       </c>
       <c r="F211" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5517,7 +5520,7 @@
         <v>0.79</v>
       </c>
       <c r="F212" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5537,7 +5540,7 @@
         <v>0.79</v>
       </c>
       <c r="F213" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5557,7 +5560,7 @@
         <v>0.79</v>
       </c>
       <c r="F214" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5577,7 +5580,7 @@
         <v>0.79</v>
       </c>
       <c r="F215" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5597,7 +5600,7 @@
         <v>0.79</v>
       </c>
       <c r="F216" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5617,7 +5620,7 @@
         <v>0.79</v>
       </c>
       <c r="F217" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5637,7 +5640,7 @@
         <v>0.79</v>
       </c>
       <c r="F218" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5657,7 +5660,7 @@
         <v>0.79</v>
       </c>
       <c r="F219" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5677,7 +5680,7 @@
         <v>0.79</v>
       </c>
       <c r="F220" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5697,7 +5700,7 @@
         <v>0.79</v>
       </c>
       <c r="F221" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5717,7 +5720,7 @@
         <v>0.79</v>
       </c>
       <c r="F222" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5737,7 +5740,7 @@
         <v>0.79</v>
       </c>
       <c r="F223" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5757,7 +5760,7 @@
         <v>0.79</v>
       </c>
       <c r="F224" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5777,7 +5780,7 @@
         <v>0.79</v>
       </c>
       <c r="F225" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5797,7 +5800,7 @@
         <v>0.79</v>
       </c>
       <c r="F226" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5817,7 +5820,7 @@
         <v>0.78</v>
       </c>
       <c r="F227" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5837,7 +5840,7 @@
         <v>0.92</v>
       </c>
       <c r="F228" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5857,7 +5860,7 @@
         <v>0.88</v>
       </c>
       <c r="F229" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5877,7 +5880,7 @@
         <v>0.8</v>
       </c>
       <c r="F230" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5897,7 +5900,7 @@
         <v>1.11</v>
       </c>
       <c r="F231" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5917,7 +5920,7 @@
         <v>0.78</v>
       </c>
       <c r="F232" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5937,7 +5940,7 @@
         <v>0.79</v>
       </c>
       <c r="F233" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5957,7 +5960,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="F234" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5977,7 +5980,7 @@
         <v>1.18</v>
       </c>
       <c r="F235" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5997,7 +6000,7 @@
         <v>0.97</v>
       </c>
       <c r="F236" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -6017,7 +6020,7 @@
         <v>0.79</v>
       </c>
       <c r="F237" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -6037,7 +6040,7 @@
         <v>0.79</v>
       </c>
       <c r="F238" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -6057,7 +6060,7 @@
         <v>0.79</v>
       </c>
       <c r="F239" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -6077,7 +6080,7 @@
         <v>0.79</v>
       </c>
       <c r="F240" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -6097,7 +6100,7 @@
         <v>0.79</v>
       </c>
       <c r="F241" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6117,7 +6120,7 @@
         <v>0.79</v>
       </c>
       <c r="F242" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6137,7 +6140,7 @@
         <v>0.79</v>
       </c>
       <c r="F243" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6157,7 +6160,7 @@
         <v>0.79</v>
       </c>
       <c r="F244" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6177,7 +6180,7 @@
         <v>0.79</v>
       </c>
       <c r="F245" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6197,7 +6200,7 @@
         <v>0.79</v>
       </c>
       <c r="F246" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6217,7 +6220,7 @@
         <v>0.79</v>
       </c>
       <c r="F247" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6237,7 +6240,7 @@
         <v>0.79</v>
       </c>
       <c r="F248" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6257,7 +6260,7 @@
         <v>0.79</v>
       </c>
       <c r="F249" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6277,7 +6280,7 @@
         <v>0.79</v>
       </c>
       <c r="F250" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6297,7 +6300,7 @@
         <v>0.79</v>
       </c>
       <c r="F251" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6317,7 +6320,7 @@
         <v>0.79</v>
       </c>
       <c r="F252" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6337,7 +6340,7 @@
         <v>0.79</v>
       </c>
       <c r="F253" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6357,7 +6360,7 @@
         <v>0.79</v>
       </c>
       <c r="F254" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6377,7 +6380,7 @@
         <v>0.79</v>
       </c>
       <c r="F255" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6397,7 +6400,7 @@
         <v>0.79</v>
       </c>
       <c r="F256" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6417,7 +6420,7 @@
         <v>0.79</v>
       </c>
       <c r="F257" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -6437,7 +6440,7 @@
         <v>0.79</v>
       </c>
       <c r="F258" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -6457,7 +6460,7 @@
         <v>0.79</v>
       </c>
       <c r="F259" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -6477,7 +6480,7 @@
         <v>0.79</v>
       </c>
       <c r="F260" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -6497,7 +6500,7 @@
         <v>0.79</v>
       </c>
       <c r="F261" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -6517,7 +6520,7 @@
         <v>0.79</v>
       </c>
       <c r="F262" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -6537,7 +6540,7 @@
         <v>0.79</v>
       </c>
       <c r="F263" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -6557,7 +6560,7 @@
         <v>0.79</v>
       </c>
       <c r="F264" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -6577,7 +6580,7 @@
         <v>0.79</v>
       </c>
       <c r="F265" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -6597,7 +6600,7 @@
         <v>0.79</v>
       </c>
       <c r="F266" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -6617,7 +6620,7 @@
         <v>0.79</v>
       </c>
       <c r="F267" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -6637,7 +6640,7 @@
         <v>0.79</v>
       </c>
       <c r="F268" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -6657,7 +6660,7 @@
         <v>0.79</v>
       </c>
       <c r="F269" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -6677,7 +6680,7 @@
         <v>0.79</v>
       </c>
       <c r="F270" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -6697,7 +6700,7 @@
         <v>0.79</v>
       </c>
       <c r="F271" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -6717,7 +6720,7 @@
         <v>0.79</v>
       </c>
       <c r="F272" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -6737,7 +6740,7 @@
         <v>0.79</v>
       </c>
       <c r="F273" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -6757,7 +6760,7 @@
         <v>0.79</v>
       </c>
       <c r="F274" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -6777,7 +6780,7 @@
         <v>1.13</v>
       </c>
       <c r="F275" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -6797,7 +6800,7 @@
         <v>1.21</v>
       </c>
       <c r="F276" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -6817,7 +6820,7 @@
         <v>1.21</v>
       </c>
       <c r="F277" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -6837,7 +6840,7 @@
         <v>1.21</v>
       </c>
       <c r="F278" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -6857,7 +6860,7 @@
         <v>1.21</v>
       </c>
       <c r="F279" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -6877,7 +6880,7 @@
         <v>1.21</v>
       </c>
       <c r="F280" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -6897,7 +6900,7 @@
         <v>1.21</v>
       </c>
       <c r="F281" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -6917,7 +6920,7 @@
         <v>1.21</v>
       </c>
       <c r="F282" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -6937,7 +6940,7 @@
         <v>1.21</v>
       </c>
       <c r="F283" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -6957,7 +6960,7 @@
         <v>1.21</v>
       </c>
       <c r="F284" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -6977,7 +6980,7 @@
         <v>1.21</v>
       </c>
       <c r="F285" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -6997,7 +7000,7 @@
         <v>1.21</v>
       </c>
       <c r="F286" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -7017,7 +7020,7 @@
         <v>1.21</v>
       </c>
       <c r="F287" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -7037,7 +7040,7 @@
         <v>1.21</v>
       </c>
       <c r="F288" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -7057,7 +7060,7 @@
         <v>1.21</v>
       </c>
       <c r="F289" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -7077,7 +7080,7 @@
         <v>1.21</v>
       </c>
       <c r="F290" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -7097,7 +7100,7 @@
         <v>1.21</v>
       </c>
       <c r="F291" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -7117,7 +7120,7 @@
         <v>1.21</v>
       </c>
       <c r="F292" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -7137,7 +7140,7 @@
         <v>1.21</v>
       </c>
       <c r="F293" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -7157,7 +7160,7 @@
         <v>1.21</v>
       </c>
       <c r="F294" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -7177,7 +7180,7 @@
         <v>1.21</v>
       </c>
       <c r="F295" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -7197,7 +7200,7 @@
         <v>1.21</v>
       </c>
       <c r="F296" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -7217,7 +7220,27 @@
         <v>1.21</v>
       </c>
       <c r="F297" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298" t="s">
         <v>301</v>
+      </c>
+      <c r="C298">
+        <v>12.84</v>
+      </c>
+      <c r="D298">
+        <v>0</v>
+      </c>
+      <c r="E298">
+        <v>1.21</v>
+      </c>
+      <c r="F298" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/MODESTO MENDEZ.xlsx
+++ b/tablas_insivumeh/MODESTO MENDEZ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="309">
   <si>
     <t>Fecha</t>
   </si>
@@ -920,6 +920,24 @@
   </si>
   <si>
     <t>11/13/2020 5:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 5:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 5:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 6:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 6:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 6:30:00 PM</t>
   </si>
   <si>
     <t>MODESTO MENDEZ</t>
@@ -1280,7 +1298,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F298"/>
+  <dimension ref="A1:F304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1320,7 +1338,7 @@
         <v>0.91</v>
       </c>
       <c r="F2" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1340,7 +1358,7 @@
         <v>0.79</v>
       </c>
       <c r="F3" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1360,7 +1378,7 @@
         <v>0.79</v>
       </c>
       <c r="F4" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1380,7 +1398,7 @@
         <v>0.79</v>
       </c>
       <c r="F5" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1400,7 +1418,7 @@
         <v>0.79</v>
       </c>
       <c r="F6" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1420,7 +1438,7 @@
         <v>0.79</v>
       </c>
       <c r="F7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1440,7 +1458,7 @@
         <v>0.79</v>
       </c>
       <c r="F8" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1460,7 +1478,7 @@
         <v>0.79</v>
       </c>
       <c r="F9" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1480,7 +1498,7 @@
         <v>0.79</v>
       </c>
       <c r="F10" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1500,7 +1518,7 @@
         <v>0.79</v>
       </c>
       <c r="F11" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1520,7 +1538,7 @@
         <v>0.79</v>
       </c>
       <c r="F12" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1540,7 +1558,7 @@
         <v>0.79</v>
       </c>
       <c r="F13" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1560,7 +1578,7 @@
         <v>0.79</v>
       </c>
       <c r="F14" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1580,7 +1598,7 @@
         <v>0.79</v>
       </c>
       <c r="F15" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1600,7 +1618,7 @@
         <v>0.79</v>
       </c>
       <c r="F16" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1620,7 +1638,7 @@
         <v>0.79</v>
       </c>
       <c r="F17" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1640,7 +1658,7 @@
         <v>0.79</v>
       </c>
       <c r="F18" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1660,7 +1678,7 @@
         <v>0.79</v>
       </c>
       <c r="F19" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1680,7 +1698,7 @@
         <v>0.79</v>
       </c>
       <c r="F20" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1700,7 +1718,7 @@
         <v>0.79</v>
       </c>
       <c r="F21" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1720,7 +1738,7 @@
         <v>0.79</v>
       </c>
       <c r="F22" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1740,7 +1758,7 @@
         <v>0.79</v>
       </c>
       <c r="F23" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1760,7 +1778,7 @@
         <v>0.79</v>
       </c>
       <c r="F24" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1780,7 +1798,7 @@
         <v>0.79</v>
       </c>
       <c r="F25" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1800,7 +1818,7 @@
         <v>0.79</v>
       </c>
       <c r="F26" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1820,7 +1838,7 @@
         <v>0.79</v>
       </c>
       <c r="F27" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1840,7 +1858,7 @@
         <v>0.79</v>
       </c>
       <c r="F28" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1860,7 +1878,7 @@
         <v>1.13</v>
       </c>
       <c r="F29" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1880,7 +1898,7 @@
         <v>1.21</v>
       </c>
       <c r="F30" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1900,7 +1918,7 @@
         <v>1.21</v>
       </c>
       <c r="F31" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1920,7 +1938,7 @@
         <v>1.21</v>
       </c>
       <c r="F32" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1940,7 +1958,7 @@
         <v>1.21</v>
       </c>
       <c r="F33" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1960,7 +1978,7 @@
         <v>1.21</v>
       </c>
       <c r="F34" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1980,7 +1998,7 @@
         <v>1.21</v>
       </c>
       <c r="F35" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2000,7 +2018,7 @@
         <v>1.21</v>
       </c>
       <c r="F36" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2020,7 +2038,7 @@
         <v>1.21</v>
       </c>
       <c r="F37" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2040,7 +2058,7 @@
         <v>1.21</v>
       </c>
       <c r="F38" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2060,7 +2078,7 @@
         <v>1.21</v>
       </c>
       <c r="F39" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2080,7 +2098,7 @@
         <v>1.21</v>
       </c>
       <c r="F40" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2100,7 +2118,7 @@
         <v>1.21</v>
       </c>
       <c r="F41" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2120,7 +2138,7 @@
         <v>1.21</v>
       </c>
       <c r="F42" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2140,7 +2158,7 @@
         <v>1.21</v>
       </c>
       <c r="F43" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2160,7 +2178,7 @@
         <v>1.21</v>
       </c>
       <c r="F44" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2180,7 +2198,7 @@
         <v>1.21</v>
       </c>
       <c r="F45" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2200,7 +2218,7 @@
         <v>1.21</v>
       </c>
       <c r="F46" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2220,7 +2238,7 @@
         <v>1.21</v>
       </c>
       <c r="F47" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2240,7 +2258,7 @@
         <v>1.21</v>
       </c>
       <c r="F48" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2260,7 +2278,7 @@
         <v>1.21</v>
       </c>
       <c r="F49" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2280,7 +2298,7 @@
         <v>1.21</v>
       </c>
       <c r="F50" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2300,7 +2318,7 @@
         <v>1.21</v>
       </c>
       <c r="F51" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2320,7 +2338,7 @@
         <v>1.21</v>
       </c>
       <c r="F52" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2340,7 +2358,7 @@
         <v>1.21</v>
       </c>
       <c r="F53" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2360,7 +2378,7 @@
         <v>1.21</v>
       </c>
       <c r="F54" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2380,7 +2398,7 @@
         <v>1.21</v>
       </c>
       <c r="F55" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2400,7 +2418,7 @@
         <v>1.21</v>
       </c>
       <c r="F56" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2420,7 +2438,7 @@
         <v>1.21</v>
       </c>
       <c r="F57" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2440,7 +2458,7 @@
         <v>1.21</v>
       </c>
       <c r="F58" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2460,7 +2478,7 @@
         <v>1.21</v>
       </c>
       <c r="F59" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2480,7 +2498,7 @@
         <v>1.21</v>
       </c>
       <c r="F60" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2500,7 +2518,7 @@
         <v>1.21</v>
       </c>
       <c r="F61" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2520,7 +2538,7 @@
         <v>1.21</v>
       </c>
       <c r="F62" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2540,7 +2558,7 @@
         <v>1.21</v>
       </c>
       <c r="F63" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2560,7 +2578,7 @@
         <v>1.21</v>
       </c>
       <c r="F64" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2580,7 +2598,7 @@
         <v>1.21</v>
       </c>
       <c r="F65" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2600,7 +2618,7 @@
         <v>1.21</v>
       </c>
       <c r="F66" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2620,7 +2638,7 @@
         <v>1.21</v>
       </c>
       <c r="F67" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2640,7 +2658,7 @@
         <v>1.21</v>
       </c>
       <c r="F68" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2660,7 +2678,7 @@
         <v>1.21</v>
       </c>
       <c r="F69" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2680,7 +2698,7 @@
         <v>1.21</v>
       </c>
       <c r="F70" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2700,7 +2718,7 @@
         <v>1.06</v>
       </c>
       <c r="F71" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2720,7 +2738,7 @@
         <v>0.78</v>
       </c>
       <c r="F72" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2740,7 +2758,7 @@
         <v>0.79</v>
       </c>
       <c r="F73" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2760,7 +2778,7 @@
         <v>0.79</v>
       </c>
       <c r="F74" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2780,7 +2798,7 @@
         <v>0.79</v>
       </c>
       <c r="F75" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2800,7 +2818,7 @@
         <v>0.79</v>
       </c>
       <c r="F76" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2820,7 +2838,7 @@
         <v>0.79</v>
       </c>
       <c r="F77" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2840,7 +2858,7 @@
         <v>1.12</v>
       </c>
       <c r="F78" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2860,7 +2878,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="F79" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2880,7 +2898,7 @@
         <v>0.96</v>
       </c>
       <c r="F80" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2900,7 +2918,7 @@
         <v>0.79</v>
       </c>
       <c r="F81" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2920,7 +2938,7 @@
         <v>0.79</v>
       </c>
       <c r="F82" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2940,7 +2958,7 @@
         <v>0.79</v>
       </c>
       <c r="F83" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2960,7 +2978,7 @@
         <v>0.79</v>
       </c>
       <c r="F84" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2980,7 +2998,7 @@
         <v>0.79</v>
       </c>
       <c r="F85" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3000,7 +3018,7 @@
         <v>0.79</v>
       </c>
       <c r="F86" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3020,7 +3038,7 @@
         <v>0.79</v>
       </c>
       <c r="F87" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3040,7 +3058,7 @@
         <v>0.79</v>
       </c>
       <c r="F88" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3060,7 +3078,7 @@
         <v>0.79</v>
       </c>
       <c r="F89" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3080,7 +3098,7 @@
         <v>0.79</v>
       </c>
       <c r="F90" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3100,7 +3118,7 @@
         <v>0.79</v>
       </c>
       <c r="F91" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3120,7 +3138,7 @@
         <v>0.79</v>
       </c>
       <c r="F92" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3140,7 +3158,7 @@
         <v>0.79</v>
       </c>
       <c r="F93" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3160,7 +3178,7 @@
         <v>0.79</v>
       </c>
       <c r="F94" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3180,7 +3198,7 @@
         <v>0.79</v>
       </c>
       <c r="F95" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3200,7 +3218,7 @@
         <v>0.79</v>
       </c>
       <c r="F96" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3220,7 +3238,7 @@
         <v>0.79</v>
       </c>
       <c r="F97" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3240,7 +3258,7 @@
         <v>0.79</v>
       </c>
       <c r="F98" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3260,7 +3278,7 @@
         <v>0.79</v>
       </c>
       <c r="F99" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3280,7 +3298,7 @@
         <v>0.79</v>
       </c>
       <c r="F100" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3300,7 +3318,7 @@
         <v>0.79</v>
       </c>
       <c r="F101" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3320,7 +3338,7 @@
         <v>0.79</v>
       </c>
       <c r="F102" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3340,7 +3358,7 @@
         <v>0.79</v>
       </c>
       <c r="F103" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3360,7 +3378,7 @@
         <v>0.79</v>
       </c>
       <c r="F104" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3380,7 +3398,7 @@
         <v>0.79</v>
       </c>
       <c r="F105" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3400,7 +3418,7 @@
         <v>0.79</v>
       </c>
       <c r="F106" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3420,7 +3438,7 @@
         <v>0.79</v>
       </c>
       <c r="F107" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3440,7 +3458,7 @@
         <v>0.79</v>
       </c>
       <c r="F108" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3460,7 +3478,7 @@
         <v>0.79</v>
       </c>
       <c r="F109" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3480,7 +3498,7 @@
         <v>0.79</v>
       </c>
       <c r="F110" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3500,7 +3518,7 @@
         <v>0.79</v>
       </c>
       <c r="F111" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3520,7 +3538,7 @@
         <v>0.79</v>
       </c>
       <c r="F112" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3540,7 +3558,7 @@
         <v>0.79</v>
       </c>
       <c r="F113" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3560,7 +3578,7 @@
         <v>0.79</v>
       </c>
       <c r="F114" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3580,7 +3598,7 @@
         <v>0.79</v>
       </c>
       <c r="F115" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3600,7 +3618,7 @@
         <v>0.79</v>
       </c>
       <c r="F116" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3620,7 +3638,7 @@
         <v>0.79</v>
       </c>
       <c r="F117" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3640,7 +3658,7 @@
         <v>0.79</v>
       </c>
       <c r="F118" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3660,7 +3678,7 @@
         <v>0.79</v>
       </c>
       <c r="F119" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3680,7 +3698,7 @@
         <v>1.15</v>
       </c>
       <c r="F120" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3700,7 +3718,7 @@
         <v>1.21</v>
       </c>
       <c r="F121" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3720,7 +3738,7 @@
         <v>1.21</v>
       </c>
       <c r="F122" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3740,7 +3758,7 @@
         <v>1.21</v>
       </c>
       <c r="F123" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3760,7 +3778,7 @@
         <v>1.21</v>
       </c>
       <c r="F124" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3780,7 +3798,7 @@
         <v>1.21</v>
       </c>
       <c r="F125" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3800,7 +3818,7 @@
         <v>1.21</v>
       </c>
       <c r="F126" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3820,7 +3838,7 @@
         <v>1.21</v>
       </c>
       <c r="F127" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3840,7 +3858,7 @@
         <v>1.21</v>
       </c>
       <c r="F128" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3860,7 +3878,7 @@
         <v>1.21</v>
       </c>
       <c r="F129" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3880,7 +3898,7 @@
         <v>1.21</v>
       </c>
       <c r="F130" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3900,7 +3918,7 @@
         <v>1.21</v>
       </c>
       <c r="F131" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3920,7 +3938,7 @@
         <v>1.21</v>
       </c>
       <c r="F132" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3940,7 +3958,7 @@
         <v>1.21</v>
       </c>
       <c r="F133" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3960,7 +3978,7 @@
         <v>1.21</v>
       </c>
       <c r="F134" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3980,7 +3998,7 @@
         <v>1.21</v>
       </c>
       <c r="F135" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4000,7 +4018,7 @@
         <v>1.21</v>
       </c>
       <c r="F136" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4020,7 +4038,7 @@
         <v>1.21</v>
       </c>
       <c r="F137" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4040,7 +4058,7 @@
         <v>1.21</v>
       </c>
       <c r="F138" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4060,7 +4078,7 @@
         <v>1.21</v>
       </c>
       <c r="F139" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4080,7 +4098,7 @@
         <v>1.21</v>
       </c>
       <c r="F140" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4100,7 +4118,7 @@
         <v>1.21</v>
       </c>
       <c r="F141" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4120,7 +4138,7 @@
         <v>1.21</v>
       </c>
       <c r="F142" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4140,7 +4158,7 @@
         <v>1.21</v>
       </c>
       <c r="F143" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4160,7 +4178,7 @@
         <v>1.21</v>
       </c>
       <c r="F144" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4180,7 +4198,7 @@
         <v>1.21</v>
       </c>
       <c r="F145" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4200,7 +4218,7 @@
         <v>1.21</v>
       </c>
       <c r="F146" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4220,7 +4238,7 @@
         <v>1.21</v>
       </c>
       <c r="F147" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4240,7 +4258,7 @@
         <v>1.21</v>
       </c>
       <c r="F148" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4260,7 +4278,7 @@
         <v>1.21</v>
       </c>
       <c r="F149" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4280,7 +4298,7 @@
         <v>0.95</v>
       </c>
       <c r="F150" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4300,7 +4318,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4320,7 +4338,7 @@
         <v>1.21</v>
       </c>
       <c r="F152" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4340,7 +4358,7 @@
         <v>0.89</v>
       </c>
       <c r="F153" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4360,7 +4378,7 @@
         <v>0.79</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4380,7 +4398,7 @@
         <v>1.05</v>
       </c>
       <c r="F155" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4400,7 +4418,7 @@
         <v>1.21</v>
       </c>
       <c r="F156" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4420,7 +4438,7 @@
         <v>0.97</v>
       </c>
       <c r="F157" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4440,7 +4458,7 @@
         <v>0.78</v>
       </c>
       <c r="F158" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4460,7 +4478,7 @@
         <v>0.79</v>
       </c>
       <c r="F159" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4480,7 +4498,7 @@
         <v>0.79</v>
       </c>
       <c r="F160" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4500,7 +4518,7 @@
         <v>0.79</v>
       </c>
       <c r="F161" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4520,7 +4538,7 @@
         <v>0.79</v>
       </c>
       <c r="F162" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4540,7 +4558,7 @@
         <v>0.8</v>
       </c>
       <c r="F163" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4560,7 +4578,7 @@
         <v>0.78</v>
       </c>
       <c r="F164" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4580,7 +4598,7 @@
         <v>0.79</v>
       </c>
       <c r="F165" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4600,7 +4618,7 @@
         <v>0.79</v>
       </c>
       <c r="F166" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4620,7 +4638,7 @@
         <v>0.78</v>
       </c>
       <c r="F167" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4640,7 +4658,7 @@
         <v>0.79</v>
       </c>
       <c r="F168" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4660,7 +4678,7 @@
         <v>0.79</v>
       </c>
       <c r="F169" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4680,7 +4698,7 @@
         <v>0.79</v>
       </c>
       <c r="F170" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4700,7 +4718,7 @@
         <v>0.79</v>
       </c>
       <c r="F171" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4720,7 +4738,7 @@
         <v>0.79</v>
       </c>
       <c r="F172" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4740,7 +4758,7 @@
         <v>0.79</v>
       </c>
       <c r="F173" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4760,7 +4778,7 @@
         <v>0.79</v>
       </c>
       <c r="F174" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4780,7 +4798,7 @@
         <v>0.79</v>
       </c>
       <c r="F175" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4800,7 +4818,7 @@
         <v>0.79</v>
       </c>
       <c r="F176" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4820,7 +4838,7 @@
         <v>0.79</v>
       </c>
       <c r="F177" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4840,7 +4858,7 @@
         <v>0.79</v>
       </c>
       <c r="F178" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4860,7 +4878,7 @@
         <v>0.79</v>
       </c>
       <c r="F179" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4880,7 +4898,7 @@
         <v>0.79</v>
       </c>
       <c r="F180" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4900,7 +4918,7 @@
         <v>0.79</v>
       </c>
       <c r="F181" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4920,7 +4938,7 @@
         <v>0.79</v>
       </c>
       <c r="F182" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4940,7 +4958,7 @@
         <v>0.79</v>
       </c>
       <c r="F183" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4960,7 +4978,7 @@
         <v>0.79</v>
       </c>
       <c r="F184" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4980,7 +4998,7 @@
         <v>0.79</v>
       </c>
       <c r="F185" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5000,7 +5018,7 @@
         <v>0.79</v>
       </c>
       <c r="F186" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5020,7 +5038,7 @@
         <v>0.79</v>
       </c>
       <c r="F187" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5040,7 +5058,7 @@
         <v>0.79</v>
       </c>
       <c r="F188" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5060,7 +5078,7 @@
         <v>0.79</v>
       </c>
       <c r="F189" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5080,7 +5098,7 @@
         <v>0.79</v>
       </c>
       <c r="F190" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5100,7 +5118,7 @@
         <v>0.79</v>
       </c>
       <c r="F191" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5120,7 +5138,7 @@
         <v>0.79</v>
       </c>
       <c r="F192" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5140,7 +5158,7 @@
         <v>0.79</v>
       </c>
       <c r="F193" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5160,7 +5178,7 @@
         <v>0.79</v>
       </c>
       <c r="F194" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5180,7 +5198,7 @@
         <v>0.79</v>
       </c>
       <c r="F195" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5200,7 +5218,7 @@
         <v>0.79</v>
       </c>
       <c r="F196" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5220,7 +5238,7 @@
         <v>0.79</v>
       </c>
       <c r="F197" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5240,7 +5258,7 @@
         <v>0.79</v>
       </c>
       <c r="F198" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5260,7 +5278,7 @@
         <v>0.79</v>
       </c>
       <c r="F199" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5280,7 +5298,7 @@
         <v>0.79</v>
       </c>
       <c r="F200" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5300,7 +5318,7 @@
         <v>0.79</v>
       </c>
       <c r="F201" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5320,7 +5338,7 @@
         <v>0.79</v>
       </c>
       <c r="F202" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5340,7 +5358,7 @@
         <v>0.79</v>
       </c>
       <c r="F203" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5360,7 +5378,7 @@
         <v>0.79</v>
       </c>
       <c r="F204" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5380,7 +5398,7 @@
         <v>0.79</v>
       </c>
       <c r="F205" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5400,7 +5418,7 @@
         <v>0.79</v>
       </c>
       <c r="F206" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5420,7 +5438,7 @@
         <v>0.79</v>
       </c>
       <c r="F207" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5440,7 +5458,7 @@
         <v>0.79</v>
       </c>
       <c r="F208" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5460,7 +5478,7 @@
         <v>0.79</v>
       </c>
       <c r="F209" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5480,7 +5498,7 @@
         <v>0.79</v>
       </c>
       <c r="F210" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5500,7 +5518,7 @@
         <v>0.79</v>
       </c>
       <c r="F211" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5520,7 +5538,7 @@
         <v>0.79</v>
       </c>
       <c r="F212" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5540,7 +5558,7 @@
         <v>0.79</v>
       </c>
       <c r="F213" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5560,7 +5578,7 @@
         <v>0.79</v>
       </c>
       <c r="F214" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5580,7 +5598,7 @@
         <v>0.79</v>
       </c>
       <c r="F215" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5600,7 +5618,7 @@
         <v>0.79</v>
       </c>
       <c r="F216" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5620,7 +5638,7 @@
         <v>0.79</v>
       </c>
       <c r="F217" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5640,7 +5658,7 @@
         <v>0.79</v>
       </c>
       <c r="F218" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5660,7 +5678,7 @@
         <v>0.79</v>
       </c>
       <c r="F219" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5680,7 +5698,7 @@
         <v>0.79</v>
       </c>
       <c r="F220" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5700,7 +5718,7 @@
         <v>0.79</v>
       </c>
       <c r="F221" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5720,7 +5738,7 @@
         <v>0.79</v>
       </c>
       <c r="F222" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5740,7 +5758,7 @@
         <v>0.79</v>
       </c>
       <c r="F223" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5760,7 +5778,7 @@
         <v>0.79</v>
       </c>
       <c r="F224" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5780,7 +5798,7 @@
         <v>0.79</v>
       </c>
       <c r="F225" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5800,7 +5818,7 @@
         <v>0.79</v>
       </c>
       <c r="F226" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5820,7 +5838,7 @@
         <v>0.78</v>
       </c>
       <c r="F227" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5840,7 +5858,7 @@
         <v>0.92</v>
       </c>
       <c r="F228" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5860,7 +5878,7 @@
         <v>0.88</v>
       </c>
       <c r="F229" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5880,7 +5898,7 @@
         <v>0.8</v>
       </c>
       <c r="F230" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5900,7 +5918,7 @@
         <v>1.11</v>
       </c>
       <c r="F231" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5920,7 +5938,7 @@
         <v>0.78</v>
       </c>
       <c r="F232" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5940,7 +5958,7 @@
         <v>0.79</v>
       </c>
       <c r="F233" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5960,7 +5978,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="F234" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5980,7 +5998,7 @@
         <v>1.18</v>
       </c>
       <c r="F235" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -6000,7 +6018,7 @@
         <v>0.97</v>
       </c>
       <c r="F236" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -6020,7 +6038,7 @@
         <v>0.79</v>
       </c>
       <c r="F237" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -6040,7 +6058,7 @@
         <v>0.79</v>
       </c>
       <c r="F238" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -6060,7 +6078,7 @@
         <v>0.79</v>
       </c>
       <c r="F239" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -6080,7 +6098,7 @@
         <v>0.79</v>
       </c>
       <c r="F240" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -6100,7 +6118,7 @@
         <v>0.79</v>
       </c>
       <c r="F241" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6120,7 +6138,7 @@
         <v>0.79</v>
       </c>
       <c r="F242" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6140,7 +6158,7 @@
         <v>0.79</v>
       </c>
       <c r="F243" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6160,7 +6178,7 @@
         <v>0.79</v>
       </c>
       <c r="F244" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6180,7 +6198,7 @@
         <v>0.79</v>
       </c>
       <c r="F245" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6200,7 +6218,7 @@
         <v>0.79</v>
       </c>
       <c r="F246" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6220,7 +6238,7 @@
         <v>0.79</v>
       </c>
       <c r="F247" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6240,7 +6258,7 @@
         <v>0.79</v>
       </c>
       <c r="F248" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6260,7 +6278,7 @@
         <v>0.79</v>
       </c>
       <c r="F249" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6280,7 +6298,7 @@
         <v>0.79</v>
       </c>
       <c r="F250" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6300,7 +6318,7 @@
         <v>0.79</v>
       </c>
       <c r="F251" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6320,7 +6338,7 @@
         <v>0.79</v>
       </c>
       <c r="F252" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6340,7 +6358,7 @@
         <v>0.79</v>
       </c>
       <c r="F253" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6360,7 +6378,7 @@
         <v>0.79</v>
       </c>
       <c r="F254" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6380,7 +6398,7 @@
         <v>0.79</v>
       </c>
       <c r="F255" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6400,7 +6418,7 @@
         <v>0.79</v>
       </c>
       <c r="F256" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6420,7 +6438,7 @@
         <v>0.79</v>
       </c>
       <c r="F257" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -6440,7 +6458,7 @@
         <v>0.79</v>
       </c>
       <c r="F258" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -6460,7 +6478,7 @@
         <v>0.79</v>
       </c>
       <c r="F259" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -6480,7 +6498,7 @@
         <v>0.79</v>
       </c>
       <c r="F260" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -6500,7 +6518,7 @@
         <v>0.79</v>
       </c>
       <c r="F261" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -6520,7 +6538,7 @@
         <v>0.79</v>
       </c>
       <c r="F262" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -6540,7 +6558,7 @@
         <v>0.79</v>
       </c>
       <c r="F263" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -6560,7 +6578,7 @@
         <v>0.79</v>
       </c>
       <c r="F264" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -6580,7 +6598,7 @@
         <v>0.79</v>
       </c>
       <c r="F265" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -6600,7 +6618,7 @@
         <v>0.79</v>
       </c>
       <c r="F266" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -6620,7 +6638,7 @@
         <v>0.79</v>
       </c>
       <c r="F267" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -6640,7 +6658,7 @@
         <v>0.79</v>
       </c>
       <c r="F268" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -6660,7 +6678,7 @@
         <v>0.79</v>
       </c>
       <c r="F269" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -6680,7 +6698,7 @@
         <v>0.79</v>
       </c>
       <c r="F270" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -6700,7 +6718,7 @@
         <v>0.79</v>
       </c>
       <c r="F271" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -6720,7 +6738,7 @@
         <v>0.79</v>
       </c>
       <c r="F272" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -6740,7 +6758,7 @@
         <v>0.79</v>
       </c>
       <c r="F273" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -6760,7 +6778,7 @@
         <v>0.79</v>
       </c>
       <c r="F274" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -6780,7 +6798,7 @@
         <v>1.13</v>
       </c>
       <c r="F275" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -6800,7 +6818,7 @@
         <v>1.21</v>
       </c>
       <c r="F276" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -6820,7 +6838,7 @@
         <v>1.21</v>
       </c>
       <c r="F277" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -6840,7 +6858,7 @@
         <v>1.21</v>
       </c>
       <c r="F278" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -6860,7 +6878,7 @@
         <v>1.21</v>
       </c>
       <c r="F279" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -6880,7 +6898,7 @@
         <v>1.21</v>
       </c>
       <c r="F280" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -6900,7 +6918,7 @@
         <v>1.21</v>
       </c>
       <c r="F281" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -6920,7 +6938,7 @@
         <v>1.21</v>
       </c>
       <c r="F282" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -6940,7 +6958,7 @@
         <v>1.21</v>
       </c>
       <c r="F283" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -6960,7 +6978,7 @@
         <v>1.21</v>
       </c>
       <c r="F284" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -6980,7 +6998,7 @@
         <v>1.21</v>
       </c>
       <c r="F285" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -7000,7 +7018,7 @@
         <v>1.21</v>
       </c>
       <c r="F286" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -7020,7 +7038,7 @@
         <v>1.21</v>
       </c>
       <c r="F287" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -7040,7 +7058,7 @@
         <v>1.21</v>
       </c>
       <c r="F288" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -7060,7 +7078,7 @@
         <v>1.21</v>
       </c>
       <c r="F289" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -7080,7 +7098,7 @@
         <v>1.21</v>
       </c>
       <c r="F290" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -7100,7 +7118,7 @@
         <v>1.21</v>
       </c>
       <c r="F291" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -7120,7 +7138,7 @@
         <v>1.21</v>
       </c>
       <c r="F292" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -7140,7 +7158,7 @@
         <v>1.21</v>
       </c>
       <c r="F293" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -7160,7 +7178,7 @@
         <v>1.21</v>
       </c>
       <c r="F294" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -7180,7 +7198,7 @@
         <v>1.21</v>
       </c>
       <c r="F295" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -7200,7 +7218,7 @@
         <v>1.21</v>
       </c>
       <c r="F296" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -7220,7 +7238,7 @@
         <v>1.21</v>
       </c>
       <c r="F297" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -7240,7 +7258,127 @@
         <v>1.21</v>
       </c>
       <c r="F298" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299" t="s">
         <v>302</v>
+      </c>
+      <c r="C299">
+        <v>12.83</v>
+      </c>
+      <c r="D299">
+        <v>0</v>
+      </c>
+      <c r="E299">
+        <v>1.21</v>
+      </c>
+      <c r="F299" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300" t="s">
+        <v>303</v>
+      </c>
+      <c r="C300">
+        <v>12.83</v>
+      </c>
+      <c r="D300">
+        <v>0</v>
+      </c>
+      <c r="E300">
+        <v>1.21</v>
+      </c>
+      <c r="F300" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301" t="s">
+        <v>304</v>
+      </c>
+      <c r="C301">
+        <v>12.8</v>
+      </c>
+      <c r="D301">
+        <v>0</v>
+      </c>
+      <c r="E301">
+        <v>1.21</v>
+      </c>
+      <c r="F301" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302" t="s">
+        <v>305</v>
+      </c>
+      <c r="C302">
+        <v>12.82</v>
+      </c>
+      <c r="D302">
+        <v>0</v>
+      </c>
+      <c r="E302">
+        <v>1.21</v>
+      </c>
+      <c r="F302" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303" t="s">
+        <v>306</v>
+      </c>
+      <c r="C303">
+        <v>12.81</v>
+      </c>
+      <c r="D303">
+        <v>0</v>
+      </c>
+      <c r="E303">
+        <v>1.21</v>
+      </c>
+      <c r="F303" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304" t="s">
+        <v>307</v>
+      </c>
+      <c r="C304">
+        <v>12.81</v>
+      </c>
+      <c r="D304">
+        <v>0</v>
+      </c>
+      <c r="E304">
+        <v>1.21</v>
+      </c>
+      <c r="F304" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/MODESTO MENDEZ.xlsx
+++ b/tablas_insivumeh/MODESTO MENDEZ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="242">
   <si>
     <t>Fecha</t>
   </si>
@@ -31,913 +31,712 @@
     <t>Estación</t>
   </si>
   <si>
-    <t>11/10/2020 7:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 7:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 7:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 7:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 7:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 8:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 8:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 8:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 8:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 8:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 9:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 9:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 9:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 9:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 9:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 10:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 10:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 10:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 10:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 10:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 11:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 11:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 11:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 11:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 11:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 12:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 12:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 12:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 12:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 12:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 1:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 1:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 1:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 1:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 1:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 2:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 2:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 2:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 2:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 2:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 3:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 3:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 3:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 3:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 3:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 4:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 4:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 4:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 4:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 4:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 5:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 5:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 5:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 5:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 5:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 6:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 6:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 6:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 6:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 6:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 6:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 7:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 7:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 7:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 7:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 7:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 7:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 8:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 7:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 7:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 7:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 7:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 7:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 8:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 8:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 8:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 8:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 8:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 9:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 9:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 9:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 9:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 9:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 10:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 10:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 10:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 10:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 10:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 11:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 11:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 11:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 11:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 11:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 12:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 12:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 12:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 12:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 12:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 1:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 1:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 1:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 1:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 1:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 2:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 2:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 2:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 2:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 2:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 3:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 3:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 3:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 3:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 3:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 4:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 4:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 4:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 4:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 4:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 5:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 5:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 5:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 5:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 5:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 6:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 6:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 6:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 6:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 6:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 6:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 7:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 7:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 7:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 7:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 7:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 7:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 7:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 7:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 7:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 7:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 7:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 8:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 8:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 8:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 8:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 8:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 9:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 9:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 9:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 9:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 9:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 10:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 10:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 10:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 10:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 10:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 11:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 11:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 11:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 11:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 11:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 12:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 12:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 12:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 12:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 12:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 1:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 1:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 1:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 1:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 1:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 2:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 2:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 2:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 2:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 2:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 3:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 3:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 3:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 3:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 3:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 4:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 4:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 4:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 4:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 4:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 5:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 5:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 5:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 5:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 5:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 6:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 6:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 6:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 6:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 6:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 6:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 7:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 7:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 7:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 7:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 7:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 7:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 8:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 8:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 7:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 7:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 7:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 7:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 7:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 8:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 8:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 8:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 8:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 8:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 9:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 9:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 9:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 9:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 9:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 10:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 10:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 10:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 10:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 10:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 11:10:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 11:20:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 11:30:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 11:40:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 11:50:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 12:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 12:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 12:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 12:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 12:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 1:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 1:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 1:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 1:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 1:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 2:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 2:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 2:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 2:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 2:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 3:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 3:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 3:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 3:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 3:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 4:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 4:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 4:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 4:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 4:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 5:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 5:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 5:30:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 5:40:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 5:50:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 6:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 6:10:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 6:20:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 6:30:00 PM</t>
+    <t>11/14/2020 7:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 7:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 7:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 7:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 7:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 8:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 8:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 8:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 8:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 8:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 9:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 9:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 9:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 9:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 9:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 10:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 10:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 10:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 10:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 10:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 11:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 11:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 11:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 11:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 11:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 12:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 12:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 12:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 12:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 12:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 1:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 1:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 1:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 1:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 1:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 2:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 2:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 2:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 2:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 2:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 3:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 3:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 3:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 3:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 3:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 4:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 4:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 4:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 4:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 4:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 5:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 5:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 5:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 5:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 5:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 6:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 6:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 6:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 6:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 6:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 7:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 7:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 7:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 7:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 7:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 7:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 8:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 8:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 7:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 7:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 7:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 7:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 7:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 8:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 8:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 8:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 8:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 8:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 9:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 9:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 9:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 9:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 9:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 10:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 10:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 10:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 10:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 10:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 11:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 11:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 11:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 11:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 11:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 12:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 12:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 12:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 12:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 12:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 1:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 1:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 1:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 1:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 1:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 2:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 2:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 2:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 2:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 2:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 3:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 3:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 3:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 3:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 3:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 4:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 4:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 4:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 4:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 4:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 5:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 5:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 5:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 5:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 5:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 6:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 6:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 6:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 6:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 6:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 7:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 7:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 7:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 7:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 7:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 7:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 8:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 8:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 7:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 7:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 7:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 7:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 7:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 8:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 8:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 8:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 8:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 8:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 9:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 9:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 9:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 9:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 9:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 10:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 10:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 10:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 10:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 10:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 11:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 11:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 11:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 11:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 11:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 12:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 12:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 12:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 12:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 12:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 1:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 1:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 1:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 1:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 1:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 2:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 2:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 2:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 2:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 2:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 3:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 3:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 3:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 3:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 3:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 4:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 4:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 4:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 4:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 4:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 5:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 5:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 5:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 5:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 5:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 6:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 6:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 6:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 6:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 6:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 7:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 7:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 7:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 7:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 7:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 7:50:00 PM</t>
   </si>
   <si>
     <t>MODESTO MENDEZ</t>
@@ -1298,7 +1097,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F304"/>
+  <dimension ref="A1:F237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1329,16 +1128,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>11.79</v>
+        <v>11.31</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.91</v>
+        <v>0.99</v>
       </c>
       <c r="F2" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1349,7 +1148,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>13.57</v>
+        <v>13.46</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1358,7 +1157,7 @@
         <v>0.79</v>
       </c>
       <c r="F3" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1378,7 +1177,7 @@
         <v>0.79</v>
       </c>
       <c r="F4" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1398,7 +1197,7 @@
         <v>0.79</v>
       </c>
       <c r="F5" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1418,7 +1217,7 @@
         <v>0.79</v>
       </c>
       <c r="F6" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1438,7 +1237,7 @@
         <v>0.79</v>
       </c>
       <c r="F7" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1458,7 +1257,7 @@
         <v>0.79</v>
       </c>
       <c r="F8" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1478,7 +1277,7 @@
         <v>0.79</v>
       </c>
       <c r="F9" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1498,7 +1297,7 @@
         <v>0.79</v>
       </c>
       <c r="F10" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1518,7 +1317,7 @@
         <v>0.79</v>
       </c>
       <c r="F11" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1538,7 +1337,7 @@
         <v>0.79</v>
       </c>
       <c r="F12" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1558,7 +1357,7 @@
         <v>0.79</v>
       </c>
       <c r="F13" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1569,7 +1368,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>13.58</v>
+        <v>13.59</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1578,7 +1377,7 @@
         <v>0.79</v>
       </c>
       <c r="F14" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1598,7 +1397,7 @@
         <v>0.79</v>
       </c>
       <c r="F15" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1618,7 +1417,7 @@
         <v>0.79</v>
       </c>
       <c r="F16" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1638,7 +1437,7 @@
         <v>0.79</v>
       </c>
       <c r="F17" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1649,7 +1448,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>13.59</v>
+        <v>13.6</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1658,7 +1457,7 @@
         <v>0.79</v>
       </c>
       <c r="F18" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1669,7 +1468,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>13.59</v>
+        <v>13.6</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1678,7 +1477,7 @@
         <v>0.79</v>
       </c>
       <c r="F19" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1689,7 +1488,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>13.59</v>
+        <v>13.6</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1698,7 +1497,7 @@
         <v>0.79</v>
       </c>
       <c r="F20" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1709,7 +1508,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>13.59</v>
+        <v>13.6</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1718,7 +1517,7 @@
         <v>0.79</v>
       </c>
       <c r="F21" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1738,7 +1537,7 @@
         <v>0.79</v>
       </c>
       <c r="F22" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1758,7 +1557,7 @@
         <v>0.79</v>
       </c>
       <c r="F23" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1778,7 +1577,7 @@
         <v>0.79</v>
       </c>
       <c r="F24" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1798,7 +1597,7 @@
         <v>0.79</v>
       </c>
       <c r="F25" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1809,7 +1608,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1818,7 +1617,7 @@
         <v>0.79</v>
       </c>
       <c r="F26" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1829,7 +1628,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>13.59</v>
+        <v>13.6</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1838,7 +1637,7 @@
         <v>0.79</v>
       </c>
       <c r="F27" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1849,7 +1648,7 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1858,7 +1657,7 @@
         <v>0.79</v>
       </c>
       <c r="F28" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1869,16 +1668,16 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1.13</v>
+        <v>0.79</v>
       </c>
       <c r="F29" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1895,10 +1694,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F30" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1909,16 +1708,16 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F31" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1929,16 +1728,16 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F32" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1949,16 +1748,16 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F33" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1969,16 +1768,16 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F34" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1989,16 +1788,16 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F35" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2015,10 +1814,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F36" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2035,10 +1834,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F37" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2055,10 +1854,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F38" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2075,10 +1874,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F39" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2095,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F40" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2115,10 +1914,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F41" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2129,16 +1928,16 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>13.62</v>
+        <v>13.63</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F42" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2149,16 +1948,16 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>13.62</v>
+        <v>13.63</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F43" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2175,10 +1974,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F44" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2195,10 +1994,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F45" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2209,16 +2008,16 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F46" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2235,10 +2034,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F47" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2249,16 +2048,16 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F48" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2269,16 +2068,16 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F49" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2289,16 +2088,16 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F50" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2309,16 +2108,16 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F51" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2329,16 +2128,16 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F52" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2349,16 +2148,16 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F53" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2369,16 +2168,16 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F54" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2395,10 +2194,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F55" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2409,16 +2208,16 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>13.57</v>
+        <v>13.61</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F56" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2429,16 +2228,16 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>13.09</v>
+        <v>13.4</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F57" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2449,16 +2248,16 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>13.01</v>
+        <v>13.13</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F58" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2469,16 +2268,16 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>12.94</v>
+        <v>13.03</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F59" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2489,16 +2288,16 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>12.88</v>
+        <v>12.92</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F60" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2509,16 +2308,16 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>12.85</v>
+        <v>12.87</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F61" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2535,10 +2334,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F62" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2555,10 +2354,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F63" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2569,16 +2368,16 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>12.83</v>
+        <v>12.84</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F64" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2595,10 +2394,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F65" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2615,10 +2414,10 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F66" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2635,10 +2434,10 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F67" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2655,10 +2454,10 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F68" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2669,16 +2468,16 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>12.8</v>
+        <v>12.78</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F69" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2695,10 +2494,10 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F70" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2709,16 +2508,16 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>12.76</v>
+        <v>12.8</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>1.06</v>
+        <v>0.79</v>
       </c>
       <c r="F71" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2729,16 +2528,16 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>12.78</v>
+        <v>12.79</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="F72" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2749,7 +2548,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>12.78</v>
+        <v>12.79</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2758,7 +2557,7 @@
         <v>0.79</v>
       </c>
       <c r="F73" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2778,7 +2577,7 @@
         <v>0.79</v>
       </c>
       <c r="F74" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2789,7 +2588,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>12.73</v>
+        <v>12.77</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -2798,7 +2597,7 @@
         <v>0.79</v>
       </c>
       <c r="F75" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2809,7 +2608,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>12.75</v>
+        <v>12.76</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -2818,7 +2617,7 @@
         <v>0.79</v>
       </c>
       <c r="F76" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2829,7 +2628,7 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>12.54</v>
+        <v>12.68</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -2838,7 +2637,7 @@
         <v>0.79</v>
       </c>
       <c r="F77" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2849,16 +2648,16 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>12.44</v>
+        <v>12.54</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>1.12</v>
+        <v>0.79</v>
       </c>
       <c r="F78" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2869,16 +2668,16 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>12.01</v>
+        <v>12.35</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>0.9399999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="F79" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2889,16 +2688,16 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>11.37</v>
+        <v>11.76</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>0.96</v>
+        <v>0.79</v>
       </c>
       <c r="F80" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2909,7 +2708,7 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>13.51</v>
+        <v>10.99</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -2918,7 +2717,7 @@
         <v>0.79</v>
       </c>
       <c r="F81" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2929,7 +2728,7 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>13.57</v>
+        <v>12.69</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -2938,7 +2737,7 @@
         <v>0.79</v>
       </c>
       <c r="F82" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2949,7 +2748,7 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>13.57</v>
+        <v>13.54</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -2958,7 +2757,7 @@
         <v>0.79</v>
       </c>
       <c r="F83" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2978,7 +2777,7 @@
         <v>0.79</v>
       </c>
       <c r="F84" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2998,7 +2797,7 @@
         <v>0.79</v>
       </c>
       <c r="F85" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3018,7 +2817,7 @@
         <v>0.79</v>
       </c>
       <c r="F86" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3038,7 +2837,7 @@
         <v>0.79</v>
       </c>
       <c r="F87" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3058,7 +2857,7 @@
         <v>0.79</v>
       </c>
       <c r="F88" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3078,7 +2877,7 @@
         <v>0.79</v>
       </c>
       <c r="F89" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3098,7 +2897,7 @@
         <v>0.79</v>
       </c>
       <c r="F90" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3118,7 +2917,7 @@
         <v>0.79</v>
       </c>
       <c r="F91" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3138,7 +2937,7 @@
         <v>0.79</v>
       </c>
       <c r="F92" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3149,7 +2948,7 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>13.59</v>
+        <v>13.58</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -3158,7 +2957,7 @@
         <v>0.79</v>
       </c>
       <c r="F93" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3169,7 +2968,7 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>13.59</v>
+        <v>13.58</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -3178,7 +2977,7 @@
         <v>0.79</v>
       </c>
       <c r="F94" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3198,7 +2997,7 @@
         <v>0.79</v>
       </c>
       <c r="F95" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3218,7 +3017,7 @@
         <v>0.79</v>
       </c>
       <c r="F96" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3238,7 +3037,7 @@
         <v>0.79</v>
       </c>
       <c r="F97" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3258,7 +3057,7 @@
         <v>0.79</v>
       </c>
       <c r="F98" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3278,7 +3077,7 @@
         <v>0.79</v>
       </c>
       <c r="F99" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3289,7 +3088,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>13.6</v>
+        <v>13.59</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -3298,7 +3097,7 @@
         <v>0.79</v>
       </c>
       <c r="F100" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3309,7 +3108,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>13.6</v>
+        <v>13.59</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -3318,7 +3117,7 @@
         <v>0.79</v>
       </c>
       <c r="F101" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3329,7 +3128,7 @@
         <v>105</v>
       </c>
       <c r="C102">
-        <v>13.6</v>
+        <v>13.59</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -3338,7 +3137,7 @@
         <v>0.79</v>
       </c>
       <c r="F102" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3358,7 +3157,7 @@
         <v>0.79</v>
       </c>
       <c r="F103" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3369,7 +3168,7 @@
         <v>107</v>
       </c>
       <c r="C104">
-        <v>13.59</v>
+        <v>13.6</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -3378,7 +3177,7 @@
         <v>0.79</v>
       </c>
       <c r="F104" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3398,7 +3197,7 @@
         <v>0.79</v>
       </c>
       <c r="F105" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3418,7 +3217,7 @@
         <v>0.79</v>
       </c>
       <c r="F106" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3429,7 +3228,7 @@
         <v>110</v>
       </c>
       <c r="C107">
-        <v>13.61</v>
+        <v>13.59</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -3438,7 +3237,7 @@
         <v>0.79</v>
       </c>
       <c r="F107" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3458,7 +3257,7 @@
         <v>0.79</v>
       </c>
       <c r="F108" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3478,7 +3277,7 @@
         <v>0.79</v>
       </c>
       <c r="F109" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3498,7 +3297,7 @@
         <v>0.79</v>
       </c>
       <c r="F110" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3518,7 +3317,7 @@
         <v>0.79</v>
       </c>
       <c r="F111" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3529,7 +3328,7 @@
         <v>115</v>
       </c>
       <c r="C112">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -3538,7 +3337,7 @@
         <v>0.79</v>
       </c>
       <c r="F112" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3549,7 +3348,7 @@
         <v>116</v>
       </c>
       <c r="C113">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -3558,7 +3357,7 @@
         <v>0.79</v>
       </c>
       <c r="F113" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3578,7 +3377,7 @@
         <v>0.79</v>
       </c>
       <c r="F114" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3598,7 +3397,7 @@
         <v>0.79</v>
       </c>
       <c r="F115" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3618,7 +3417,7 @@
         <v>0.79</v>
       </c>
       <c r="F116" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3638,7 +3437,7 @@
         <v>0.79</v>
       </c>
       <c r="F117" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3658,7 +3457,7 @@
         <v>0.79</v>
       </c>
       <c r="F118" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3678,7 +3477,7 @@
         <v>0.79</v>
       </c>
       <c r="F119" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3689,16 +3488,16 @@
         <v>123</v>
       </c>
       <c r="C120">
-        <v>13.62</v>
+        <v>13.63</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120">
-        <v>1.15</v>
+        <v>0.79</v>
       </c>
       <c r="F120" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3709,16 +3508,16 @@
         <v>124</v>
       </c>
       <c r="C121">
-        <v>13.62</v>
+        <v>13.63</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F121" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3729,16 +3528,16 @@
         <v>125</v>
       </c>
       <c r="C122">
-        <v>13.62</v>
+        <v>13.63</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F122" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3749,16 +3548,16 @@
         <v>126</v>
       </c>
       <c r="C123">
-        <v>13.62</v>
+        <v>13.63</v>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
       <c r="E123">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F123" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3769,16 +3568,16 @@
         <v>127</v>
       </c>
       <c r="C124">
-        <v>13.62</v>
+        <v>13.63</v>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F124" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3795,10 +3594,10 @@
         <v>0</v>
       </c>
       <c r="E125">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F125" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3809,16 +3608,16 @@
         <v>129</v>
       </c>
       <c r="C126">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D126">
         <v>0</v>
       </c>
       <c r="E126">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F126" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3829,16 +3628,16 @@
         <v>130</v>
       </c>
       <c r="C127">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D127">
         <v>0</v>
       </c>
       <c r="E127">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F127" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3855,10 +3654,10 @@
         <v>0</v>
       </c>
       <c r="E128">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F128" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3875,10 +3674,10 @@
         <v>0</v>
       </c>
       <c r="E129">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F129" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3895,10 +3694,10 @@
         <v>0</v>
       </c>
       <c r="E130">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F130" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3909,16 +3708,16 @@
         <v>134</v>
       </c>
       <c r="C131">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D131">
         <v>0</v>
       </c>
       <c r="E131">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F131" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3935,10 +3734,10 @@
         <v>0</v>
       </c>
       <c r="E132">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F132" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3949,16 +3748,16 @@
         <v>136</v>
       </c>
       <c r="C133">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D133">
         <v>0</v>
       </c>
       <c r="E133">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F133" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3969,16 +3768,16 @@
         <v>137</v>
       </c>
       <c r="C134">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D134">
         <v>0</v>
       </c>
       <c r="E134">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F134" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3989,16 +3788,16 @@
         <v>138</v>
       </c>
       <c r="C135">
-        <v>13.59</v>
+        <v>13.62</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
       <c r="E135">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F135" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4009,16 +3808,16 @@
         <v>139</v>
       </c>
       <c r="C136">
-        <v>13.45</v>
+        <v>13.61</v>
       </c>
       <c r="D136">
         <v>0</v>
       </c>
       <c r="E136">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F136" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4029,16 +3828,16 @@
         <v>140</v>
       </c>
       <c r="C137">
-        <v>12.99</v>
+        <v>13.61</v>
       </c>
       <c r="D137">
         <v>0</v>
       </c>
       <c r="E137">
-        <v>1.21</v>
+        <v>0.79</v>
       </c>
       <c r="F137" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4049,16 +3848,16 @@
         <v>141</v>
       </c>
       <c r="C138">
-        <v>12.93</v>
+        <v>13.46</v>
       </c>
       <c r="D138">
         <v>0</v>
       </c>
       <c r="E138">
-        <v>1.21</v>
+        <v>0.87</v>
       </c>
       <c r="F138" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4069,7 +3868,7 @@
         <v>142</v>
       </c>
       <c r="C139">
-        <v>12.86</v>
+        <v>13.07</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -4078,7 +3877,7 @@
         <v>1.21</v>
       </c>
       <c r="F139" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4089,7 +3888,7 @@
         <v>143</v>
       </c>
       <c r="C140">
-        <v>12.84</v>
+        <v>12.93</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -4098,7 +3897,7 @@
         <v>1.21</v>
       </c>
       <c r="F140" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4109,7 +3908,7 @@
         <v>144</v>
       </c>
       <c r="C141">
-        <v>12.84</v>
+        <v>12.85</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -4118,7 +3917,7 @@
         <v>1.21</v>
       </c>
       <c r="F141" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4129,7 +3928,7 @@
         <v>145</v>
       </c>
       <c r="C142">
-        <v>12.84</v>
+        <v>12.85</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -4138,7 +3937,7 @@
         <v>1.21</v>
       </c>
       <c r="F142" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4149,7 +3948,7 @@
         <v>146</v>
       </c>
       <c r="C143">
-        <v>12.83</v>
+        <v>12.84</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -4158,7 +3957,7 @@
         <v>1.21</v>
       </c>
       <c r="F143" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4169,7 +3968,7 @@
         <v>147</v>
       </c>
       <c r="C144">
-        <v>12.83</v>
+        <v>12.84</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -4178,7 +3977,7 @@
         <v>1.21</v>
       </c>
       <c r="F144" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4189,7 +3988,7 @@
         <v>148</v>
       </c>
       <c r="C145">
-        <v>12.82</v>
+        <v>12.83</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -4198,7 +3997,7 @@
         <v>1.21</v>
       </c>
       <c r="F145" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4209,7 +4008,7 @@
         <v>149</v>
       </c>
       <c r="C146">
-        <v>12.82</v>
+        <v>12.83</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -4218,7 +4017,7 @@
         <v>1.21</v>
       </c>
       <c r="F146" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4229,7 +4028,7 @@
         <v>150</v>
       </c>
       <c r="C147">
-        <v>12.81</v>
+        <v>12.82</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -4238,7 +4037,7 @@
         <v>1.21</v>
       </c>
       <c r="F147" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4249,7 +4048,7 @@
         <v>151</v>
       </c>
       <c r="C148">
-        <v>12.8</v>
+        <v>12.81</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -4258,7 +4057,7 @@
         <v>1.21</v>
       </c>
       <c r="F148" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4269,7 +4068,7 @@
         <v>152</v>
       </c>
       <c r="C149">
-        <v>12.8</v>
+        <v>12.81</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -4278,7 +4077,7 @@
         <v>1.21</v>
       </c>
       <c r="F149" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4295,10 +4094,10 @@
         <v>0</v>
       </c>
       <c r="E150">
-        <v>0.95</v>
+        <v>1.21</v>
       </c>
       <c r="F150" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4309,16 +4108,16 @@
         <v>154</v>
       </c>
       <c r="C151">
-        <v>12.76</v>
+        <v>12.8</v>
       </c>
       <c r="D151">
         <v>0</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>1.21</v>
       </c>
       <c r="F151" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4329,7 +4128,7 @@
         <v>155</v>
       </c>
       <c r="C152">
-        <v>12.78</v>
+        <v>12.79</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -4338,7 +4137,7 @@
         <v>1.21</v>
       </c>
       <c r="F152" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4349,16 +4148,16 @@
         <v>156</v>
       </c>
       <c r="C153">
-        <v>12.76</v>
+        <v>12.79</v>
       </c>
       <c r="D153">
         <v>0</v>
       </c>
       <c r="E153">
-        <v>0.89</v>
+        <v>1.21</v>
       </c>
       <c r="F153" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4369,16 +4168,16 @@
         <v>157</v>
       </c>
       <c r="C154">
-        <v>12.73</v>
+        <v>12.78</v>
       </c>
       <c r="D154">
         <v>0</v>
       </c>
       <c r="E154">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="F154" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4389,16 +4188,16 @@
         <v>158</v>
       </c>
       <c r="C155">
-        <v>12.58</v>
+        <v>12.77</v>
       </c>
       <c r="D155">
         <v>0</v>
       </c>
       <c r="E155">
-        <v>1.05</v>
+        <v>1.21</v>
       </c>
       <c r="F155" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4409,7 +4208,7 @@
         <v>159</v>
       </c>
       <c r="C156">
-        <v>12.41</v>
+        <v>12.76</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -4418,7 +4217,7 @@
         <v>1.21</v>
       </c>
       <c r="F156" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4429,16 +4228,16 @@
         <v>160</v>
       </c>
       <c r="C157">
-        <v>11.63</v>
+        <v>12.75</v>
       </c>
       <c r="D157">
         <v>0</v>
       </c>
       <c r="E157">
-        <v>0.97</v>
+        <v>1.21</v>
       </c>
       <c r="F157" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4449,16 +4248,16 @@
         <v>161</v>
       </c>
       <c r="C158">
-        <v>12.86</v>
+        <v>12.66</v>
       </c>
       <c r="D158">
         <v>0</v>
       </c>
       <c r="E158">
-        <v>0.78</v>
+        <v>0.99</v>
       </c>
       <c r="F158" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4469,7 +4268,7 @@
         <v>162</v>
       </c>
       <c r="C159">
-        <v>13.56</v>
+        <v>12.49</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -4478,7 +4277,7 @@
         <v>0.79</v>
       </c>
       <c r="F159" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4489,7 +4288,7 @@
         <v>163</v>
       </c>
       <c r="C160">
-        <v>13.57</v>
+        <v>12.25</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -4498,7 +4297,7 @@
         <v>0.79</v>
       </c>
       <c r="F160" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4509,7 +4308,7 @@
         <v>164</v>
       </c>
       <c r="C161">
-        <v>13.56</v>
+        <v>11.58</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -4518,7 +4317,7 @@
         <v>0.79</v>
       </c>
       <c r="F161" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4529,7 +4328,7 @@
         <v>165</v>
       </c>
       <c r="C162">
-        <v>13.57</v>
+        <v>11.4</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -4538,7 +4337,7 @@
         <v>0.79</v>
       </c>
       <c r="F162" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4549,16 +4348,16 @@
         <v>166</v>
       </c>
       <c r="C163">
-        <v>13.57</v>
+        <v>13.55</v>
       </c>
       <c r="D163">
         <v>0</v>
       </c>
       <c r="E163">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="F163" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4575,10 +4374,10 @@
         <v>0</v>
       </c>
       <c r="E164">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="F164" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4598,7 +4397,7 @@
         <v>0.79</v>
       </c>
       <c r="F165" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4609,7 +4408,7 @@
         <v>169</v>
       </c>
       <c r="C166">
-        <v>13.58</v>
+        <v>13.57</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -4618,7 +4417,7 @@
         <v>0.79</v>
       </c>
       <c r="F166" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4629,16 +4428,16 @@
         <v>170</v>
       </c>
       <c r="C167">
-        <v>13.58</v>
+        <v>13.57</v>
       </c>
       <c r="D167">
         <v>0</v>
       </c>
       <c r="E167">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="F167" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4649,7 +4448,7 @@
         <v>171</v>
       </c>
       <c r="C168">
-        <v>13.58</v>
+        <v>13.57</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -4658,7 +4457,7 @@
         <v>0.79</v>
       </c>
       <c r="F168" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4669,7 +4468,7 @@
         <v>172</v>
       </c>
       <c r="C169">
-        <v>13.58</v>
+        <v>13.57</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -4678,7 +4477,7 @@
         <v>0.79</v>
       </c>
       <c r="F169" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4698,7 +4497,7 @@
         <v>0.79</v>
       </c>
       <c r="F170" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4709,7 +4508,7 @@
         <v>174</v>
       </c>
       <c r="C171">
-        <v>13.59</v>
+        <v>13.58</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -4718,7 +4517,7 @@
         <v>0.79</v>
       </c>
       <c r="F171" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4729,7 +4528,7 @@
         <v>175</v>
       </c>
       <c r="C172">
-        <v>13.59</v>
+        <v>13.58</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -4738,7 +4537,7 @@
         <v>0.79</v>
       </c>
       <c r="F172" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4749,7 +4548,7 @@
         <v>176</v>
       </c>
       <c r="C173">
-        <v>13.59</v>
+        <v>13.58</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -4758,7 +4557,7 @@
         <v>0.79</v>
       </c>
       <c r="F173" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4769,7 +4568,7 @@
         <v>177</v>
       </c>
       <c r="C174">
-        <v>13.59</v>
+        <v>13.58</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -4778,7 +4577,7 @@
         <v>0.79</v>
       </c>
       <c r="F174" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4789,7 +4588,7 @@
         <v>178</v>
       </c>
       <c r="C175">
-        <v>13.59</v>
+        <v>13.58</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -4798,7 +4597,7 @@
         <v>0.79</v>
       </c>
       <c r="F175" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4809,7 +4608,7 @@
         <v>179</v>
       </c>
       <c r="C176">
-        <v>13.6</v>
+        <v>13.59</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -4818,7 +4617,7 @@
         <v>0.79</v>
       </c>
       <c r="F176" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4829,7 +4628,7 @@
         <v>180</v>
       </c>
       <c r="C177">
-        <v>13.6</v>
+        <v>13.59</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -4838,7 +4637,7 @@
         <v>0.79</v>
       </c>
       <c r="F177" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4849,7 +4648,7 @@
         <v>181</v>
       </c>
       <c r="C178">
-        <v>13.6</v>
+        <v>13.59</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -4858,7 +4657,7 @@
         <v>0.79</v>
       </c>
       <c r="F178" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4869,7 +4668,7 @@
         <v>182</v>
       </c>
       <c r="C179">
-        <v>13.6</v>
+        <v>13.59</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -4878,7 +4677,7 @@
         <v>0.79</v>
       </c>
       <c r="F179" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4889,7 +4688,7 @@
         <v>183</v>
       </c>
       <c r="C180">
-        <v>13.6</v>
+        <v>13.59</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -4898,7 +4697,7 @@
         <v>0.79</v>
       </c>
       <c r="F180" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4909,7 +4708,7 @@
         <v>184</v>
       </c>
       <c r="C181">
-        <v>13.6</v>
+        <v>13.59</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -4918,7 +4717,7 @@
         <v>0.79</v>
       </c>
       <c r="F181" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4929,7 +4728,7 @@
         <v>185</v>
       </c>
       <c r="C182">
-        <v>13.6</v>
+        <v>13.59</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -4938,7 +4737,7 @@
         <v>0.79</v>
       </c>
       <c r="F182" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4949,7 +4748,7 @@
         <v>186</v>
       </c>
       <c r="C183">
-        <v>13.59</v>
+        <v>13.6</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -4958,7 +4757,7 @@
         <v>0.79</v>
       </c>
       <c r="F183" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4969,7 +4768,7 @@
         <v>187</v>
       </c>
       <c r="C184">
-        <v>13.61</v>
+        <v>13.6</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -4978,7 +4777,7 @@
         <v>0.79</v>
       </c>
       <c r="F184" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4989,7 +4788,7 @@
         <v>188</v>
       </c>
       <c r="C185">
-        <v>13.61</v>
+        <v>13.59</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -4998,7 +4797,7 @@
         <v>0.79</v>
       </c>
       <c r="F185" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5009,7 +4808,7 @@
         <v>189</v>
       </c>
       <c r="C186">
-        <v>13.61</v>
+        <v>13.59</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -5018,7 +4817,7 @@
         <v>0.79</v>
       </c>
       <c r="F186" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5029,7 +4828,7 @@
         <v>190</v>
       </c>
       <c r="C187">
-        <v>13.61</v>
+        <v>13.6</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -5038,7 +4837,7 @@
         <v>0.79</v>
       </c>
       <c r="F187" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5049,7 +4848,7 @@
         <v>191</v>
       </c>
       <c r="C188">
-        <v>13.61</v>
+        <v>13.6</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -5058,7 +4857,7 @@
         <v>0.79</v>
       </c>
       <c r="F188" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5069,7 +4868,7 @@
         <v>192</v>
       </c>
       <c r="C189">
-        <v>13.61</v>
+        <v>13.6</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -5078,7 +4877,7 @@
         <v>0.79</v>
       </c>
       <c r="F189" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5089,7 +4888,7 @@
         <v>193</v>
       </c>
       <c r="C190">
-        <v>13.61</v>
+        <v>13.6</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -5098,7 +4897,7 @@
         <v>0.79</v>
       </c>
       <c r="F190" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5118,7 +4917,7 @@
         <v>0.79</v>
       </c>
       <c r="F191" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5129,7 +4928,7 @@
         <v>195</v>
       </c>
       <c r="C192">
-        <v>13.62</v>
+        <v>13.61</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -5138,7 +4937,7 @@
         <v>0.79</v>
       </c>
       <c r="F192" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5149,7 +4948,7 @@
         <v>196</v>
       </c>
       <c r="C193">
-        <v>13.62</v>
+        <v>13.61</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -5158,7 +4957,7 @@
         <v>0.79</v>
       </c>
       <c r="F193" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5169,7 +4968,7 @@
         <v>197</v>
       </c>
       <c r="C194">
-        <v>13.62</v>
+        <v>13.61</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -5178,7 +4977,7 @@
         <v>0.79</v>
       </c>
       <c r="F194" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5189,7 +4988,7 @@
         <v>198</v>
       </c>
       <c r="C195">
-        <v>13.62</v>
+        <v>13.61</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -5198,7 +4997,7 @@
         <v>0.79</v>
       </c>
       <c r="F195" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5209,7 +5008,7 @@
         <v>199</v>
       </c>
       <c r="C196">
-        <v>13.62</v>
+        <v>13.61</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -5218,7 +5017,7 @@
         <v>0.79</v>
       </c>
       <c r="F196" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5229,7 +5028,7 @@
         <v>200</v>
       </c>
       <c r="C197">
-        <v>13.62</v>
+        <v>13.61</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -5238,7 +5037,7 @@
         <v>0.79</v>
       </c>
       <c r="F197" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5249,7 +5048,7 @@
         <v>201</v>
       </c>
       <c r="C198">
-        <v>13.62</v>
+        <v>13.61</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -5258,7 +5057,7 @@
         <v>0.79</v>
       </c>
       <c r="F198" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5278,7 +5077,7 @@
         <v>0.79</v>
       </c>
       <c r="F199" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5298,7 +5097,7 @@
         <v>0.79</v>
       </c>
       <c r="F200" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5318,7 +5117,7 @@
         <v>0.79</v>
       </c>
       <c r="F201" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5338,7 +5137,7 @@
         <v>0.79</v>
       </c>
       <c r="F202" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5358,7 +5157,7 @@
         <v>0.79</v>
       </c>
       <c r="F203" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5378,7 +5177,7 @@
         <v>0.79</v>
       </c>
       <c r="F204" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5398,7 +5197,7 @@
         <v>0.79</v>
       </c>
       <c r="F205" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5418,7 +5217,7 @@
         <v>0.79</v>
       </c>
       <c r="F206" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5429,7 +5228,7 @@
         <v>210</v>
       </c>
       <c r="C207">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -5438,7 +5237,7 @@
         <v>0.79</v>
       </c>
       <c r="F207" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5449,7 +5248,7 @@
         <v>211</v>
       </c>
       <c r="C208">
-        <v>13.6</v>
+        <v>13.61</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -5458,7 +5257,7 @@
         <v>0.79</v>
       </c>
       <c r="F208" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5469,7 +5268,7 @@
         <v>212</v>
       </c>
       <c r="C209">
-        <v>13.62</v>
+        <v>13.61</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -5478,7 +5277,7 @@
         <v>0.79</v>
       </c>
       <c r="F209" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5498,7 +5297,7 @@
         <v>0.79</v>
       </c>
       <c r="F210" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5509,7 +5308,7 @@
         <v>214</v>
       </c>
       <c r="C211">
-        <v>13.61</v>
+        <v>13.62</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -5518,7 +5317,7 @@
         <v>0.79</v>
       </c>
       <c r="F211" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5538,7 +5337,7 @@
         <v>0.79</v>
       </c>
       <c r="F212" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5549,7 +5348,7 @@
         <v>216</v>
       </c>
       <c r="C213">
-        <v>13.59</v>
+        <v>13.61</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -5558,7 +5357,7 @@
         <v>0.79</v>
       </c>
       <c r="F213" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5569,7 +5368,7 @@
         <v>217</v>
       </c>
       <c r="C214">
-        <v>13.42</v>
+        <v>13.61</v>
       </c>
       <c r="D214">
         <v>0</v>
@@ -5578,7 +5377,7 @@
         <v>0.79</v>
       </c>
       <c r="F214" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5589,7 +5388,7 @@
         <v>218</v>
       </c>
       <c r="C215">
-        <v>13.03</v>
+        <v>13.37</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -5598,7 +5397,7 @@
         <v>0.79</v>
       </c>
       <c r="F215" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5609,7 +5408,7 @@
         <v>219</v>
       </c>
       <c r="C216">
-        <v>12.93</v>
+        <v>13.61</v>
       </c>
       <c r="D216">
         <v>0</v>
@@ -5618,7 +5417,7 @@
         <v>0.79</v>
       </c>
       <c r="F216" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5629,7 +5428,7 @@
         <v>220</v>
       </c>
       <c r="C217">
-        <v>12.85</v>
+        <v>13.41</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -5638,7 +5437,7 @@
         <v>0.79</v>
       </c>
       <c r="F217" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5649,7 +5448,7 @@
         <v>221</v>
       </c>
       <c r="C218">
-        <v>12.84</v>
+        <v>12.86</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -5658,7 +5457,7 @@
         <v>0.79</v>
       </c>
       <c r="F218" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5669,16 +5468,16 @@
         <v>222</v>
       </c>
       <c r="C219">
-        <v>12.84</v>
+        <v>12.85</v>
       </c>
       <c r="D219">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E219">
         <v>0.79</v>
       </c>
       <c r="F219" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5689,16 +5488,16 @@
         <v>223</v>
       </c>
       <c r="C220">
-        <v>12.83</v>
+        <v>12.84</v>
       </c>
       <c r="D220">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="E220">
         <v>0.79</v>
       </c>
       <c r="F220" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5712,13 +5511,13 @@
         <v>12.83</v>
       </c>
       <c r="D221">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E221">
         <v>0.79</v>
       </c>
       <c r="F221" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5729,16 +5528,16 @@
         <v>225</v>
       </c>
       <c r="C222">
-        <v>12.82</v>
+        <v>12.83</v>
       </c>
       <c r="D222">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E222">
         <v>0.79</v>
       </c>
       <c r="F222" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5758,7 +5557,7 @@
         <v>0.79</v>
       </c>
       <c r="F223" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5769,7 +5568,7 @@
         <v>227</v>
       </c>
       <c r="C224">
-        <v>12.81</v>
+        <v>12.82</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -5778,7 +5577,7 @@
         <v>0.79</v>
       </c>
       <c r="F224" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5798,7 +5597,7 @@
         <v>0.79</v>
       </c>
       <c r="F225" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5818,7 +5617,7 @@
         <v>0.79</v>
       </c>
       <c r="F226" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5829,16 +5628,16 @@
         <v>230</v>
       </c>
       <c r="C227">
-        <v>12.79</v>
+        <v>12.8</v>
       </c>
       <c r="D227">
         <v>0</v>
       </c>
       <c r="E227">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="F227" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5855,10 +5654,10 @@
         <v>0</v>
       </c>
       <c r="E228">
-        <v>0.92</v>
+        <v>0.79</v>
       </c>
       <c r="F228" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5869,16 +5668,16 @@
         <v>232</v>
       </c>
       <c r="C229">
-        <v>12.78</v>
+        <v>12.79</v>
       </c>
       <c r="D229">
         <v>0</v>
       </c>
       <c r="E229">
-        <v>0.88</v>
+        <v>0.79</v>
       </c>
       <c r="F229" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5889,16 +5688,16 @@
         <v>233</v>
       </c>
       <c r="C230">
-        <v>12.77</v>
+        <v>12.78</v>
       </c>
       <c r="D230">
         <v>0</v>
       </c>
       <c r="E230">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="F230" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5909,16 +5708,16 @@
         <v>234</v>
       </c>
       <c r="C231">
-        <v>12.76</v>
+        <v>12.77</v>
       </c>
       <c r="D231">
         <v>0</v>
       </c>
       <c r="E231">
-        <v>1.11</v>
+        <v>0.79</v>
       </c>
       <c r="F231" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5929,16 +5728,16 @@
         <v>235</v>
       </c>
       <c r="C232">
-        <v>12.75</v>
+        <v>12.77</v>
       </c>
       <c r="D232">
         <v>0</v>
       </c>
       <c r="E232">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="F232" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5949,7 +5748,7 @@
         <v>236</v>
       </c>
       <c r="C233">
-        <v>12.66</v>
+        <v>12.75</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -5958,7 +5757,7 @@
         <v>0.79</v>
       </c>
       <c r="F233" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5969,16 +5768,16 @@
         <v>237</v>
       </c>
       <c r="C234">
-        <v>12.41</v>
+        <v>12.72</v>
       </c>
       <c r="D234">
         <v>0</v>
       </c>
       <c r="E234">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="F234" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5989,16 +5788,16 @@
         <v>238</v>
       </c>
       <c r="C235">
-        <v>12.11</v>
+        <v>12.73</v>
       </c>
       <c r="D235">
         <v>0</v>
       </c>
       <c r="E235">
-        <v>1.18</v>
+        <v>0.79</v>
       </c>
       <c r="F235" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -6009,16 +5808,16 @@
         <v>239</v>
       </c>
       <c r="C236">
-        <v>11.36</v>
+        <v>12.6</v>
       </c>
       <c r="D236">
         <v>0</v>
       </c>
       <c r="E236">
-        <v>0.97</v>
+        <v>0.79</v>
       </c>
       <c r="F236" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -6029,7 +5828,7 @@
         <v>240</v>
       </c>
       <c r="C237">
-        <v>13.55</v>
+        <v>12.44</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -6038,1347 +5837,7 @@
         <v>0.79</v>
       </c>
       <c r="F237" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6">
-      <c r="A238" s="1">
-        <v>236</v>
-      </c>
-      <c r="B238" t="s">
-        <v>241</v>
-      </c>
-      <c r="C238">
-        <v>13.57</v>
-      </c>
-      <c r="D238">
-        <v>0</v>
-      </c>
-      <c r="E238">
-        <v>0.79</v>
-      </c>
-      <c r="F238" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6">
-      <c r="A239" s="1">
-        <v>237</v>
-      </c>
-      <c r="B239" t="s">
-        <v>242</v>
-      </c>
-      <c r="C239">
-        <v>13.57</v>
-      </c>
-      <c r="D239">
-        <v>0</v>
-      </c>
-      <c r="E239">
-        <v>0.79</v>
-      </c>
-      <c r="F239" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6">
-      <c r="A240" s="1">
-        <v>238</v>
-      </c>
-      <c r="B240" t="s">
-        <v>243</v>
-      </c>
-      <c r="C240">
-        <v>13.57</v>
-      </c>
-      <c r="D240">
-        <v>0</v>
-      </c>
-      <c r="E240">
-        <v>0.79</v>
-      </c>
-      <c r="F240" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6">
-      <c r="A241" s="1">
-        <v>239</v>
-      </c>
-      <c r="B241" t="s">
-        <v>244</v>
-      </c>
-      <c r="C241">
-        <v>13.57</v>
-      </c>
-      <c r="D241">
-        <v>0</v>
-      </c>
-      <c r="E241">
-        <v>0.79</v>
-      </c>
-      <c r="F241" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6">
-      <c r="A242" s="1">
-        <v>240</v>
-      </c>
-      <c r="B242" t="s">
-        <v>245</v>
-      </c>
-      <c r="C242">
-        <v>13.57</v>
-      </c>
-      <c r="D242">
-        <v>0</v>
-      </c>
-      <c r="E242">
-        <v>0.79</v>
-      </c>
-      <c r="F242" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6">
-      <c r="A243" s="1">
-        <v>241</v>
-      </c>
-      <c r="B243" t="s">
-        <v>246</v>
-      </c>
-      <c r="C243">
-        <v>13.57</v>
-      </c>
-      <c r="D243">
-        <v>0</v>
-      </c>
-      <c r="E243">
-        <v>0.79</v>
-      </c>
-      <c r="F243" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6">
-      <c r="A244" s="1">
-        <v>242</v>
-      </c>
-      <c r="B244" t="s">
-        <v>247</v>
-      </c>
-      <c r="C244">
-        <v>13.58</v>
-      </c>
-      <c r="D244">
-        <v>0</v>
-      </c>
-      <c r="E244">
-        <v>0.79</v>
-      </c>
-      <c r="F244" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6">
-      <c r="A245" s="1">
-        <v>243</v>
-      </c>
-      <c r="B245" t="s">
-        <v>248</v>
-      </c>
-      <c r="C245">
-        <v>13.58</v>
-      </c>
-      <c r="D245">
-        <v>0</v>
-      </c>
-      <c r="E245">
-        <v>0.79</v>
-      </c>
-      <c r="F245" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6">
-      <c r="A246" s="1">
-        <v>244</v>
-      </c>
-      <c r="B246" t="s">
-        <v>249</v>
-      </c>
-      <c r="C246">
-        <v>13.58</v>
-      </c>
-      <c r="D246">
-        <v>0</v>
-      </c>
-      <c r="E246">
-        <v>0.79</v>
-      </c>
-      <c r="F246" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6">
-      <c r="A247" s="1">
-        <v>245</v>
-      </c>
-      <c r="B247" t="s">
-        <v>250</v>
-      </c>
-      <c r="C247">
-        <v>13.58</v>
-      </c>
-      <c r="D247">
-        <v>0</v>
-      </c>
-      <c r="E247">
-        <v>0.79</v>
-      </c>
-      <c r="F247" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6">
-      <c r="A248" s="1">
-        <v>246</v>
-      </c>
-      <c r="B248" t="s">
-        <v>251</v>
-      </c>
-      <c r="C248">
-        <v>13.59</v>
-      </c>
-      <c r="D248">
-        <v>0</v>
-      </c>
-      <c r="E248">
-        <v>0.79</v>
-      </c>
-      <c r="F248" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6">
-      <c r="A249" s="1">
-        <v>247</v>
-      </c>
-      <c r="B249" t="s">
-        <v>252</v>
-      </c>
-      <c r="C249">
-        <v>13.59</v>
-      </c>
-      <c r="D249">
-        <v>0</v>
-      </c>
-      <c r="E249">
-        <v>0.79</v>
-      </c>
-      <c r="F249" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6">
-      <c r="A250" s="1">
-        <v>248</v>
-      </c>
-      <c r="B250" t="s">
-        <v>253</v>
-      </c>
-      <c r="C250">
-        <v>13.59</v>
-      </c>
-      <c r="D250">
-        <v>0</v>
-      </c>
-      <c r="E250">
-        <v>0.79</v>
-      </c>
-      <c r="F250" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6">
-      <c r="A251" s="1">
-        <v>249</v>
-      </c>
-      <c r="B251" t="s">
-        <v>254</v>
-      </c>
-      <c r="C251">
-        <v>13.59</v>
-      </c>
-      <c r="D251">
-        <v>0</v>
-      </c>
-      <c r="E251">
-        <v>0.79</v>
-      </c>
-      <c r="F251" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6">
-      <c r="A252" s="1">
-        <v>250</v>
-      </c>
-      <c r="B252" t="s">
-        <v>255</v>
-      </c>
-      <c r="C252">
-        <v>13.59</v>
-      </c>
-      <c r="D252">
-        <v>0</v>
-      </c>
-      <c r="E252">
-        <v>0.79</v>
-      </c>
-      <c r="F252" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6">
-      <c r="A253" s="1">
-        <v>251</v>
-      </c>
-      <c r="B253" t="s">
-        <v>256</v>
-      </c>
-      <c r="C253">
-        <v>13.59</v>
-      </c>
-      <c r="D253">
-        <v>0</v>
-      </c>
-      <c r="E253">
-        <v>0.79</v>
-      </c>
-      <c r="F253" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6">
-      <c r="A254" s="1">
-        <v>252</v>
-      </c>
-      <c r="B254" t="s">
-        <v>257</v>
-      </c>
-      <c r="C254">
-        <v>13.59</v>
-      </c>
-      <c r="D254">
-        <v>0</v>
-      </c>
-      <c r="E254">
-        <v>0.79</v>
-      </c>
-      <c r="F254" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6">
-      <c r="A255" s="1">
-        <v>253</v>
-      </c>
-      <c r="B255" t="s">
-        <v>258</v>
-      </c>
-      <c r="C255">
-        <v>13.6</v>
-      </c>
-      <c r="D255">
-        <v>0</v>
-      </c>
-      <c r="E255">
-        <v>0.79</v>
-      </c>
-      <c r="F255" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6">
-      <c r="A256" s="1">
-        <v>254</v>
-      </c>
-      <c r="B256" t="s">
-        <v>259</v>
-      </c>
-      <c r="C256">
-        <v>13.6</v>
-      </c>
-      <c r="D256">
-        <v>0</v>
-      </c>
-      <c r="E256">
-        <v>0.79</v>
-      </c>
-      <c r="F256" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6">
-      <c r="A257" s="1">
-        <v>255</v>
-      </c>
-      <c r="B257" t="s">
-        <v>260</v>
-      </c>
-      <c r="C257">
-        <v>13.6</v>
-      </c>
-      <c r="D257">
-        <v>0</v>
-      </c>
-      <c r="E257">
-        <v>0.79</v>
-      </c>
-      <c r="F257" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6">
-      <c r="A258" s="1">
-        <v>256</v>
-      </c>
-      <c r="B258" t="s">
-        <v>261</v>
-      </c>
-      <c r="C258">
-        <v>13.6</v>
-      </c>
-      <c r="D258">
-        <v>0</v>
-      </c>
-      <c r="E258">
-        <v>0.79</v>
-      </c>
-      <c r="F258" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6">
-      <c r="A259" s="1">
-        <v>257</v>
-      </c>
-      <c r="B259" t="s">
-        <v>262</v>
-      </c>
-      <c r="C259">
-        <v>13.6</v>
-      </c>
-      <c r="D259">
-        <v>0</v>
-      </c>
-      <c r="E259">
-        <v>0.79</v>
-      </c>
-      <c r="F259" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6">
-      <c r="A260" s="1">
-        <v>258</v>
-      </c>
-      <c r="B260" t="s">
-        <v>263</v>
-      </c>
-      <c r="C260">
-        <v>13.6</v>
-      </c>
-      <c r="D260">
-        <v>0</v>
-      </c>
-      <c r="E260">
-        <v>0.79</v>
-      </c>
-      <c r="F260" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6">
-      <c r="A261" s="1">
-        <v>259</v>
-      </c>
-      <c r="B261" t="s">
-        <v>264</v>
-      </c>
-      <c r="C261">
-        <v>13.59</v>
-      </c>
-      <c r="D261">
-        <v>0</v>
-      </c>
-      <c r="E261">
-        <v>0.79</v>
-      </c>
-      <c r="F261" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6">
-      <c r="A262" s="1">
-        <v>260</v>
-      </c>
-      <c r="B262" t="s">
-        <v>265</v>
-      </c>
-      <c r="C262">
-        <v>13.61</v>
-      </c>
-      <c r="D262">
-        <v>0</v>
-      </c>
-      <c r="E262">
-        <v>0.79</v>
-      </c>
-      <c r="F262" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6">
-      <c r="A263" s="1">
-        <v>261</v>
-      </c>
-      <c r="B263" t="s">
-        <v>266</v>
-      </c>
-      <c r="C263">
-        <v>13.61</v>
-      </c>
-      <c r="D263">
-        <v>0</v>
-      </c>
-      <c r="E263">
-        <v>0.79</v>
-      </c>
-      <c r="F263" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6">
-      <c r="A264" s="1">
-        <v>262</v>
-      </c>
-      <c r="B264" t="s">
-        <v>267</v>
-      </c>
-      <c r="C264">
-        <v>13.61</v>
-      </c>
-      <c r="D264">
-        <v>0</v>
-      </c>
-      <c r="E264">
-        <v>0.79</v>
-      </c>
-      <c r="F264" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6">
-      <c r="A265" s="1">
-        <v>263</v>
-      </c>
-      <c r="B265" t="s">
-        <v>268</v>
-      </c>
-      <c r="C265">
-        <v>13.61</v>
-      </c>
-      <c r="D265">
-        <v>0</v>
-      </c>
-      <c r="E265">
-        <v>0.79</v>
-      </c>
-      <c r="F265" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6">
-      <c r="A266" s="1">
-        <v>264</v>
-      </c>
-      <c r="B266" t="s">
-        <v>269</v>
-      </c>
-      <c r="C266">
-        <v>13.61</v>
-      </c>
-      <c r="D266">
-        <v>0</v>
-      </c>
-      <c r="E266">
-        <v>0.79</v>
-      </c>
-      <c r="F266" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6">
-      <c r="A267" s="1">
-        <v>265</v>
-      </c>
-      <c r="B267" t="s">
-        <v>270</v>
-      </c>
-      <c r="C267">
-        <v>13.61</v>
-      </c>
-      <c r="D267">
-        <v>0</v>
-      </c>
-      <c r="E267">
-        <v>0.79</v>
-      </c>
-      <c r="F267" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6">
-      <c r="A268" s="1">
-        <v>266</v>
-      </c>
-      <c r="B268" t="s">
-        <v>271</v>
-      </c>
-      <c r="C268">
-        <v>13.61</v>
-      </c>
-      <c r="D268">
-        <v>0</v>
-      </c>
-      <c r="E268">
-        <v>0.79</v>
-      </c>
-      <c r="F268" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6">
-      <c r="A269" s="1">
-        <v>267</v>
-      </c>
-      <c r="B269" t="s">
-        <v>272</v>
-      </c>
-      <c r="C269">
-        <v>13.62</v>
-      </c>
-      <c r="D269">
-        <v>0</v>
-      </c>
-      <c r="E269">
-        <v>0.79</v>
-      </c>
-      <c r="F269" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6">
-      <c r="A270" s="1">
-        <v>268</v>
-      </c>
-      <c r="B270" t="s">
-        <v>273</v>
-      </c>
-      <c r="C270">
-        <v>13.62</v>
-      </c>
-      <c r="D270">
-        <v>0</v>
-      </c>
-      <c r="E270">
-        <v>0.79</v>
-      </c>
-      <c r="F270" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6">
-      <c r="A271" s="1">
-        <v>269</v>
-      </c>
-      <c r="B271" t="s">
-        <v>274</v>
-      </c>
-      <c r="C271">
-        <v>13.62</v>
-      </c>
-      <c r="D271">
-        <v>0</v>
-      </c>
-      <c r="E271">
-        <v>0.79</v>
-      </c>
-      <c r="F271" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6">
-      <c r="A272" s="1">
-        <v>270</v>
-      </c>
-      <c r="B272" t="s">
-        <v>275</v>
-      </c>
-      <c r="C272">
-        <v>13.62</v>
-      </c>
-      <c r="D272">
-        <v>0</v>
-      </c>
-      <c r="E272">
-        <v>0.79</v>
-      </c>
-      <c r="F272" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6">
-      <c r="A273" s="1">
-        <v>271</v>
-      </c>
-      <c r="B273" t="s">
-        <v>276</v>
-      </c>
-      <c r="C273">
-        <v>13.62</v>
-      </c>
-      <c r="D273">
-        <v>0</v>
-      </c>
-      <c r="E273">
-        <v>0.79</v>
-      </c>
-      <c r="F273" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6">
-      <c r="A274" s="1">
-        <v>272</v>
-      </c>
-      <c r="B274" t="s">
-        <v>277</v>
-      </c>
-      <c r="C274">
-        <v>13.62</v>
-      </c>
-      <c r="D274">
-        <v>0</v>
-      </c>
-      <c r="E274">
-        <v>0.79</v>
-      </c>
-      <c r="F274" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6">
-      <c r="A275" s="1">
-        <v>273</v>
-      </c>
-      <c r="B275" t="s">
-        <v>278</v>
-      </c>
-      <c r="C275">
-        <v>13.62</v>
-      </c>
-      <c r="D275">
-        <v>0</v>
-      </c>
-      <c r="E275">
-        <v>1.13</v>
-      </c>
-      <c r="F275" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6">
-      <c r="A276" s="1">
-        <v>274</v>
-      </c>
-      <c r="B276" t="s">
-        <v>279</v>
-      </c>
-      <c r="C276">
-        <v>13.62</v>
-      </c>
-      <c r="D276">
-        <v>0</v>
-      </c>
-      <c r="E276">
-        <v>1.21</v>
-      </c>
-      <c r="F276" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6">
-      <c r="A277" s="1">
-        <v>275</v>
-      </c>
-      <c r="B277" t="s">
-        <v>280</v>
-      </c>
-      <c r="C277">
-        <v>13.62</v>
-      </c>
-      <c r="D277">
-        <v>0</v>
-      </c>
-      <c r="E277">
-        <v>1.21</v>
-      </c>
-      <c r="F277" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6">
-      <c r="A278" s="1">
-        <v>276</v>
-      </c>
-      <c r="B278" t="s">
-        <v>281</v>
-      </c>
-      <c r="C278">
-        <v>13.62</v>
-      </c>
-      <c r="D278">
-        <v>0</v>
-      </c>
-      <c r="E278">
-        <v>1.21</v>
-      </c>
-      <c r="F278" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6">
-      <c r="A279" s="1">
-        <v>277</v>
-      </c>
-      <c r="B279" t="s">
-        <v>282</v>
-      </c>
-      <c r="C279">
-        <v>13.62</v>
-      </c>
-      <c r="D279">
-        <v>0</v>
-      </c>
-      <c r="E279">
-        <v>1.21</v>
-      </c>
-      <c r="F279" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6">
-      <c r="A280" s="1">
-        <v>278</v>
-      </c>
-      <c r="B280" t="s">
-        <v>283</v>
-      </c>
-      <c r="C280">
-        <v>13.62</v>
-      </c>
-      <c r="D280">
-        <v>0</v>
-      </c>
-      <c r="E280">
-        <v>1.21</v>
-      </c>
-      <c r="F280" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6">
-      <c r="A281" s="1">
-        <v>279</v>
-      </c>
-      <c r="B281" t="s">
-        <v>284</v>
-      </c>
-      <c r="C281">
-        <v>13.62</v>
-      </c>
-      <c r="D281">
-        <v>0</v>
-      </c>
-      <c r="E281">
-        <v>1.21</v>
-      </c>
-      <c r="F281" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6">
-      <c r="A282" s="1">
-        <v>280</v>
-      </c>
-      <c r="B282" t="s">
-        <v>285</v>
-      </c>
-      <c r="C282">
-        <v>13.41</v>
-      </c>
-      <c r="D282">
-        <v>0</v>
-      </c>
-      <c r="E282">
-        <v>1.21</v>
-      </c>
-      <c r="F282" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6">
-      <c r="A283" s="1">
-        <v>281</v>
-      </c>
-      <c r="B283" t="s">
-        <v>286</v>
-      </c>
-      <c r="C283">
-        <v>13.05</v>
-      </c>
-      <c r="D283">
-        <v>0</v>
-      </c>
-      <c r="E283">
-        <v>1.21</v>
-      </c>
-      <c r="F283" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6">
-      <c r="A284" s="1">
-        <v>282</v>
-      </c>
-      <c r="B284" t="s">
-        <v>287</v>
-      </c>
-      <c r="C284">
-        <v>13.07</v>
-      </c>
-      <c r="D284">
-        <v>0</v>
-      </c>
-      <c r="E284">
-        <v>1.21</v>
-      </c>
-      <c r="F284" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6">
-      <c r="A285" s="1">
-        <v>283</v>
-      </c>
-      <c r="B285" t="s">
-        <v>288</v>
-      </c>
-      <c r="C285">
-        <v>13.03</v>
-      </c>
-      <c r="D285">
-        <v>0</v>
-      </c>
-      <c r="E285">
-        <v>1.21</v>
-      </c>
-      <c r="F285" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6">
-      <c r="A286" s="1">
-        <v>284</v>
-      </c>
-      <c r="B286" t="s">
-        <v>289</v>
-      </c>
-      <c r="C286">
-        <v>13.2</v>
-      </c>
-      <c r="D286">
-        <v>0</v>
-      </c>
-      <c r="E286">
-        <v>1.21</v>
-      </c>
-      <c r="F286" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6">
-      <c r="A287" s="1">
-        <v>285</v>
-      </c>
-      <c r="B287" t="s">
-        <v>290</v>
-      </c>
-      <c r="C287">
-        <v>13.61</v>
-      </c>
-      <c r="D287">
-        <v>0</v>
-      </c>
-      <c r="E287">
-        <v>1.21</v>
-      </c>
-      <c r="F287" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6">
-      <c r="A288" s="1">
-        <v>286</v>
-      </c>
-      <c r="B288" t="s">
-        <v>291</v>
-      </c>
-      <c r="C288">
-        <v>13.61</v>
-      </c>
-      <c r="D288">
-        <v>0</v>
-      </c>
-      <c r="E288">
-        <v>1.21</v>
-      </c>
-      <c r="F288" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6">
-      <c r="A289" s="1">
-        <v>287</v>
-      </c>
-      <c r="B289" t="s">
-        <v>292</v>
-      </c>
-      <c r="C289">
-        <v>13.61</v>
-      </c>
-      <c r="D289">
-        <v>0</v>
-      </c>
-      <c r="E289">
-        <v>1.21</v>
-      </c>
-      <c r="F289" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6">
-      <c r="A290" s="1">
-        <v>288</v>
-      </c>
-      <c r="B290" t="s">
-        <v>293</v>
-      </c>
-      <c r="C290">
-        <v>13.61</v>
-      </c>
-      <c r="D290">
-        <v>0</v>
-      </c>
-      <c r="E290">
-        <v>1.21</v>
-      </c>
-      <c r="F290" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6">
-      <c r="A291" s="1">
-        <v>289</v>
-      </c>
-      <c r="B291" t="s">
-        <v>294</v>
-      </c>
-      <c r="C291">
-        <v>13.61</v>
-      </c>
-      <c r="D291">
-        <v>0</v>
-      </c>
-      <c r="E291">
-        <v>1.21</v>
-      </c>
-      <c r="F291" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6">
-      <c r="A292" s="1">
-        <v>290</v>
-      </c>
-      <c r="B292" t="s">
-        <v>295</v>
-      </c>
-      <c r="C292">
-        <v>13.61</v>
-      </c>
-      <c r="D292">
-        <v>0</v>
-      </c>
-      <c r="E292">
-        <v>1.21</v>
-      </c>
-      <c r="F292" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6">
-      <c r="A293" s="1">
-        <v>291</v>
-      </c>
-      <c r="B293" t="s">
-        <v>296</v>
-      </c>
-      <c r="C293">
-        <v>13.54</v>
-      </c>
-      <c r="D293">
-        <v>0</v>
-      </c>
-      <c r="E293">
-        <v>1.21</v>
-      </c>
-      <c r="F293" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6">
-      <c r="A294" s="1">
-        <v>292</v>
-      </c>
-      <c r="B294" t="s">
-        <v>297</v>
-      </c>
-      <c r="C294">
-        <v>13.03</v>
-      </c>
-      <c r="D294">
-        <v>0</v>
-      </c>
-      <c r="E294">
-        <v>1.21</v>
-      </c>
-      <c r="F294" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6">
-      <c r="A295" s="1">
-        <v>293</v>
-      </c>
-      <c r="B295" t="s">
-        <v>298</v>
-      </c>
-      <c r="C295">
-        <v>12.94</v>
-      </c>
-      <c r="D295">
-        <v>0</v>
-      </c>
-      <c r="E295">
-        <v>1.21</v>
-      </c>
-      <c r="F295" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6">
-      <c r="A296" s="1">
-        <v>294</v>
-      </c>
-      <c r="B296" t="s">
-        <v>299</v>
-      </c>
-      <c r="C296">
-        <v>12.87</v>
-      </c>
-      <c r="D296">
-        <v>0</v>
-      </c>
-      <c r="E296">
-        <v>1.21</v>
-      </c>
-      <c r="F296" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6">
-      <c r="A297" s="1">
-        <v>295</v>
-      </c>
-      <c r="B297" t="s">
-        <v>300</v>
-      </c>
-      <c r="C297">
-        <v>12.84</v>
-      </c>
-      <c r="D297">
-        <v>0</v>
-      </c>
-      <c r="E297">
-        <v>1.21</v>
-      </c>
-      <c r="F297" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6">
-      <c r="A298" s="1">
-        <v>296</v>
-      </c>
-      <c r="B298" t="s">
-        <v>301</v>
-      </c>
-      <c r="C298">
-        <v>12.84</v>
-      </c>
-      <c r="D298">
-        <v>0</v>
-      </c>
-      <c r="E298">
-        <v>1.21</v>
-      </c>
-      <c r="F298" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6">
-      <c r="A299" s="1">
-        <v>297</v>
-      </c>
-      <c r="B299" t="s">
-        <v>302</v>
-      </c>
-      <c r="C299">
-        <v>12.83</v>
-      </c>
-      <c r="D299">
-        <v>0</v>
-      </c>
-      <c r="E299">
-        <v>1.21</v>
-      </c>
-      <c r="F299" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6">
-      <c r="A300" s="1">
-        <v>298</v>
-      </c>
-      <c r="B300" t="s">
-        <v>303</v>
-      </c>
-      <c r="C300">
-        <v>12.83</v>
-      </c>
-      <c r="D300">
-        <v>0</v>
-      </c>
-      <c r="E300">
-        <v>1.21</v>
-      </c>
-      <c r="F300" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6">
-      <c r="A301" s="1">
-        <v>299</v>
-      </c>
-      <c r="B301" t="s">
-        <v>304</v>
-      </c>
-      <c r="C301">
-        <v>12.8</v>
-      </c>
-      <c r="D301">
-        <v>0</v>
-      </c>
-      <c r="E301">
-        <v>1.21</v>
-      </c>
-      <c r="F301" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6">
-      <c r="A302" s="1">
-        <v>300</v>
-      </c>
-      <c r="B302" t="s">
-        <v>305</v>
-      </c>
-      <c r="C302">
-        <v>12.82</v>
-      </c>
-      <c r="D302">
-        <v>0</v>
-      </c>
-      <c r="E302">
-        <v>1.21</v>
-      </c>
-      <c r="F302" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6">
-      <c r="A303" s="1">
-        <v>301</v>
-      </c>
-      <c r="B303" t="s">
-        <v>306</v>
-      </c>
-      <c r="C303">
-        <v>12.81</v>
-      </c>
-      <c r="D303">
-        <v>0</v>
-      </c>
-      <c r="E303">
-        <v>1.21</v>
-      </c>
-      <c r="F303" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6">
-      <c r="A304" s="1">
-        <v>302</v>
-      </c>
-      <c r="B304" t="s">
-        <v>307</v>
-      </c>
-      <c r="C304">
-        <v>12.81</v>
-      </c>
-      <c r="D304">
-        <v>0</v>
-      </c>
-      <c r="E304">
-        <v>1.21</v>
-      </c>
-      <c r="F304" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/MODESTO MENDEZ.xlsx
+++ b/tablas_insivumeh/MODESTO MENDEZ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="253">
   <si>
     <t>Fecha</t>
   </si>
@@ -737,6 +737,39 @@
   </si>
   <si>
     <t>11/16/2020 7:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 8:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/17/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 7:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 7:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 7:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 7:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 7:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 8:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 8:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 8:30:00 AM</t>
   </si>
   <si>
     <t>MODESTO MENDEZ</t>
@@ -1097,7 +1130,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F237"/>
+  <dimension ref="A1:F248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1137,7 +1170,7 @@
         <v>0.99</v>
       </c>
       <c r="F2" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1157,7 +1190,7 @@
         <v>0.79</v>
       </c>
       <c r="F3" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1177,7 +1210,7 @@
         <v>0.79</v>
       </c>
       <c r="F4" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1197,7 +1230,7 @@
         <v>0.79</v>
       </c>
       <c r="F5" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1217,7 +1250,7 @@
         <v>0.79</v>
       </c>
       <c r="F6" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1237,7 +1270,7 @@
         <v>0.79</v>
       </c>
       <c r="F7" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1257,7 +1290,7 @@
         <v>0.79</v>
       </c>
       <c r="F8" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1277,7 +1310,7 @@
         <v>0.79</v>
       </c>
       <c r="F9" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1297,7 +1330,7 @@
         <v>0.79</v>
       </c>
       <c r="F10" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1317,7 +1350,7 @@
         <v>0.79</v>
       </c>
       <c r="F11" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1337,7 +1370,7 @@
         <v>0.79</v>
       </c>
       <c r="F12" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1357,7 +1390,7 @@
         <v>0.79</v>
       </c>
       <c r="F13" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1377,7 +1410,7 @@
         <v>0.79</v>
       </c>
       <c r="F14" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1397,7 +1430,7 @@
         <v>0.79</v>
       </c>
       <c r="F15" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1417,7 +1450,7 @@
         <v>0.79</v>
       </c>
       <c r="F16" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1437,7 +1470,7 @@
         <v>0.79</v>
       </c>
       <c r="F17" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1457,7 +1490,7 @@
         <v>0.79</v>
       </c>
       <c r="F18" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1477,7 +1510,7 @@
         <v>0.79</v>
       </c>
       <c r="F19" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1497,7 +1530,7 @@
         <v>0.79</v>
       </c>
       <c r="F20" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1517,7 +1550,7 @@
         <v>0.79</v>
       </c>
       <c r="F21" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1537,7 +1570,7 @@
         <v>0.79</v>
       </c>
       <c r="F22" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1557,7 +1590,7 @@
         <v>0.79</v>
       </c>
       <c r="F23" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1577,7 +1610,7 @@
         <v>0.79</v>
       </c>
       <c r="F24" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1597,7 +1630,7 @@
         <v>0.79</v>
       </c>
       <c r="F25" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1617,7 +1650,7 @@
         <v>0.79</v>
       </c>
       <c r="F26" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1637,7 +1670,7 @@
         <v>0.79</v>
       </c>
       <c r="F27" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1657,7 +1690,7 @@
         <v>0.79</v>
       </c>
       <c r="F28" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1677,7 +1710,7 @@
         <v>0.79</v>
       </c>
       <c r="F29" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1697,7 +1730,7 @@
         <v>0.79</v>
       </c>
       <c r="F30" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1717,7 +1750,7 @@
         <v>0.79</v>
       </c>
       <c r="F31" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1737,7 +1770,7 @@
         <v>0.79</v>
       </c>
       <c r="F32" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1757,7 +1790,7 @@
         <v>0.79</v>
       </c>
       <c r="F33" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1777,7 +1810,7 @@
         <v>0.79</v>
       </c>
       <c r="F34" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1797,7 +1830,7 @@
         <v>0.79</v>
       </c>
       <c r="F35" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1817,7 +1850,7 @@
         <v>0.79</v>
       </c>
       <c r="F36" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1837,7 +1870,7 @@
         <v>0.79</v>
       </c>
       <c r="F37" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1857,7 +1890,7 @@
         <v>0.79</v>
       </c>
       <c r="F38" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1877,7 +1910,7 @@
         <v>0.79</v>
       </c>
       <c r="F39" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1897,7 +1930,7 @@
         <v>0.79</v>
       </c>
       <c r="F40" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1917,7 +1950,7 @@
         <v>0.79</v>
       </c>
       <c r="F41" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1937,7 +1970,7 @@
         <v>0.79</v>
       </c>
       <c r="F42" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1957,7 +1990,7 @@
         <v>0.79</v>
       </c>
       <c r="F43" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1977,7 +2010,7 @@
         <v>0.79</v>
       </c>
       <c r="F44" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1997,7 +2030,7 @@
         <v>0.79</v>
       </c>
       <c r="F45" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2017,7 +2050,7 @@
         <v>0.79</v>
       </c>
       <c r="F46" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2037,7 +2070,7 @@
         <v>0.79</v>
       </c>
       <c r="F47" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2057,7 +2090,7 @@
         <v>0.79</v>
       </c>
       <c r="F48" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2077,7 +2110,7 @@
         <v>0.79</v>
       </c>
       <c r="F49" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2097,7 +2130,7 @@
         <v>0.79</v>
       </c>
       <c r="F50" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2117,7 +2150,7 @@
         <v>0.79</v>
       </c>
       <c r="F51" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2137,7 +2170,7 @@
         <v>0.79</v>
       </c>
       <c r="F52" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2157,7 +2190,7 @@
         <v>0.79</v>
       </c>
       <c r="F53" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2177,7 +2210,7 @@
         <v>0.79</v>
       </c>
       <c r="F54" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2197,7 +2230,7 @@
         <v>0.79</v>
       </c>
       <c r="F55" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2217,7 +2250,7 @@
         <v>0.79</v>
       </c>
       <c r="F56" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2237,7 +2270,7 @@
         <v>0.79</v>
       </c>
       <c r="F57" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2257,7 +2290,7 @@
         <v>0.79</v>
       </c>
       <c r="F58" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2277,7 +2310,7 @@
         <v>0.79</v>
       </c>
       <c r="F59" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2297,7 +2330,7 @@
         <v>0.79</v>
       </c>
       <c r="F60" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2317,7 +2350,7 @@
         <v>0.79</v>
       </c>
       <c r="F61" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2337,7 +2370,7 @@
         <v>0.79</v>
       </c>
       <c r="F62" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2357,7 +2390,7 @@
         <v>0.79</v>
       </c>
       <c r="F63" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2377,7 +2410,7 @@
         <v>0.79</v>
       </c>
       <c r="F64" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2397,7 +2430,7 @@
         <v>0.79</v>
       </c>
       <c r="F65" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2417,7 +2450,7 @@
         <v>0.79</v>
       </c>
       <c r="F66" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2437,7 +2470,7 @@
         <v>0.79</v>
       </c>
       <c r="F67" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2457,7 +2490,7 @@
         <v>0.79</v>
       </c>
       <c r="F68" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2477,7 +2510,7 @@
         <v>0.79</v>
       </c>
       <c r="F69" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2497,7 +2530,7 @@
         <v>0.79</v>
       </c>
       <c r="F70" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2517,7 +2550,7 @@
         <v>0.79</v>
       </c>
       <c r="F71" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2537,7 +2570,7 @@
         <v>0.79</v>
       </c>
       <c r="F72" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2557,7 +2590,7 @@
         <v>0.79</v>
       </c>
       <c r="F73" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2577,7 +2610,7 @@
         <v>0.79</v>
       </c>
       <c r="F74" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2597,7 +2630,7 @@
         <v>0.79</v>
       </c>
       <c r="F75" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2617,7 +2650,7 @@
         <v>0.79</v>
       </c>
       <c r="F76" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2637,7 +2670,7 @@
         <v>0.79</v>
       </c>
       <c r="F77" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2657,7 +2690,7 @@
         <v>0.79</v>
       </c>
       <c r="F78" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2677,7 +2710,7 @@
         <v>0.79</v>
       </c>
       <c r="F79" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2697,7 +2730,7 @@
         <v>0.79</v>
       </c>
       <c r="F80" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2717,7 +2750,7 @@
         <v>0.79</v>
       </c>
       <c r="F81" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2737,7 +2770,7 @@
         <v>0.79</v>
       </c>
       <c r="F82" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2757,7 +2790,7 @@
         <v>0.79</v>
       </c>
       <c r="F83" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2777,7 +2810,7 @@
         <v>0.79</v>
       </c>
       <c r="F84" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2797,7 +2830,7 @@
         <v>0.79</v>
       </c>
       <c r="F85" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2817,7 +2850,7 @@
         <v>0.79</v>
       </c>
       <c r="F86" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2837,7 +2870,7 @@
         <v>0.79</v>
       </c>
       <c r="F87" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2857,7 +2890,7 @@
         <v>0.79</v>
       </c>
       <c r="F88" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2877,7 +2910,7 @@
         <v>0.79</v>
       </c>
       <c r="F89" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2897,7 +2930,7 @@
         <v>0.79</v>
       </c>
       <c r="F90" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2917,7 +2950,7 @@
         <v>0.79</v>
       </c>
       <c r="F91" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2937,7 +2970,7 @@
         <v>0.79</v>
       </c>
       <c r="F92" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2957,7 +2990,7 @@
         <v>0.79</v>
       </c>
       <c r="F93" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2977,7 +3010,7 @@
         <v>0.79</v>
       </c>
       <c r="F94" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2997,7 +3030,7 @@
         <v>0.79</v>
       </c>
       <c r="F95" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3017,7 +3050,7 @@
         <v>0.79</v>
       </c>
       <c r="F96" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3037,7 +3070,7 @@
         <v>0.79</v>
       </c>
       <c r="F97" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3057,7 +3090,7 @@
         <v>0.79</v>
       </c>
       <c r="F98" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3077,7 +3110,7 @@
         <v>0.79</v>
       </c>
       <c r="F99" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3097,7 +3130,7 @@
         <v>0.79</v>
       </c>
       <c r="F100" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3117,7 +3150,7 @@
         <v>0.79</v>
       </c>
       <c r="F101" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3137,7 +3170,7 @@
         <v>0.79</v>
       </c>
       <c r="F102" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3157,7 +3190,7 @@
         <v>0.79</v>
       </c>
       <c r="F103" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3177,7 +3210,7 @@
         <v>0.79</v>
       </c>
       <c r="F104" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3197,7 +3230,7 @@
         <v>0.79</v>
       </c>
       <c r="F105" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3217,7 +3250,7 @@
         <v>0.79</v>
       </c>
       <c r="F106" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3237,7 +3270,7 @@
         <v>0.79</v>
       </c>
       <c r="F107" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3257,7 +3290,7 @@
         <v>0.79</v>
       </c>
       <c r="F108" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3277,7 +3310,7 @@
         <v>0.79</v>
       </c>
       <c r="F109" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3297,7 +3330,7 @@
         <v>0.79</v>
       </c>
       <c r="F110" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3317,7 +3350,7 @@
         <v>0.79</v>
       </c>
       <c r="F111" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3337,7 +3370,7 @@
         <v>0.79</v>
       </c>
       <c r="F112" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3357,7 +3390,7 @@
         <v>0.79</v>
       </c>
       <c r="F113" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3377,7 +3410,7 @@
         <v>0.79</v>
       </c>
       <c r="F114" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3397,7 +3430,7 @@
         <v>0.79</v>
       </c>
       <c r="F115" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3417,7 +3450,7 @@
         <v>0.79</v>
       </c>
       <c r="F116" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3437,7 +3470,7 @@
         <v>0.79</v>
       </c>
       <c r="F117" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3457,7 +3490,7 @@
         <v>0.79</v>
       </c>
       <c r="F118" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3477,7 +3510,7 @@
         <v>0.79</v>
       </c>
       <c r="F119" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3497,7 +3530,7 @@
         <v>0.79</v>
       </c>
       <c r="F120" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3517,7 +3550,7 @@
         <v>0.79</v>
       </c>
       <c r="F121" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3537,7 +3570,7 @@
         <v>0.79</v>
       </c>
       <c r="F122" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3557,7 +3590,7 @@
         <v>0.79</v>
       </c>
       <c r="F123" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3577,7 +3610,7 @@
         <v>0.79</v>
       </c>
       <c r="F124" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3597,7 +3630,7 @@
         <v>0.79</v>
       </c>
       <c r="F125" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3617,7 +3650,7 @@
         <v>0.79</v>
       </c>
       <c r="F126" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3637,7 +3670,7 @@
         <v>0.79</v>
       </c>
       <c r="F127" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3657,7 +3690,7 @@
         <v>0.79</v>
       </c>
       <c r="F128" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3677,7 +3710,7 @@
         <v>0.79</v>
       </c>
       <c r="F129" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3697,7 +3730,7 @@
         <v>0.79</v>
       </c>
       <c r="F130" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3717,7 +3750,7 @@
         <v>0.79</v>
       </c>
       <c r="F131" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3737,7 +3770,7 @@
         <v>0.79</v>
       </c>
       <c r="F132" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3757,7 +3790,7 @@
         <v>0.79</v>
       </c>
       <c r="F133" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3777,7 +3810,7 @@
         <v>0.79</v>
       </c>
       <c r="F134" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3797,7 +3830,7 @@
         <v>0.79</v>
       </c>
       <c r="F135" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3817,7 +3850,7 @@
         <v>0.79</v>
       </c>
       <c r="F136" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3837,7 +3870,7 @@
         <v>0.79</v>
       </c>
       <c r="F137" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3857,7 +3890,7 @@
         <v>0.87</v>
       </c>
       <c r="F138" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3877,7 +3910,7 @@
         <v>1.21</v>
       </c>
       <c r="F139" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3897,7 +3930,7 @@
         <v>1.21</v>
       </c>
       <c r="F140" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3917,7 +3950,7 @@
         <v>1.21</v>
       </c>
       <c r="F141" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3937,7 +3970,7 @@
         <v>1.21</v>
       </c>
       <c r="F142" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3957,7 +3990,7 @@
         <v>1.21</v>
       </c>
       <c r="F143" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3977,7 +4010,7 @@
         <v>1.21</v>
       </c>
       <c r="F144" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3997,7 +4030,7 @@
         <v>1.21</v>
       </c>
       <c r="F145" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4017,7 +4050,7 @@
         <v>1.21</v>
       </c>
       <c r="F146" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4037,7 +4070,7 @@
         <v>1.21</v>
       </c>
       <c r="F147" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4057,7 +4090,7 @@
         <v>1.21</v>
       </c>
       <c r="F148" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4077,7 +4110,7 @@
         <v>1.21</v>
       </c>
       <c r="F149" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4097,7 +4130,7 @@
         <v>1.21</v>
       </c>
       <c r="F150" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4117,7 +4150,7 @@
         <v>1.21</v>
       </c>
       <c r="F151" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4137,7 +4170,7 @@
         <v>1.21</v>
       </c>
       <c r="F152" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4157,7 +4190,7 @@
         <v>1.21</v>
       </c>
       <c r="F153" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4177,7 +4210,7 @@
         <v>1.21</v>
       </c>
       <c r="F154" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4197,7 +4230,7 @@
         <v>1.21</v>
       </c>
       <c r="F155" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4217,7 +4250,7 @@
         <v>1.21</v>
       </c>
       <c r="F156" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4237,7 +4270,7 @@
         <v>1.21</v>
       </c>
       <c r="F157" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4257,7 +4290,7 @@
         <v>0.99</v>
       </c>
       <c r="F158" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4277,7 +4310,7 @@
         <v>0.79</v>
       </c>
       <c r="F159" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4297,7 +4330,7 @@
         <v>0.79</v>
       </c>
       <c r="F160" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4317,7 +4350,7 @@
         <v>0.79</v>
       </c>
       <c r="F161" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4337,7 +4370,7 @@
         <v>0.79</v>
       </c>
       <c r="F162" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4357,7 +4390,7 @@
         <v>0.79</v>
       </c>
       <c r="F163" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4377,7 +4410,7 @@
         <v>0.79</v>
       </c>
       <c r="F164" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4397,7 +4430,7 @@
         <v>0.79</v>
       </c>
       <c r="F165" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4417,7 +4450,7 @@
         <v>0.79</v>
       </c>
       <c r="F166" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4437,7 +4470,7 @@
         <v>0.79</v>
       </c>
       <c r="F167" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4457,7 +4490,7 @@
         <v>0.79</v>
       </c>
       <c r="F168" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4477,7 +4510,7 @@
         <v>0.79</v>
       </c>
       <c r="F169" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4497,7 +4530,7 @@
         <v>0.79</v>
       </c>
       <c r="F170" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4517,7 +4550,7 @@
         <v>0.79</v>
       </c>
       <c r="F171" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4537,7 +4570,7 @@
         <v>0.79</v>
       </c>
       <c r="F172" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4557,7 +4590,7 @@
         <v>0.79</v>
       </c>
       <c r="F173" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4577,7 +4610,7 @@
         <v>0.79</v>
       </c>
       <c r="F174" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4597,7 +4630,7 @@
         <v>0.79</v>
       </c>
       <c r="F175" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4617,7 +4650,7 @@
         <v>0.79</v>
       </c>
       <c r="F176" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4637,7 +4670,7 @@
         <v>0.79</v>
       </c>
       <c r="F177" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4657,7 +4690,7 @@
         <v>0.79</v>
       </c>
       <c r="F178" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4677,7 +4710,7 @@
         <v>0.79</v>
       </c>
       <c r="F179" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4697,7 +4730,7 @@
         <v>0.79</v>
       </c>
       <c r="F180" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4717,7 +4750,7 @@
         <v>0.79</v>
       </c>
       <c r="F181" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4737,7 +4770,7 @@
         <v>0.79</v>
       </c>
       <c r="F182" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4757,7 +4790,7 @@
         <v>0.79</v>
       </c>
       <c r="F183" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4777,7 +4810,7 @@
         <v>0.79</v>
       </c>
       <c r="F184" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4797,7 +4830,7 @@
         <v>0.79</v>
       </c>
       <c r="F185" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4817,7 +4850,7 @@
         <v>0.79</v>
       </c>
       <c r="F186" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4837,7 +4870,7 @@
         <v>0.79</v>
       </c>
       <c r="F187" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4857,7 +4890,7 @@
         <v>0.79</v>
       </c>
       <c r="F188" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4877,7 +4910,7 @@
         <v>0.79</v>
       </c>
       <c r="F189" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4897,7 +4930,7 @@
         <v>0.79</v>
       </c>
       <c r="F190" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4917,7 +4950,7 @@
         <v>0.79</v>
       </c>
       <c r="F191" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4937,7 +4970,7 @@
         <v>0.79</v>
       </c>
       <c r="F192" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4957,7 +4990,7 @@
         <v>0.79</v>
       </c>
       <c r="F193" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4977,7 +5010,7 @@
         <v>0.79</v>
       </c>
       <c r="F194" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4997,7 +5030,7 @@
         <v>0.79</v>
       </c>
       <c r="F195" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5017,7 +5050,7 @@
         <v>0.79</v>
       </c>
       <c r="F196" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5037,7 +5070,7 @@
         <v>0.79</v>
       </c>
       <c r="F197" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5057,7 +5090,7 @@
         <v>0.79</v>
       </c>
       <c r="F198" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5077,7 +5110,7 @@
         <v>0.79</v>
       </c>
       <c r="F199" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5097,7 +5130,7 @@
         <v>0.79</v>
       </c>
       <c r="F200" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5117,7 +5150,7 @@
         <v>0.79</v>
       </c>
       <c r="F201" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5137,7 +5170,7 @@
         <v>0.79</v>
       </c>
       <c r="F202" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5157,7 +5190,7 @@
         <v>0.79</v>
       </c>
       <c r="F203" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5177,7 +5210,7 @@
         <v>0.79</v>
       </c>
       <c r="F204" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5197,7 +5230,7 @@
         <v>0.79</v>
       </c>
       <c r="F205" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5217,7 +5250,7 @@
         <v>0.79</v>
       </c>
       <c r="F206" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5237,7 +5270,7 @@
         <v>0.79</v>
       </c>
       <c r="F207" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5257,7 +5290,7 @@
         <v>0.79</v>
       </c>
       <c r="F208" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5277,7 +5310,7 @@
         <v>0.79</v>
       </c>
       <c r="F209" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5297,7 +5330,7 @@
         <v>0.79</v>
       </c>
       <c r="F210" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5317,7 +5350,7 @@
         <v>0.79</v>
       </c>
       <c r="F211" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5337,7 +5370,7 @@
         <v>0.79</v>
       </c>
       <c r="F212" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5357,7 +5390,7 @@
         <v>0.79</v>
       </c>
       <c r="F213" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5377,7 +5410,7 @@
         <v>0.79</v>
       </c>
       <c r="F214" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5397,7 +5430,7 @@
         <v>0.79</v>
       </c>
       <c r="F215" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5417,7 +5450,7 @@
         <v>0.79</v>
       </c>
       <c r="F216" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5437,7 +5470,7 @@
         <v>0.79</v>
       </c>
       <c r="F217" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5457,7 +5490,7 @@
         <v>0.79</v>
       </c>
       <c r="F218" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5477,7 +5510,7 @@
         <v>0.79</v>
       </c>
       <c r="F219" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5497,7 +5530,7 @@
         <v>0.79</v>
       </c>
       <c r="F220" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5517,7 +5550,7 @@
         <v>0.79</v>
       </c>
       <c r="F221" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5537,7 +5570,7 @@
         <v>0.79</v>
       </c>
       <c r="F222" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5557,7 +5590,7 @@
         <v>0.79</v>
       </c>
       <c r="F223" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5577,7 +5610,7 @@
         <v>0.79</v>
       </c>
       <c r="F224" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5597,7 +5630,7 @@
         <v>0.79</v>
       </c>
       <c r="F225" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5617,7 +5650,7 @@
         <v>0.79</v>
       </c>
       <c r="F226" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5637,7 +5670,7 @@
         <v>0.79</v>
       </c>
       <c r="F227" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5657,7 +5690,7 @@
         <v>0.79</v>
       </c>
       <c r="F228" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5677,7 +5710,7 @@
         <v>0.79</v>
       </c>
       <c r="F229" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5697,7 +5730,7 @@
         <v>0.79</v>
       </c>
       <c r="F230" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5717,7 +5750,7 @@
         <v>0.79</v>
       </c>
       <c r="F231" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5737,7 +5770,7 @@
         <v>0.79</v>
       </c>
       <c r="F232" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5757,7 +5790,7 @@
         <v>0.79</v>
       </c>
       <c r="F233" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5777,7 +5810,7 @@
         <v>0.79</v>
       </c>
       <c r="F234" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5797,7 +5830,7 @@
         <v>0.79</v>
       </c>
       <c r="F235" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5817,7 +5850,7 @@
         <v>0.79</v>
       </c>
       <c r="F236" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5837,7 +5870,227 @@
         <v>0.79</v>
       </c>
       <c r="F237" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" t="s">
         <v>241</v>
+      </c>
+      <c r="C238">
+        <v>12.1</v>
+      </c>
+      <c r="D238">
+        <v>0</v>
+      </c>
+      <c r="E238">
+        <v>0.79</v>
+      </c>
+      <c r="F238" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" t="s">
+        <v>242</v>
+      </c>
+      <c r="C239">
+        <v>11.25</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+      <c r="E239">
+        <v>0.79</v>
+      </c>
+      <c r="F239" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" t="s">
+        <v>243</v>
+      </c>
+      <c r="C240">
+        <v>12.11</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+      <c r="E240">
+        <v>0.79</v>
+      </c>
+      <c r="F240" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" t="s">
+        <v>244</v>
+      </c>
+      <c r="C241">
+        <v>12.66</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="E241">
+        <v>0.79</v>
+      </c>
+      <c r="F241" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" t="s">
+        <v>245</v>
+      </c>
+      <c r="C242">
+        <v>12.18</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242">
+        <v>0.79</v>
+      </c>
+      <c r="F242" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" t="s">
+        <v>246</v>
+      </c>
+      <c r="C243">
+        <v>13.07</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+      <c r="E243">
+        <v>0.79</v>
+      </c>
+      <c r="F243" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" t="s">
+        <v>247</v>
+      </c>
+      <c r="C244">
+        <v>13.56</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+      <c r="E244">
+        <v>0.79</v>
+      </c>
+      <c r="F244" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" t="s">
+        <v>248</v>
+      </c>
+      <c r="C245">
+        <v>13.57</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245">
+        <v>0.79</v>
+      </c>
+      <c r="F245" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" t="s">
+        <v>249</v>
+      </c>
+      <c r="C246">
+        <v>13.57</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="E246">
+        <v>0.79</v>
+      </c>
+      <c r="F246" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" t="s">
+        <v>250</v>
+      </c>
+      <c r="C247">
+        <v>13.57</v>
+      </c>
+      <c r="D247">
+        <v>0</v>
+      </c>
+      <c r="E247">
+        <v>0.79</v>
+      </c>
+      <c r="F247" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" t="s">
+        <v>251</v>
+      </c>
+      <c r="C248">
+        <v>13.57</v>
+      </c>
+      <c r="D248">
+        <v>0</v>
+      </c>
+      <c r="E248">
+        <v>0.79</v>
+      </c>
+      <c r="F248" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/MODESTO MENDEZ.xlsx
+++ b/tablas_insivumeh/MODESTO MENDEZ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="263">
   <si>
     <t>Fecha</t>
   </si>
@@ -770,6 +770,36 @@
   </si>
   <si>
     <t>11/17/2020 8:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 8:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 8:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 9:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 9:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 9:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 9:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 9:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 10:10:00 AM</t>
   </si>
   <si>
     <t>MODESTO MENDEZ</t>
@@ -1130,7 +1160,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F248"/>
+  <dimension ref="A1:F258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1170,7 +1200,7 @@
         <v>0.99</v>
       </c>
       <c r="F2" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1190,7 +1220,7 @@
         <v>0.79</v>
       </c>
       <c r="F3" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1210,7 +1240,7 @@
         <v>0.79</v>
       </c>
       <c r="F4" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1230,7 +1260,7 @@
         <v>0.79</v>
       </c>
       <c r="F5" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1250,7 +1280,7 @@
         <v>0.79</v>
       </c>
       <c r="F6" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1270,7 +1300,7 @@
         <v>0.79</v>
       </c>
       <c r="F7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1290,7 +1320,7 @@
         <v>0.79</v>
       </c>
       <c r="F8" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1310,7 +1340,7 @@
         <v>0.79</v>
       </c>
       <c r="F9" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1330,7 +1360,7 @@
         <v>0.79</v>
       </c>
       <c r="F10" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1350,7 +1380,7 @@
         <v>0.79</v>
       </c>
       <c r="F11" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1370,7 +1400,7 @@
         <v>0.79</v>
       </c>
       <c r="F12" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1390,7 +1420,7 @@
         <v>0.79</v>
       </c>
       <c r="F13" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1410,7 +1440,7 @@
         <v>0.79</v>
       </c>
       <c r="F14" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1430,7 +1460,7 @@
         <v>0.79</v>
       </c>
       <c r="F15" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1450,7 +1480,7 @@
         <v>0.79</v>
       </c>
       <c r="F16" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1470,7 +1500,7 @@
         <v>0.79</v>
       </c>
       <c r="F17" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1490,7 +1520,7 @@
         <v>0.79</v>
       </c>
       <c r="F18" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1510,7 +1540,7 @@
         <v>0.79</v>
       </c>
       <c r="F19" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1530,7 +1560,7 @@
         <v>0.79</v>
       </c>
       <c r="F20" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1550,7 +1580,7 @@
         <v>0.79</v>
       </c>
       <c r="F21" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1570,7 +1600,7 @@
         <v>0.79</v>
       </c>
       <c r="F22" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1590,7 +1620,7 @@
         <v>0.79</v>
       </c>
       <c r="F23" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1610,7 +1640,7 @@
         <v>0.79</v>
       </c>
       <c r="F24" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1630,7 +1660,7 @@
         <v>0.79</v>
       </c>
       <c r="F25" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1650,7 +1680,7 @@
         <v>0.79</v>
       </c>
       <c r="F26" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1670,7 +1700,7 @@
         <v>0.79</v>
       </c>
       <c r="F27" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1690,7 +1720,7 @@
         <v>0.79</v>
       </c>
       <c r="F28" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1710,7 +1740,7 @@
         <v>0.79</v>
       </c>
       <c r="F29" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1730,7 +1760,7 @@
         <v>0.79</v>
       </c>
       <c r="F30" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1750,7 +1780,7 @@
         <v>0.79</v>
       </c>
       <c r="F31" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1770,7 +1800,7 @@
         <v>0.79</v>
       </c>
       <c r="F32" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1790,7 +1820,7 @@
         <v>0.79</v>
       </c>
       <c r="F33" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1810,7 +1840,7 @@
         <v>0.79</v>
       </c>
       <c r="F34" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1830,7 +1860,7 @@
         <v>0.79</v>
       </c>
       <c r="F35" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1850,7 +1880,7 @@
         <v>0.79</v>
       </c>
       <c r="F36" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1870,7 +1900,7 @@
         <v>0.79</v>
       </c>
       <c r="F37" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1890,7 +1920,7 @@
         <v>0.79</v>
       </c>
       <c r="F38" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1910,7 +1940,7 @@
         <v>0.79</v>
       </c>
       <c r="F39" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1930,7 +1960,7 @@
         <v>0.79</v>
       </c>
       <c r="F40" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1950,7 +1980,7 @@
         <v>0.79</v>
       </c>
       <c r="F41" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1970,7 +2000,7 @@
         <v>0.79</v>
       </c>
       <c r="F42" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1990,7 +2020,7 @@
         <v>0.79</v>
       </c>
       <c r="F43" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2010,7 +2040,7 @@
         <v>0.79</v>
       </c>
       <c r="F44" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2030,7 +2060,7 @@
         <v>0.79</v>
       </c>
       <c r="F45" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2050,7 +2080,7 @@
         <v>0.79</v>
       </c>
       <c r="F46" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2070,7 +2100,7 @@
         <v>0.79</v>
       </c>
       <c r="F47" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2090,7 +2120,7 @@
         <v>0.79</v>
       </c>
       <c r="F48" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2110,7 +2140,7 @@
         <v>0.79</v>
       </c>
       <c r="F49" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2130,7 +2160,7 @@
         <v>0.79</v>
       </c>
       <c r="F50" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2150,7 +2180,7 @@
         <v>0.79</v>
       </c>
       <c r="F51" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2170,7 +2200,7 @@
         <v>0.79</v>
       </c>
       <c r="F52" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2190,7 +2220,7 @@
         <v>0.79</v>
       </c>
       <c r="F53" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2210,7 +2240,7 @@
         <v>0.79</v>
       </c>
       <c r="F54" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2230,7 +2260,7 @@
         <v>0.79</v>
       </c>
       <c r="F55" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2250,7 +2280,7 @@
         <v>0.79</v>
       </c>
       <c r="F56" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2270,7 +2300,7 @@
         <v>0.79</v>
       </c>
       <c r="F57" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2290,7 +2320,7 @@
         <v>0.79</v>
       </c>
       <c r="F58" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2310,7 +2340,7 @@
         <v>0.79</v>
       </c>
       <c r="F59" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2330,7 +2360,7 @@
         <v>0.79</v>
       </c>
       <c r="F60" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2350,7 +2380,7 @@
         <v>0.79</v>
       </c>
       <c r="F61" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2370,7 +2400,7 @@
         <v>0.79</v>
       </c>
       <c r="F62" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2390,7 +2420,7 @@
         <v>0.79</v>
       </c>
       <c r="F63" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2410,7 +2440,7 @@
         <v>0.79</v>
       </c>
       <c r="F64" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2430,7 +2460,7 @@
         <v>0.79</v>
       </c>
       <c r="F65" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2450,7 +2480,7 @@
         <v>0.79</v>
       </c>
       <c r="F66" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2470,7 +2500,7 @@
         <v>0.79</v>
       </c>
       <c r="F67" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2490,7 +2520,7 @@
         <v>0.79</v>
       </c>
       <c r="F68" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2510,7 +2540,7 @@
         <v>0.79</v>
       </c>
       <c r="F69" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2530,7 +2560,7 @@
         <v>0.79</v>
       </c>
       <c r="F70" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2550,7 +2580,7 @@
         <v>0.79</v>
       </c>
       <c r="F71" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2570,7 +2600,7 @@
         <v>0.79</v>
       </c>
       <c r="F72" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2590,7 +2620,7 @@
         <v>0.79</v>
       </c>
       <c r="F73" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2610,7 +2640,7 @@
         <v>0.79</v>
       </c>
       <c r="F74" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2630,7 +2660,7 @@
         <v>0.79</v>
       </c>
       <c r="F75" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2650,7 +2680,7 @@
         <v>0.79</v>
       </c>
       <c r="F76" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2670,7 +2700,7 @@
         <v>0.79</v>
       </c>
       <c r="F77" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2690,7 +2720,7 @@
         <v>0.79</v>
       </c>
       <c r="F78" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2710,7 +2740,7 @@
         <v>0.79</v>
       </c>
       <c r="F79" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2730,7 +2760,7 @@
         <v>0.79</v>
       </c>
       <c r="F80" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2750,7 +2780,7 @@
         <v>0.79</v>
       </c>
       <c r="F81" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2770,7 +2800,7 @@
         <v>0.79</v>
       </c>
       <c r="F82" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2790,7 +2820,7 @@
         <v>0.79</v>
       </c>
       <c r="F83" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2810,7 +2840,7 @@
         <v>0.79</v>
       </c>
       <c r="F84" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2830,7 +2860,7 @@
         <v>0.79</v>
       </c>
       <c r="F85" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2850,7 +2880,7 @@
         <v>0.79</v>
       </c>
       <c r="F86" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2870,7 +2900,7 @@
         <v>0.79</v>
       </c>
       <c r="F87" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2890,7 +2920,7 @@
         <v>0.79</v>
       </c>
       <c r="F88" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2910,7 +2940,7 @@
         <v>0.79</v>
       </c>
       <c r="F89" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2930,7 +2960,7 @@
         <v>0.79</v>
       </c>
       <c r="F90" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2950,7 +2980,7 @@
         <v>0.79</v>
       </c>
       <c r="F91" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2970,7 +3000,7 @@
         <v>0.79</v>
       </c>
       <c r="F92" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2990,7 +3020,7 @@
         <v>0.79</v>
       </c>
       <c r="F93" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3010,7 +3040,7 @@
         <v>0.79</v>
       </c>
       <c r="F94" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3030,7 +3060,7 @@
         <v>0.79</v>
       </c>
       <c r="F95" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3050,7 +3080,7 @@
         <v>0.79</v>
       </c>
       <c r="F96" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3070,7 +3100,7 @@
         <v>0.79</v>
       </c>
       <c r="F97" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3090,7 +3120,7 @@
         <v>0.79</v>
       </c>
       <c r="F98" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3110,7 +3140,7 @@
         <v>0.79</v>
       </c>
       <c r="F99" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3130,7 +3160,7 @@
         <v>0.79</v>
       </c>
       <c r="F100" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3150,7 +3180,7 @@
         <v>0.79</v>
       </c>
       <c r="F101" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3170,7 +3200,7 @@
         <v>0.79</v>
       </c>
       <c r="F102" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3190,7 +3220,7 @@
         <v>0.79</v>
       </c>
       <c r="F103" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3210,7 +3240,7 @@
         <v>0.79</v>
       </c>
       <c r="F104" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3230,7 +3260,7 @@
         <v>0.79</v>
       </c>
       <c r="F105" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3250,7 +3280,7 @@
         <v>0.79</v>
       </c>
       <c r="F106" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3270,7 +3300,7 @@
         <v>0.79</v>
       </c>
       <c r="F107" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3290,7 +3320,7 @@
         <v>0.79</v>
       </c>
       <c r="F108" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3310,7 +3340,7 @@
         <v>0.79</v>
       </c>
       <c r="F109" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3330,7 +3360,7 @@
         <v>0.79</v>
       </c>
       <c r="F110" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3350,7 +3380,7 @@
         <v>0.79</v>
       </c>
       <c r="F111" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3370,7 +3400,7 @@
         <v>0.79</v>
       </c>
       <c r="F112" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3390,7 +3420,7 @@
         <v>0.79</v>
       </c>
       <c r="F113" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3410,7 +3440,7 @@
         <v>0.79</v>
       </c>
       <c r="F114" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3430,7 +3460,7 @@
         <v>0.79</v>
       </c>
       <c r="F115" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3450,7 +3480,7 @@
         <v>0.79</v>
       </c>
       <c r="F116" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3470,7 +3500,7 @@
         <v>0.79</v>
       </c>
       <c r="F117" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3490,7 +3520,7 @@
         <v>0.79</v>
       </c>
       <c r="F118" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3510,7 +3540,7 @@
         <v>0.79</v>
       </c>
       <c r="F119" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3530,7 +3560,7 @@
         <v>0.79</v>
       </c>
       <c r="F120" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3550,7 +3580,7 @@
         <v>0.79</v>
       </c>
       <c r="F121" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3570,7 +3600,7 @@
         <v>0.79</v>
       </c>
       <c r="F122" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3590,7 +3620,7 @@
         <v>0.79</v>
       </c>
       <c r="F123" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3610,7 +3640,7 @@
         <v>0.79</v>
       </c>
       <c r="F124" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3630,7 +3660,7 @@
         <v>0.79</v>
       </c>
       <c r="F125" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3650,7 +3680,7 @@
         <v>0.79</v>
       </c>
       <c r="F126" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3670,7 +3700,7 @@
         <v>0.79</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3690,7 +3720,7 @@
         <v>0.79</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3710,7 +3740,7 @@
         <v>0.79</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3730,7 +3760,7 @@
         <v>0.79</v>
       </c>
       <c r="F130" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3750,7 +3780,7 @@
         <v>0.79</v>
       </c>
       <c r="F131" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3770,7 +3800,7 @@
         <v>0.79</v>
       </c>
       <c r="F132" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3790,7 +3820,7 @@
         <v>0.79</v>
       </c>
       <c r="F133" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3810,7 +3840,7 @@
         <v>0.79</v>
       </c>
       <c r="F134" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3830,7 +3860,7 @@
         <v>0.79</v>
       </c>
       <c r="F135" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3850,7 +3880,7 @@
         <v>0.79</v>
       </c>
       <c r="F136" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3870,7 +3900,7 @@
         <v>0.79</v>
       </c>
       <c r="F137" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3890,7 +3920,7 @@
         <v>0.87</v>
       </c>
       <c r="F138" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3910,7 +3940,7 @@
         <v>1.21</v>
       </c>
       <c r="F139" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3930,7 +3960,7 @@
         <v>1.21</v>
       </c>
       <c r="F140" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3950,7 +3980,7 @@
         <v>1.21</v>
       </c>
       <c r="F141" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3970,7 +4000,7 @@
         <v>1.21</v>
       </c>
       <c r="F142" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3990,7 +4020,7 @@
         <v>1.21</v>
       </c>
       <c r="F143" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4010,7 +4040,7 @@
         <v>1.21</v>
       </c>
       <c r="F144" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4030,7 +4060,7 @@
         <v>1.21</v>
       </c>
       <c r="F145" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4050,7 +4080,7 @@
         <v>1.21</v>
       </c>
       <c r="F146" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4070,7 +4100,7 @@
         <v>1.21</v>
       </c>
       <c r="F147" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4090,7 +4120,7 @@
         <v>1.21</v>
       </c>
       <c r="F148" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4110,7 +4140,7 @@
         <v>1.21</v>
       </c>
       <c r="F149" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4130,7 +4160,7 @@
         <v>1.21</v>
       </c>
       <c r="F150" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4150,7 +4180,7 @@
         <v>1.21</v>
       </c>
       <c r="F151" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4170,7 +4200,7 @@
         <v>1.21</v>
       </c>
       <c r="F152" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4190,7 +4220,7 @@
         <v>1.21</v>
       </c>
       <c r="F153" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4210,7 +4240,7 @@
         <v>1.21</v>
       </c>
       <c r="F154" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4230,7 +4260,7 @@
         <v>1.21</v>
       </c>
       <c r="F155" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4250,7 +4280,7 @@
         <v>1.21</v>
       </c>
       <c r="F156" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4270,7 +4300,7 @@
         <v>1.21</v>
       </c>
       <c r="F157" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4290,7 +4320,7 @@
         <v>0.99</v>
       </c>
       <c r="F158" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4310,7 +4340,7 @@
         <v>0.79</v>
       </c>
       <c r="F159" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4330,7 +4360,7 @@
         <v>0.79</v>
       </c>
       <c r="F160" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4350,7 +4380,7 @@
         <v>0.79</v>
       </c>
       <c r="F161" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4370,7 +4400,7 @@
         <v>0.79</v>
       </c>
       <c r="F162" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4390,7 +4420,7 @@
         <v>0.79</v>
       </c>
       <c r="F163" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4410,7 +4440,7 @@
         <v>0.79</v>
       </c>
       <c r="F164" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4430,7 +4460,7 @@
         <v>0.79</v>
       </c>
       <c r="F165" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4450,7 +4480,7 @@
         <v>0.79</v>
       </c>
       <c r="F166" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4470,7 +4500,7 @@
         <v>0.79</v>
       </c>
       <c r="F167" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4490,7 +4520,7 @@
         <v>0.79</v>
       </c>
       <c r="F168" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4510,7 +4540,7 @@
         <v>0.79</v>
       </c>
       <c r="F169" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4530,7 +4560,7 @@
         <v>0.79</v>
       </c>
       <c r="F170" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4550,7 +4580,7 @@
         <v>0.79</v>
       </c>
       <c r="F171" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4570,7 +4600,7 @@
         <v>0.79</v>
       </c>
       <c r="F172" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4590,7 +4620,7 @@
         <v>0.79</v>
       </c>
       <c r="F173" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4610,7 +4640,7 @@
         <v>0.79</v>
       </c>
       <c r="F174" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4630,7 +4660,7 @@
         <v>0.79</v>
       </c>
       <c r="F175" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4650,7 +4680,7 @@
         <v>0.79</v>
       </c>
       <c r="F176" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4670,7 +4700,7 @@
         <v>0.79</v>
       </c>
       <c r="F177" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4690,7 +4720,7 @@
         <v>0.79</v>
       </c>
       <c r="F178" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4710,7 +4740,7 @@
         <v>0.79</v>
       </c>
       <c r="F179" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4730,7 +4760,7 @@
         <v>0.79</v>
       </c>
       <c r="F180" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4750,7 +4780,7 @@
         <v>0.79</v>
       </c>
       <c r="F181" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4770,7 +4800,7 @@
         <v>0.79</v>
       </c>
       <c r="F182" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4790,7 +4820,7 @@
         <v>0.79</v>
       </c>
       <c r="F183" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4810,7 +4840,7 @@
         <v>0.79</v>
       </c>
       <c r="F184" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4830,7 +4860,7 @@
         <v>0.79</v>
       </c>
       <c r="F185" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4850,7 +4880,7 @@
         <v>0.79</v>
       </c>
       <c r="F186" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4870,7 +4900,7 @@
         <v>0.79</v>
       </c>
       <c r="F187" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4890,7 +4920,7 @@
         <v>0.79</v>
       </c>
       <c r="F188" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4910,7 +4940,7 @@
         <v>0.79</v>
       </c>
       <c r="F189" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4930,7 +4960,7 @@
         <v>0.79</v>
       </c>
       <c r="F190" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4950,7 +4980,7 @@
         <v>0.79</v>
       </c>
       <c r="F191" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4970,7 +5000,7 @@
         <v>0.79</v>
       </c>
       <c r="F192" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4990,7 +5020,7 @@
         <v>0.79</v>
       </c>
       <c r="F193" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5010,7 +5040,7 @@
         <v>0.79</v>
       </c>
       <c r="F194" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5030,7 +5060,7 @@
         <v>0.79</v>
       </c>
       <c r="F195" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5050,7 +5080,7 @@
         <v>0.79</v>
       </c>
       <c r="F196" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5070,7 +5100,7 @@
         <v>0.79</v>
       </c>
       <c r="F197" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5090,7 +5120,7 @@
         <v>0.79</v>
       </c>
       <c r="F198" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5110,7 +5140,7 @@
         <v>0.79</v>
       </c>
       <c r="F199" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5130,7 +5160,7 @@
         <v>0.79</v>
       </c>
       <c r="F200" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5150,7 +5180,7 @@
         <v>0.79</v>
       </c>
       <c r="F201" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5170,7 +5200,7 @@
         <v>0.79</v>
       </c>
       <c r="F202" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5190,7 +5220,7 @@
         <v>0.79</v>
       </c>
       <c r="F203" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5210,7 +5240,7 @@
         <v>0.79</v>
       </c>
       <c r="F204" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5230,7 +5260,7 @@
         <v>0.79</v>
       </c>
       <c r="F205" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5250,7 +5280,7 @@
         <v>0.79</v>
       </c>
       <c r="F206" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5270,7 +5300,7 @@
         <v>0.79</v>
       </c>
       <c r="F207" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5290,7 +5320,7 @@
         <v>0.79</v>
       </c>
       <c r="F208" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5310,7 +5340,7 @@
         <v>0.79</v>
       </c>
       <c r="F209" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5330,7 +5360,7 @@
         <v>0.79</v>
       </c>
       <c r="F210" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5350,7 +5380,7 @@
         <v>0.79</v>
       </c>
       <c r="F211" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5370,7 +5400,7 @@
         <v>0.79</v>
       </c>
       <c r="F212" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5390,7 +5420,7 @@
         <v>0.79</v>
       </c>
       <c r="F213" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5410,7 +5440,7 @@
         <v>0.79</v>
       </c>
       <c r="F214" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5430,7 +5460,7 @@
         <v>0.79</v>
       </c>
       <c r="F215" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5450,7 +5480,7 @@
         <v>0.79</v>
       </c>
       <c r="F216" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5470,7 +5500,7 @@
         <v>0.79</v>
       </c>
       <c r="F217" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5490,7 +5520,7 @@
         <v>0.79</v>
       </c>
       <c r="F218" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5510,7 +5540,7 @@
         <v>0.79</v>
       </c>
       <c r="F219" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5530,7 +5560,7 @@
         <v>0.79</v>
       </c>
       <c r="F220" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5550,7 +5580,7 @@
         <v>0.79</v>
       </c>
       <c r="F221" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5570,7 +5600,7 @@
         <v>0.79</v>
       </c>
       <c r="F222" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5590,7 +5620,7 @@
         <v>0.79</v>
       </c>
       <c r="F223" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5610,7 +5640,7 @@
         <v>0.79</v>
       </c>
       <c r="F224" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5630,7 +5660,7 @@
         <v>0.79</v>
       </c>
       <c r="F225" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5650,7 +5680,7 @@
         <v>0.79</v>
       </c>
       <c r="F226" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5670,7 +5700,7 @@
         <v>0.79</v>
       </c>
       <c r="F227" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5690,7 +5720,7 @@
         <v>0.79</v>
       </c>
       <c r="F228" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5710,7 +5740,7 @@
         <v>0.79</v>
       </c>
       <c r="F229" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5730,7 +5760,7 @@
         <v>0.79</v>
       </c>
       <c r="F230" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5750,7 +5780,7 @@
         <v>0.79</v>
       </c>
       <c r="F231" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5770,7 +5800,7 @@
         <v>0.79</v>
       </c>
       <c r="F232" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5790,7 +5820,7 @@
         <v>0.79</v>
       </c>
       <c r="F233" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5810,7 +5840,7 @@
         <v>0.79</v>
       </c>
       <c r="F234" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5830,7 +5860,7 @@
         <v>0.79</v>
       </c>
       <c r="F235" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5850,7 +5880,7 @@
         <v>0.79</v>
       </c>
       <c r="F236" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5870,7 +5900,7 @@
         <v>0.79</v>
       </c>
       <c r="F237" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5890,7 +5920,7 @@
         <v>0.79</v>
       </c>
       <c r="F238" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5910,7 +5940,7 @@
         <v>0.79</v>
       </c>
       <c r="F239" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5930,7 +5960,7 @@
         <v>0.79</v>
       </c>
       <c r="F240" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5950,7 +5980,7 @@
         <v>0.79</v>
       </c>
       <c r="F241" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5970,7 +6000,7 @@
         <v>0.79</v>
       </c>
       <c r="F242" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -5990,7 +6020,7 @@
         <v>0.79</v>
       </c>
       <c r="F243" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6010,7 +6040,7 @@
         <v>0.79</v>
       </c>
       <c r="F244" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6030,7 +6060,7 @@
         <v>0.79</v>
       </c>
       <c r="F245" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6050,7 +6080,7 @@
         <v>0.79</v>
       </c>
       <c r="F246" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6070,7 +6100,7 @@
         <v>0.79</v>
       </c>
       <c r="F247" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6090,7 +6120,207 @@
         <v>0.79</v>
       </c>
       <c r="F248" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" t="s">
         <v>252</v>
+      </c>
+      <c r="C249">
+        <v>13.57</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+      <c r="E249">
+        <v>0.79</v>
+      </c>
+      <c r="F249" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" t="s">
+        <v>253</v>
+      </c>
+      <c r="C250">
+        <v>13.57</v>
+      </c>
+      <c r="D250">
+        <v>0</v>
+      </c>
+      <c r="E250">
+        <v>0.79</v>
+      </c>
+      <c r="F250" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" t="s">
+        <v>254</v>
+      </c>
+      <c r="C251">
+        <v>13.57</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+      <c r="E251">
+        <v>0.79</v>
+      </c>
+      <c r="F251" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" t="s">
+        <v>255</v>
+      </c>
+      <c r="C252">
+        <v>13.58</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252">
+        <v>0.79</v>
+      </c>
+      <c r="F252" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" t="s">
+        <v>256</v>
+      </c>
+      <c r="C253">
+        <v>13.58</v>
+      </c>
+      <c r="D253">
+        <v>0</v>
+      </c>
+      <c r="E253">
+        <v>0.79</v>
+      </c>
+      <c r="F253" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" t="s">
+        <v>257</v>
+      </c>
+      <c r="C254">
+        <v>13.58</v>
+      </c>
+      <c r="D254">
+        <v>0</v>
+      </c>
+      <c r="E254">
+        <v>0.79</v>
+      </c>
+      <c r="F254" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" t="s">
+        <v>258</v>
+      </c>
+      <c r="C255">
+        <v>13.58</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+      <c r="E255">
+        <v>0.79</v>
+      </c>
+      <c r="F255" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" t="s">
+        <v>259</v>
+      </c>
+      <c r="C256">
+        <v>13.58</v>
+      </c>
+      <c r="D256">
+        <v>0</v>
+      </c>
+      <c r="E256">
+        <v>0.79</v>
+      </c>
+      <c r="F256" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" t="s">
+        <v>260</v>
+      </c>
+      <c r="C257">
+        <v>13.58</v>
+      </c>
+      <c r="D257">
+        <v>0</v>
+      </c>
+      <c r="E257">
+        <v>0.79</v>
+      </c>
+      <c r="F257" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" t="s">
+        <v>261</v>
+      </c>
+      <c r="C258">
+        <v>13.58</v>
+      </c>
+      <c r="D258">
+        <v>0</v>
+      </c>
+      <c r="E258">
+        <v>0.79</v>
+      </c>
+      <c r="F258" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
